--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44211</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K2" t="n">
         <v>850</v>
@@ -510,7 +510,7 @@
         <v>900</v>
       </c>
       <c r="M2" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44203</v>
+        <v>44211</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K3" t="n">
         <v>650</v>
@@ -582,7 +582,7 @@
         <v>700</v>
       </c>
       <c r="M3" t="n">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44203</v>
+        <v>44211</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K4" t="n">
         <v>450</v>
@@ -654,7 +654,7 @@
         <v>500</v>
       </c>
       <c r="M4" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44203</v>
+        <v>44243</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L5" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M5" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L6" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M6" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="L7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M7" t="n">
-        <v>975</v>
+        <v>175</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>975</v>
+        <v>175</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K8" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M8" t="n">
-        <v>773</v>
+        <v>875</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>773</v>
+        <v>875</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K9" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L9" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M9" t="n">
-        <v>540</v>
+        <v>678</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>540</v>
+        <v>678</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M10" t="n">
-        <v>945</v>
+        <v>480</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>945</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="K11" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M11" t="n">
-        <v>750</v>
+        <v>1156</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>750</v>
+        <v>1156</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K12" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="L12" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="M12" t="n">
-        <v>586</v>
+        <v>281</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>586</v>
+        <v>281</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K13" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
         <v>850</v>
       </c>
       <c r="M13" t="n">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L14" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M14" t="n">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K15" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L15" t="n">
         <v>500</v>
       </c>
       <c r="M15" t="n">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K16" t="n">
         <v>950</v>
@@ -1518,7 +1518,7 @@
         <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K17" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L17" t="n">
         <v>350</v>
       </c>
       <c r="M17" t="n">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44252</v>
+        <v>44208</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K18" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M18" t="n">
-        <v>925</v>
+        <v>975</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>925</v>
+        <v>975</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44252</v>
+        <v>44208</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K19" t="n">
+        <v>750</v>
+      </c>
+      <c r="L19" t="n">
         <v>800</v>
       </c>
-      <c r="L19" t="n">
-        <v>850</v>
-      </c>
       <c r="M19" t="n">
-        <v>825</v>
+        <v>776</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>825</v>
+        <v>776</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44229</v>
+        <v>44208</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L20" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M20" t="n">
-        <v>825</v>
+        <v>570</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>825</v>
+        <v>570</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44229</v>
+        <v>44208</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L21" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M21" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K22" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L22" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K23" t="n">
         <v>500</v>
       </c>
       <c r="L23" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M23" t="n">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44225</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K24" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L24" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M24" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44166</v>
+        <v>44193</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L25" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M25" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44193</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K26" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L26" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M26" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K27" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L27" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M27" t="n">
-        <v>779</v>
+        <v>977</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>779</v>
+        <v>977</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K28" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L28" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M28" t="n">
-        <v>576</v>
+        <v>776</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>576</v>
+        <v>776</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K29" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L29" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M29" t="n">
-        <v>357</v>
+        <v>575</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>357</v>
+        <v>575</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44215</v>
+        <v>44232</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L30" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M30" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44215</v>
+        <v>44232</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L31" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>625</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>220</v>
+        <v>625</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44215</v>
+        <v>44232</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L32" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M32" t="n">
-        <v>877</v>
+        <v>725</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>877</v>
+        <v>725</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44215</v>
+        <v>44232</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K33" t="n">
+        <v>600</v>
+      </c>
+      <c r="L33" t="n">
         <v>650</v>
       </c>
-      <c r="L33" t="n">
-        <v>700</v>
-      </c>
       <c r="M33" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2796,25 +2796,25 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K34" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L34" t="n">
         <v>500</v>
       </c>
       <c r="M34" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44221</v>
+        <v>44166</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L35" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M35" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44221</v>
+        <v>44166</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K36" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L36" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M36" t="n">
-        <v>653</v>
+        <v>800</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>653</v>
+        <v>800</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44221</v>
+        <v>44202</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2000</v>
+        <v>1550</v>
       </c>
       <c r="K37" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L37" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="M37" t="n">
-        <v>460</v>
+        <v>927</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>460</v>
+        <v>927</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44221</v>
+        <v>44202</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K38" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L38" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>677</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>677</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K39" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L39" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M39" t="n">
-        <v>175</v>
+        <v>470</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>175</v>
+        <v>470</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>1400</v>
       </c>
       <c r="K40" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="L40" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M40" t="n">
-        <v>875</v>
+        <v>271</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>875</v>
+        <v>271</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44204</v>
+        <v>44216</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K41" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L41" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M41" t="n">
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44204</v>
+        <v>44216</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K42" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L42" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M42" t="n">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44204</v>
+        <v>44216</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="K43" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="L43" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M43" t="n">
-        <v>1156</v>
+        <v>353</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1156</v>
+        <v>353</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44204</v>
+        <v>44216</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K44" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="L44" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M44" t="n">
-        <v>281</v>
+        <v>977</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>281</v>
+        <v>977</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44200</v>
+        <v>44216</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K45" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L45" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="M45" t="n">
-        <v>953</v>
+        <v>225</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>953</v>
+        <v>225</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44200</v>
+        <v>44229</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="K46" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L46" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M46" t="n">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44200</v>
+        <v>44229</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L47" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M47" t="n">
-        <v>582</v>
+        <v>825</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>582</v>
+        <v>825</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44216</v>
+        <v>44189</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K48" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L48" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M48" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44216</v>
+        <v>44181</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1900</v>
+        <v>260</v>
       </c>
       <c r="K49" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L49" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M49" t="n">
-        <v>547</v>
+        <v>875</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>547</v>
+        <v>875</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K50" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L50" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M50" t="n">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K51" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L51" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M51" t="n">
-        <v>977</v>
+        <v>625</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>977</v>
+        <v>625</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4092,25 +4092,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K52" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L52" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M52" t="n">
-        <v>225</v>
+        <v>725</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>225</v>
+        <v>725</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44243</v>
+        <v>44231</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>600</v>
       </c>
       <c r="K53" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L53" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M53" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44243</v>
+        <v>44203</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K54" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L54" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M54" t="n">
-        <v>625</v>
+        <v>873</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>625</v>
+        <v>873</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4313,11 +4313,11 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K55" t="n">
         <v>650</v>
@@ -4326,7 +4326,7 @@
         <v>700</v>
       </c>
       <c r="M55" t="n">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -4398,7 +4398,7 @@
         <v>500</v>
       </c>
       <c r="M56" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K57" t="n">
+        <v>250</v>
+      </c>
+      <c r="L57" t="n">
         <v>300</v>
       </c>
-      <c r="L57" t="n">
-        <v>400</v>
-      </c>
       <c r="M57" t="n">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44222</v>
+        <v>44230</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K58" t="n">
+        <v>800</v>
+      </c>
+      <c r="L58" t="n">
         <v>850</v>
       </c>
-      <c r="L58" t="n">
-        <v>900</v>
-      </c>
       <c r="M58" t="n">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44225</v>
+        <v>44230</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K59" t="n">
         <v>700</v>
       </c>
       <c r="L59" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M59" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44225</v>
+        <v>44230</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K60" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L60" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M60" t="n">
-        <v>553</v>
+        <v>825</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>553</v>
+        <v>825</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44225</v>
+        <v>44230</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K61" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L61" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M61" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44194</v>
+        <v>44172</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K62" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L62" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M62" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44194</v>
+        <v>44172</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="K63" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L63" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M63" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44194</v>
+        <v>44236</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K64" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L64" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="M64" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44194</v>
+        <v>44236</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K65" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L65" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="M65" t="n">
-        <v>825</v>
+        <v>525</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>825</v>
+        <v>525</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K66" t="n">
         <v>900</v>
       </c>
       <c r="L66" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="M66" t="n">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5177,11 +5177,11 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K67" t="n">
         <v>800</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44214</v>
+        <v>44195</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K68" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L68" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M68" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44214</v>
+        <v>44195</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K69" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L69" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M69" t="n">
-        <v>660</v>
+        <v>875</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>660</v>
+        <v>875</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44214</v>
+        <v>44195</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K70" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L70" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M70" t="n">
-        <v>482</v>
+        <v>725</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>482</v>
+        <v>725</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44214</v>
+        <v>44209</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5465,11 +5465,11 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K71" t="n">
         <v>950</v>
@@ -5478,7 +5478,7 @@
         <v>1000</v>
       </c>
       <c r="M71" t="n">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44214</v>
+        <v>44209</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="K72" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L72" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M72" t="n">
-        <v>325</v>
+        <v>779</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>325</v>
+        <v>779</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44224</v>
+        <v>44209</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K73" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L73" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M73" t="n">
-        <v>747</v>
+        <v>578</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>747</v>
+        <v>578</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K74" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L74" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M74" t="n">
-        <v>544</v>
+        <v>850</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>544</v>
+        <v>850</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K75" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L75" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M75" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K76" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L76" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M76" t="n">
-        <v>942</v>
+        <v>460</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>942</v>
+        <v>460</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K77" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="L77" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M77" t="n">
-        <v>773</v>
+        <v>300</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>773</v>
+        <v>300</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5964,25 +5964,25 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K78" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L78" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M78" t="n">
-        <v>572</v>
+        <v>953</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>572</v>
+        <v>953</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="K79" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L79" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M79" t="n">
-        <v>374</v>
+        <v>780</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>374</v>
+        <v>780</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44209</v>
+        <v>44200</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K80" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L80" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M80" t="n">
-        <v>975</v>
+        <v>582</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>975</v>
+        <v>582</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44209</v>
+        <v>44252</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K81" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L81" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="M81" t="n">
-        <v>779</v>
+        <v>925</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>779</v>
+        <v>925</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44209</v>
+        <v>44252</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K82" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L82" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M82" t="n">
-        <v>578</v>
+        <v>825</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>578</v>
+        <v>825</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K83" t="n">
         <v>700</v>
       </c>
       <c r="L83" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M83" t="n">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K84" t="n">
+        <v>500</v>
+      </c>
+      <c r="L84" t="n">
         <v>600</v>
       </c>
-      <c r="K84" t="n">
-        <v>600</v>
-      </c>
-      <c r="L84" t="n">
-        <v>650</v>
-      </c>
       <c r="M84" t="n">
-        <v>625</v>
+        <v>544</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>625</v>
+        <v>544</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K85" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L85" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M85" t="n">
-        <v>725</v>
+        <v>400</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>725</v>
+        <v>400</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K86" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L86" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M86" t="n">
-        <v>625</v>
+        <v>942</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>625</v>
+        <v>942</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K87" t="n">
+        <v>750</v>
+      </c>
+      <c r="L87" t="n">
         <v>800</v>
       </c>
-      <c r="L87" t="n">
-        <v>850</v>
-      </c>
       <c r="M87" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K88" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L88" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M88" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44196</v>
+        <v>44224</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K89" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L89" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M89" t="n">
-        <v>825</v>
+        <v>374</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>825</v>
+        <v>374</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K90" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L90" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M90" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
         <v>300</v>
       </c>
       <c r="K91" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L91" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M91" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
         <v>300</v>
       </c>
       <c r="K92" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L92" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="M92" t="n">
-        <v>825</v>
+        <v>925</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>825</v>
+        <v>925</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K93" t="n">
+        <v>800</v>
+      </c>
+      <c r="L93" t="n">
         <v>850</v>
       </c>
-      <c r="L93" t="n">
-        <v>900</v>
-      </c>
       <c r="M93" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>160</v>
+        <v>1700</v>
       </c>
       <c r="K94" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L94" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M94" t="n">
-        <v>725</v>
+        <v>803</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>725</v>
+        <v>803</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44202</v>
+        <v>44218</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1550</v>
+        <v>2100</v>
       </c>
       <c r="K95" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L95" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="M95" t="n">
-        <v>927</v>
+        <v>607</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>927</v>
+        <v>607</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44202</v>
+        <v>44218</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
         <v>2200</v>
       </c>
       <c r="K96" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L96" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M96" t="n">
-        <v>677</v>
+        <v>459</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>677</v>
+        <v>459</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44202</v>
+        <v>44218</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K97" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L97" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M97" t="n">
-        <v>470</v>
+        <v>979</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>470</v>
+        <v>979</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44202</v>
+        <v>44218</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K98" t="n">
         <v>250</v>
       </c>
       <c r="L98" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M98" t="n">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44181</v>
+        <v>44215</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>260</v>
+        <v>1400</v>
       </c>
       <c r="K99" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L99" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M99" t="n">
-        <v>875</v>
+        <v>779</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>875</v>
+        <v>779</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K100" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L100" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M100" t="n">
-        <v>925</v>
+        <v>576</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>925</v>
+        <v>576</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K101" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L101" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M101" t="n">
-        <v>825</v>
+        <v>357</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>825</v>
+        <v>357</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K102" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L102" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M102" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K103" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="L103" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="M103" t="n">
-        <v>875</v>
+        <v>220</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>875</v>
+        <v>220</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K104" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L104" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M104" t="n">
-        <v>725</v>
+        <v>877</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>725</v>
+        <v>877</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7908,25 +7908,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K105" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="L105" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M105" t="n">
-        <v>977</v>
+        <v>675</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>977</v>
+        <v>675</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7980,25 +7980,25 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K106" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L106" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M106" t="n">
-        <v>776</v>
+        <v>475</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>776</v>
+        <v>475</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
         <v>1600</v>
       </c>
       <c r="K107" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L107" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M107" t="n">
-        <v>575</v>
+        <v>825</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>575</v>
+        <v>825</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44211</v>
+        <v>44194</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>1200</v>
       </c>
       <c r="K108" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L108" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M108" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44211</v>
+        <v>44194</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K109" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L109" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="M109" t="n">
-        <v>677</v>
+        <v>925</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>677</v>
+        <v>925</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44211</v>
+        <v>44194</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K110" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L110" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M110" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44230</v>
+        <v>44222</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K111" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L111" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="M111" t="n">
-        <v>825</v>
+        <v>674</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>825</v>
+        <v>674</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44230</v>
+        <v>44222</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K112" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L112" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M112" t="n">
-        <v>725</v>
+        <v>480</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>725</v>
+        <v>480</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44230</v>
+        <v>44222</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8484,25 +8484,25 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K113" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L113" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M113" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44230</v>
+        <v>44222</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K114" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L114" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M114" t="n">
-        <v>725</v>
+        <v>871</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>725</v>
+        <v>871</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44232</v>
+        <v>44210</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K115" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L115" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M115" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44232</v>
+        <v>44210</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K116" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L116" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M116" t="n">
-        <v>625</v>
+        <v>773</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>625</v>
+        <v>773</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44232</v>
+        <v>44210</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8772,25 +8772,25 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K117" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L117" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M117" t="n">
-        <v>725</v>
+        <v>540</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>725</v>
+        <v>540</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44232</v>
+        <v>44210</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K118" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L118" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M118" t="n">
-        <v>625</v>
+        <v>945</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>625</v>
+        <v>945</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44223</v>
+        <v>44210</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8916,16 +8916,16 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K119" t="n">
         <v>700</v>
@@ -8934,7 +8934,7 @@
         <v>800</v>
       </c>
       <c r="M119" t="n">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44223</v>
+        <v>44210</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8988,25 +8988,25 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K120" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L120" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M120" t="n">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44223</v>
+        <v>44251</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K121" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L121" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M121" t="n">
-        <v>347</v>
+        <v>875</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>347</v>
+        <v>875</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44223</v>
+        <v>44251</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K122" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L122" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M122" t="n">
-        <v>955</v>
+        <v>725</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>955</v>
+        <v>725</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
         <v>1500</v>
       </c>
       <c r="K123" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L123" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M123" t="n">
-        <v>220</v>
+        <v>753</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>220</v>
+        <v>753</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K124" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L124" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M124" t="n">
-        <v>975</v>
+        <v>556</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>975</v>
+        <v>556</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K125" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L125" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M125" t="n">
-        <v>776</v>
+        <v>347</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>776</v>
+        <v>347</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="K126" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L126" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M126" t="n">
-        <v>570</v>
+        <v>955</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>570</v>
+        <v>955</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K127" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L127" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M127" t="n">
-        <v>347</v>
+        <v>220</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>347</v>
+        <v>220</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44211</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -497,11 +497,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1200</v>
+        <v>260</v>
       </c>
       <c r="K2" t="n">
         <v>850</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44211</v>
+        <v>44204</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K3" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="L3" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M3" t="n">
-        <v>677</v>
+        <v>175</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>677</v>
+        <v>175</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44211</v>
+        <v>44204</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K4" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L4" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M4" t="n">
-        <v>476</v>
+        <v>875</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>476</v>
+        <v>875</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K5" t="n">
+        <v>650</v>
+      </c>
+      <c r="L5" t="n">
         <v>700</v>
       </c>
-      <c r="L5" t="n">
-        <v>750</v>
-      </c>
       <c r="M5" t="n">
-        <v>725</v>
+        <v>678</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>725</v>
+        <v>678</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>450</v>
+      </c>
+      <c r="L6" t="n">
         <v>500</v>
       </c>
-      <c r="K6" t="n">
-        <v>600</v>
-      </c>
-      <c r="L6" t="n">
-        <v>650</v>
-      </c>
       <c r="M6" t="n">
-        <v>625</v>
+        <v>480</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>625</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="K7" t="n">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="L7" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="M7" t="n">
-        <v>175</v>
+        <v>1156</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>175</v>
+        <v>1156</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K8" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="L8" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M8" t="n">
-        <v>875</v>
+        <v>281</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>875</v>
+        <v>281</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44204</v>
+        <v>44194</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K9" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M9" t="n">
-        <v>678</v>
+        <v>825</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>678</v>
+        <v>825</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K10" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L10" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M10" t="n">
-        <v>480</v>
+        <v>725</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>725</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44204</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K11" t="n">
         <v>900</v>
       </c>
-      <c r="K11" t="n">
-        <v>1100</v>
-      </c>
       <c r="L11" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="M11" t="n">
-        <v>1156</v>
+        <v>925</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1156</v>
+        <v>925</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44204</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K12" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="M12" t="n">
-        <v>281</v>
+        <v>825</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>281</v>
+        <v>825</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44214</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K13" t="n">
         <v>800</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2000</v>
+        <v>1550</v>
       </c>
       <c r="K14" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L14" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="M14" t="n">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="K15" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L15" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M15" t="n">
-        <v>482</v>
+        <v>677</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>482</v>
+        <v>677</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="L16" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M16" t="n">
-        <v>977</v>
+        <v>470</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>977</v>
+        <v>470</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K17" t="n">
+        <v>250</v>
+      </c>
+      <c r="L17" t="n">
         <v>300</v>
       </c>
-      <c r="L17" t="n">
-        <v>350</v>
-      </c>
       <c r="M17" t="n">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L18" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M18" t="n">
-        <v>975</v>
+        <v>625</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>975</v>
+        <v>625</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="K19" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M19" t="n">
-        <v>776</v>
+        <v>525</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>776</v>
+        <v>525</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44208</v>
+        <v>44222</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="K20" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L20" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M20" t="n">
-        <v>570</v>
+        <v>674</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>570</v>
+        <v>674</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44208</v>
+        <v>44222</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K21" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L21" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M21" t="n">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K22" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M22" t="n">
-        <v>750</v>
+        <v>347</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>750</v>
+        <v>347</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K23" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L23" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M23" t="n">
-        <v>553</v>
+        <v>871</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>553</v>
+        <v>871</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44225</v>
+        <v>44232</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K24" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L24" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M24" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44193</v>
+        <v>44232</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K25" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L25" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M25" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44193</v>
+        <v>44232</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2220,16 +2220,16 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K26" t="n">
         <v>700</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44201</v>
+        <v>44232</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2292,25 +2292,25 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K27" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L27" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M27" t="n">
-        <v>977</v>
+        <v>625</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>977</v>
+        <v>625</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44201</v>
+        <v>44231</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K28" t="n">
+        <v>700</v>
+      </c>
+      <c r="L28" t="n">
         <v>750</v>
       </c>
-      <c r="L28" t="n">
-        <v>800</v>
-      </c>
       <c r="M28" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44201</v>
+        <v>44231</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K29" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L29" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M29" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
         <v>700</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44232</v>
+        <v>44224</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K32" t="n">
         <v>700</v>
       </c>
       <c r="L32" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M32" t="n">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44232</v>
+        <v>44224</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2724,25 +2724,25 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="K33" t="n">
+        <v>500</v>
+      </c>
+      <c r="L33" t="n">
         <v>600</v>
       </c>
-      <c r="L33" t="n">
-        <v>650</v>
-      </c>
       <c r="M33" t="n">
-        <v>625</v>
+        <v>544</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>625</v>
+        <v>544</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44166</v>
+        <v>44224</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K34" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L34" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M34" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44166</v>
+        <v>44224</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L35" t="n">
         <v>1000</v>
       </c>
       <c r="M35" t="n">
-        <v>1000</v>
+        <v>942</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>942</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44166</v>
+        <v>44224</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2940,25 +2940,25 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K36" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="L36" t="n">
         <v>800</v>
       </c>
       <c r="M36" t="n">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44202</v>
+        <v>44224</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3012,25 +3012,25 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="K37" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L37" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M37" t="n">
-        <v>927</v>
+        <v>572</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>927</v>
+        <v>572</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44202</v>
+        <v>44224</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="K38" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L38" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M38" t="n">
-        <v>677</v>
+        <v>374</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>677</v>
+        <v>374</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44202</v>
+        <v>44195</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K39" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L39" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="M39" t="n">
-        <v>470</v>
+        <v>925</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>470</v>
+        <v>925</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44202</v>
+        <v>44195</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K40" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L40" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="M40" t="n">
-        <v>271</v>
+        <v>825</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>271</v>
+        <v>825</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
         <v>700</v>
       </c>
       <c r="L41" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M41" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="K42" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L42" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M42" t="n">
-        <v>547</v>
+        <v>875</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>547</v>
+        <v>875</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K43" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L43" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M43" t="n">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K44" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L44" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M44" t="n">
-        <v>977</v>
+        <v>825</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>977</v>
+        <v>825</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K45" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L45" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M45" t="n">
-        <v>225</v>
+        <v>725</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>225</v>
+        <v>725</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K46" t="n">
         <v>800</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L47" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M47" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K48" t="n">
+        <v>700</v>
+      </c>
+      <c r="L48" t="n">
         <v>800</v>
       </c>
-      <c r="L48" t="n">
-        <v>850</v>
-      </c>
       <c r="M48" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44181</v>
+        <v>44216</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>260</v>
+        <v>1900</v>
       </c>
       <c r="K49" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L49" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M49" t="n">
-        <v>875</v>
+        <v>547</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>875</v>
+        <v>547</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44231</v>
+        <v>44216</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K50" t="n">
         <v>300</v>
       </c>
-      <c r="K50" t="n">
-        <v>700</v>
-      </c>
       <c r="L50" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M50" t="n">
-        <v>725</v>
+        <v>353</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>725</v>
+        <v>353</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44231</v>
+        <v>44216</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K51" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="L51" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M51" t="n">
-        <v>625</v>
+        <v>977</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>625</v>
+        <v>977</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44231</v>
+        <v>44216</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4092,25 +4092,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K52" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L52" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M52" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K53" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L53" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M53" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44203</v>
+        <v>44229</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4236,25 +4236,25 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K54" t="n">
+        <v>800</v>
+      </c>
+      <c r="L54" t="n">
         <v>850</v>
       </c>
-      <c r="L54" t="n">
-        <v>900</v>
-      </c>
       <c r="M54" t="n">
-        <v>873</v>
+        <v>825</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>873</v>
+        <v>825</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44203</v>
+        <v>44225</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K55" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L55" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M55" t="n">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44203</v>
+        <v>44225</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>1500</v>
       </c>
       <c r="K56" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L56" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M56" t="n">
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44203</v>
+        <v>44225</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K57" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L57" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" t="n">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44230</v>
+        <v>44218</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K58" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="L58" t="n">
         <v>850</v>
       </c>
       <c r="M58" t="n">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44230</v>
+        <v>44218</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="K59" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L59" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M59" t="n">
-        <v>725</v>
+        <v>607</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>725</v>
+        <v>607</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44230</v>
+        <v>44218</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4668,25 +4668,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="K60" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L60" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M60" t="n">
-        <v>825</v>
+        <v>459</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>825</v>
+        <v>459</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44230</v>
+        <v>44218</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4740,25 +4740,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K61" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L61" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M61" t="n">
-        <v>725</v>
+        <v>979</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>725</v>
+        <v>979</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44172</v>
+        <v>44218</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K62" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L62" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="M62" t="n">
-        <v>950</v>
+        <v>310</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>950</v>
+        <v>310</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44172</v>
+        <v>44223</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="K63" t="n">
+        <v>700</v>
+      </c>
+      <c r="L63" t="n">
         <v>800</v>
       </c>
-      <c r="L63" t="n">
-        <v>850</v>
-      </c>
       <c r="M63" t="n">
-        <v>825</v>
+        <v>753</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>825</v>
+        <v>753</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K64" t="n">
+        <v>500</v>
+      </c>
+      <c r="L64" t="n">
         <v>600</v>
       </c>
-      <c r="K64" t="n">
-        <v>600</v>
-      </c>
-      <c r="L64" t="n">
-        <v>650</v>
-      </c>
       <c r="M64" t="n">
-        <v>625</v>
+        <v>556</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>625</v>
+        <v>556</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K65" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L65" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M65" t="n">
-        <v>525</v>
+        <v>347</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>525</v>
+        <v>347</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44195</v>
+        <v>44223</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K66" t="n">
         <v>900</v>
       </c>
       <c r="L66" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M66" t="n">
-        <v>925</v>
+        <v>955</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>925</v>
+        <v>955</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44195</v>
+        <v>44223</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K67" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L67" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="M67" t="n">
-        <v>825</v>
+        <v>220</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>825</v>
+        <v>220</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K68" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L68" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M68" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5316,25 +5316,25 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
         <v>1200</v>
       </c>
       <c r="K69" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L69" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M69" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44195</v>
+        <v>44200</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5388,25 +5388,25 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K70" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L70" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M70" t="n">
-        <v>725</v>
+        <v>953</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>725</v>
+        <v>953</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44209</v>
+        <v>44200</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="K71" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="L71" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M71" t="n">
-        <v>975</v>
+        <v>780</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>975</v>
+        <v>780</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44209</v>
+        <v>44200</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K72" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L72" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M72" t="n">
-        <v>779</v>
+        <v>582</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>779</v>
+        <v>582</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K73" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L73" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M73" t="n">
-        <v>578</v>
+        <v>975</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>578</v>
+        <v>975</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44221</v>
+        <v>44208</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K74" t="n">
+        <v>750</v>
+      </c>
+      <c r="L74" t="n">
         <v>800</v>
       </c>
-      <c r="L74" t="n">
-        <v>900</v>
-      </c>
       <c r="M74" t="n">
-        <v>850</v>
+        <v>776</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>850</v>
+        <v>776</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44221</v>
+        <v>44208</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K75" t="n">
+        <v>550</v>
+      </c>
+      <c r="L75" t="n">
         <v>600</v>
       </c>
-      <c r="L75" t="n">
-        <v>700</v>
-      </c>
       <c r="M75" t="n">
-        <v>653</v>
+        <v>570</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>653</v>
+        <v>570</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44221</v>
+        <v>44208</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="K76" t="n">
+        <v>300</v>
+      </c>
+      <c r="L76" t="n">
         <v>400</v>
       </c>
-      <c r="L76" t="n">
-        <v>500</v>
-      </c>
       <c r="M76" t="n">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44221</v>
+        <v>44214</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K77" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L77" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M77" t="n">
-        <v>300</v>
+        <v>825</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>300</v>
+        <v>825</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44200</v>
+        <v>44214</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K78" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L78" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M78" t="n">
-        <v>953</v>
+        <v>660</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>953</v>
+        <v>660</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44200</v>
+        <v>44214</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="K79" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L79" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M79" t="n">
-        <v>780</v>
+        <v>482</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>780</v>
+        <v>482</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44200</v>
+        <v>44214</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="K80" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L80" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M80" t="n">
-        <v>582</v>
+        <v>977</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>582</v>
+        <v>977</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44252</v>
+        <v>44214</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6180,25 +6180,25 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K81" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L81" t="n">
-        <v>950</v>
+        <v>350</v>
       </c>
       <c r="M81" t="n">
-        <v>925</v>
+        <v>325</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>925</v>
+        <v>325</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44252</v>
+        <v>44210</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6252,25 +6252,25 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K82" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L82" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M82" t="n">
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
         <v>1500</v>
       </c>
       <c r="K83" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L83" t="n">
         <v>800</v>
       </c>
       <c r="M83" t="n">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,11 +6401,11 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K84" t="n">
         <v>500</v>
@@ -6414,7 +6414,7 @@
         <v>600</v>
       </c>
       <c r="M84" t="n">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K85" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L85" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="M85" t="n">
-        <v>400</v>
+        <v>945</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>400</v>
+        <v>945</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K86" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L86" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M86" t="n">
-        <v>942</v>
+        <v>750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>942</v>
+        <v>750</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K87" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L87" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M87" t="n">
-        <v>773</v>
+        <v>586</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>773</v>
+        <v>586</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44224</v>
+        <v>44172</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K88" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L88" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M88" t="n">
-        <v>572</v>
+        <v>950</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>572</v>
+        <v>950</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44224</v>
+        <v>44172</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1700</v>
+        <v>160</v>
       </c>
       <c r="K89" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L89" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M89" t="n">
-        <v>374</v>
+        <v>825</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>374</v>
+        <v>825</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44196</v>
+        <v>44201</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K90" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L90" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M90" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44196</v>
+        <v>44201</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K91" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L91" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M91" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44196</v>
+        <v>44201</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K92" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L92" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M92" t="n">
-        <v>925</v>
+        <v>575</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>925</v>
+        <v>575</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7044,16 +7044,16 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K93" t="n">
         <v>800</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44218</v>
+        <v>44196</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
+        <v>700</v>
+      </c>
+      <c r="L94" t="n">
         <v>750</v>
       </c>
-      <c r="L94" t="n">
-        <v>850</v>
-      </c>
       <c r="M94" t="n">
-        <v>803</v>
+        <v>725</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>803</v>
+        <v>725</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44218</v>
+        <v>44196</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K95" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L95" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="M95" t="n">
-        <v>607</v>
+        <v>925</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>607</v>
+        <v>925</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44218</v>
+        <v>44196</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L96" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M96" t="n">
-        <v>459</v>
+        <v>825</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>459</v>
+        <v>825</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44218</v>
+        <v>44251</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K97" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L97" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M97" t="n">
-        <v>979</v>
+        <v>875</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>979</v>
+        <v>875</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44218</v>
+        <v>44251</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K98" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L98" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M98" t="n">
-        <v>310</v>
+        <v>725</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>310</v>
+        <v>725</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44215</v>
+        <v>44243</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K99" t="n">
+        <v>700</v>
+      </c>
+      <c r="L99" t="n">
         <v>750</v>
       </c>
-      <c r="L99" t="n">
-        <v>800</v>
-      </c>
       <c r="M99" t="n">
-        <v>779</v>
+        <v>725</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>779</v>
+        <v>725</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44215</v>
+        <v>44243</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K100" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L100" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M100" t="n">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44215</v>
+        <v>44252</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7620,25 +7620,25 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L101" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="M101" t="n">
-        <v>357</v>
+        <v>925</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>357</v>
+        <v>925</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44215</v>
+        <v>44252</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7692,25 +7692,25 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K102" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L102" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M102" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K103" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L103" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M103" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7836,25 +7836,25 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K104" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="L104" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M104" t="n">
-        <v>877</v>
+        <v>1000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>877</v>
+        <v>1000</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7908,25 +7908,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K105" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L105" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M105" t="n">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44215</v>
+        <v>44221</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7980,25 +7980,25 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K106" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L106" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M106" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44194</v>
+        <v>44221</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K107" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L107" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="M107" t="n">
-        <v>825</v>
+        <v>653</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>825</v>
+        <v>653</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44194</v>
+        <v>44221</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K108" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L108" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M108" t="n">
-        <v>725</v>
+        <v>460</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>725</v>
+        <v>460</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44194</v>
+        <v>44221</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K109" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L109" t="n">
-        <v>950</v>
+        <v>350</v>
       </c>
       <c r="M109" t="n">
-        <v>925</v>
+        <v>300</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>925</v>
+        <v>300</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44194</v>
+        <v>44209</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8268,25 +8268,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K110" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L110" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M110" t="n">
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44222</v>
+        <v>44209</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="K111" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L111" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M111" t="n">
-        <v>674</v>
+        <v>779</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>674</v>
+        <v>779</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44222</v>
+        <v>44209</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K112" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L112" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M112" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44222</v>
+        <v>44215</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K113" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L113" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M113" t="n">
-        <v>347</v>
+        <v>779</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>347</v>
+        <v>779</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44222</v>
+        <v>44215</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K114" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L114" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M114" t="n">
-        <v>871</v>
+        <v>576</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>871</v>
+        <v>576</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K115" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="L115" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M115" t="n">
-        <v>975</v>
+        <v>357</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>975</v>
+        <v>357</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K116" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L116" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M116" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J117" t="n">
         <v>1500</v>
       </c>
       <c r="K117" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L117" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M117" t="n">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K118" t="n">
+        <v>850</v>
+      </c>
+      <c r="L118" t="n">
         <v>900</v>
       </c>
-      <c r="L118" t="n">
-        <v>1000</v>
-      </c>
       <c r="M118" t="n">
-        <v>945</v>
+        <v>877</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>945</v>
+        <v>877</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K119" t="n">
+        <v>650</v>
+      </c>
+      <c r="L119" t="n">
         <v>700</v>
       </c>
-      <c r="L119" t="n">
-        <v>800</v>
-      </c>
       <c r="M119" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K120" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L120" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M120" t="n">
-        <v>586</v>
+        <v>475</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>586</v>
+        <v>475</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44251</v>
+        <v>44203</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,11 +9065,11 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K121" t="n">
         <v>850</v>
@@ -9078,7 +9078,7 @@
         <v>900</v>
       </c>
       <c r="M121" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44251</v>
+        <v>44203</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K122" t="n">
+        <v>650</v>
+      </c>
+      <c r="L122" t="n">
         <v>700</v>
       </c>
-      <c r="L122" t="n">
-        <v>750</v>
-      </c>
       <c r="M122" t="n">
-        <v>725</v>
+        <v>672</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>725</v>
+        <v>672</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44223</v>
+        <v>44203</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
         <v>1500</v>
       </c>
       <c r="K123" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L123" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M123" t="n">
-        <v>753</v>
+        <v>477</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>753</v>
+        <v>477</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44223</v>
+        <v>44203</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K124" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L124" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M124" t="n">
-        <v>556</v>
+        <v>279</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>556</v>
+        <v>279</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K125" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L125" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M125" t="n">
-        <v>347</v>
+        <v>875</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>347</v>
+        <v>875</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K126" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L126" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M126" t="n">
-        <v>955</v>
+        <v>677</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>955</v>
+        <v>677</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K127" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L127" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M127" t="n">
-        <v>220</v>
+        <v>476</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>220</v>
+        <v>476</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="K2" t="n">
+        <v>800</v>
+      </c>
+      <c r="L2" t="n">
         <v>850</v>
       </c>
-      <c r="L2" t="n">
-        <v>900</v>
-      </c>
       <c r="M2" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44204</v>
+        <v>44181</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1600</v>
+        <v>260</v>
       </c>
       <c r="K3" t="n">
-        <v>150</v>
+        <v>850</v>
       </c>
       <c r="L3" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="M3" t="n">
-        <v>175</v>
+        <v>875</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>175</v>
+        <v>875</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44204</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K4" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
         <v>900</v>
       </c>
       <c r="M4" t="n">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44204</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K5" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L5" t="n">
         <v>700</v>
       </c>
       <c r="M5" t="n">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44204</v>
+        <v>44221</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>2000</v>
       </c>
       <c r="K6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L6" t="n">
         <v>500</v>
       </c>
       <c r="M6" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44204</v>
+        <v>44221</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K7" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="L7" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="M7" t="n">
-        <v>1156</v>
+        <v>300</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1156</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44204</v>
+        <v>44251</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="L8" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M8" t="n">
-        <v>281</v>
+        <v>875</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>281</v>
+        <v>875</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44194</v>
+        <v>44251</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L9" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M9" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>1200</v>
       </c>
       <c r="K10" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="K11" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L11" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>925</v>
+        <v>776</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>925</v>
+        <v>776</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L12" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M12" t="n">
-        <v>825</v>
+        <v>570</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>825</v>
+        <v>570</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44208</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L13" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M13" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="K14" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M14" t="n">
-        <v>927</v>
+        <v>825</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>927</v>
+        <v>825</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="K15" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L15" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M15" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K16" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L16" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="M16" t="n">
-        <v>470</v>
+        <v>925</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>470</v>
+        <v>925</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>1400</v>
       </c>
       <c r="K17" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="M17" t="n">
-        <v>271</v>
+        <v>825</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>271</v>
+        <v>825</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44236</v>
+        <v>44196</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K18" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M18" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44236</v>
+        <v>44196</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L19" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M19" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44222</v>
+        <v>44196</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L20" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="M20" t="n">
-        <v>674</v>
+        <v>925</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>674</v>
+        <v>925</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44222</v>
+        <v>44196</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M21" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>1700</v>
       </c>
       <c r="K22" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L22" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M22" t="n">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K23" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L23" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M23" t="n">
-        <v>871</v>
+        <v>480</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>871</v>
+        <v>480</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44232</v>
+        <v>44222</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K24" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L24" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M24" t="n">
-        <v>725</v>
+        <v>347</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>725</v>
+        <v>347</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44232</v>
+        <v>44222</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K25" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L25" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M25" t="n">
-        <v>625</v>
+        <v>871</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>625</v>
+        <v>871</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44232</v>
+        <v>44211</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K26" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L26" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M26" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44232</v>
+        <v>44211</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2292,25 +2292,25 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K27" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L27" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M27" t="n">
-        <v>625</v>
+        <v>677</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>625</v>
+        <v>677</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44231</v>
+        <v>44211</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K28" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L28" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M28" t="n">
-        <v>725</v>
+        <v>476</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>725</v>
+        <v>476</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44231</v>
+        <v>44218</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K29" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L29" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M29" t="n">
-        <v>625</v>
+        <v>803</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>625</v>
+        <v>803</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44231</v>
+        <v>44218</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K30" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L30" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M30" t="n">
-        <v>725</v>
+        <v>607</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>725</v>
+        <v>607</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44231</v>
+        <v>44218</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="K31" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L31" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M31" t="n">
-        <v>625</v>
+        <v>459</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>625</v>
+        <v>459</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44224</v>
+        <v>44218</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K32" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L32" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M32" t="n">
-        <v>747</v>
+        <v>979</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>747</v>
+        <v>979</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44224</v>
+        <v>44218</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K33" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L33" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M33" t="n">
-        <v>544</v>
+        <v>310</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>544</v>
+        <v>310</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K34" t="n">
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="L34" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="M34" t="n">
-        <v>400</v>
+        <v>975</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>400</v>
+        <v>975</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K35" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L35" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M35" t="n">
-        <v>942</v>
+        <v>773</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>942</v>
+        <v>773</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2940,25 +2940,25 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K36" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L36" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M36" t="n">
-        <v>773</v>
+        <v>540</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>773</v>
+        <v>540</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K37" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L37" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M37" t="n">
-        <v>572</v>
+        <v>945</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>572</v>
+        <v>945</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K38" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L38" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M38" t="n">
-        <v>374</v>
+        <v>750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>374</v>
+        <v>750</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44195</v>
+        <v>44210</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3156,25 +3156,25 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K39" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L39" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="M39" t="n">
-        <v>925</v>
+        <v>586</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>925</v>
+        <v>586</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44195</v>
+        <v>44200</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K40" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L40" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M40" t="n">
-        <v>825</v>
+        <v>953</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>825</v>
+        <v>953</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44195</v>
+        <v>44200</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K41" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L41" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M41" t="n">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44195</v>
+        <v>44200</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3372,25 +3372,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K42" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L42" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M42" t="n">
-        <v>875</v>
+        <v>582</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>875</v>
+        <v>582</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44195</v>
+        <v>44225</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3444,26 +3444,26 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K43" t="n">
         <v>700</v>
       </c>
       <c r="L43" t="n">
+        <v>800</v>
+      </c>
+      <c r="M43" t="n">
         <v>750</v>
       </c>
-      <c r="M43" t="n">
-        <v>725</v>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44230</v>
+        <v>44225</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K44" t="n">
+        <v>500</v>
+      </c>
+      <c r="L44" t="n">
         <v>600</v>
       </c>
-      <c r="K44" t="n">
-        <v>800</v>
-      </c>
-      <c r="L44" t="n">
-        <v>850</v>
-      </c>
       <c r="M44" t="n">
-        <v>825</v>
+        <v>553</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>825</v>
+        <v>553</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44230</v>
+        <v>44225</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K45" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L45" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M45" t="n">
-        <v>725</v>
+        <v>375</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>725</v>
+        <v>375</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K47" t="n">
         <v>700</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K48" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L48" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M48" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="K49" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L49" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M49" t="n">
-        <v>547</v>
+        <v>725</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>547</v>
+        <v>725</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K50" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L50" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M50" t="n">
-        <v>353</v>
+        <v>750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>353</v>
+        <v>750</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K51" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L51" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M51" t="n">
-        <v>977</v>
+        <v>547</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>977</v>
+        <v>547</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K52" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L52" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M52" t="n">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K53" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L53" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M53" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4236,25 +4236,25 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K54" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L54" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="M54" t="n">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K55" t="n">
         <v>700</v>
@@ -4326,7 +4326,7 @@
         <v>800</v>
       </c>
       <c r="M55" t="n">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K56" t="n">
         <v>500</v>
@@ -4398,7 +4398,7 @@
         <v>600</v>
       </c>
       <c r="M56" t="n">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,17 +4461,17 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K57" t="n">
         <v>350</v>
       </c>
       <c r="L57" t="n">
+        <v>450</v>
+      </c>
+      <c r="M57" t="n">
         <v>400</v>
       </c>
-      <c r="M57" t="n">
-        <v>375</v>
-      </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44218</v>
+        <v>44224</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K58" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L58" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M58" t="n">
-        <v>803</v>
+        <v>942</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>803</v>
+        <v>942</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44218</v>
+        <v>44224</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L59" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M59" t="n">
-        <v>607</v>
+        <v>773</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>607</v>
+        <v>773</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44218</v>
+        <v>44224</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4668,25 +4668,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="K60" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L60" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M60" t="n">
-        <v>459</v>
+        <v>572</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>459</v>
+        <v>572</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44218</v>
+        <v>44224</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4740,25 +4740,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K61" t="n">
-        <v>950</v>
+        <v>350</v>
       </c>
       <c r="L61" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M61" t="n">
-        <v>979</v>
+        <v>374</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>979</v>
+        <v>374</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44218</v>
+        <v>44195</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K62" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L62" t="n">
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="M62" t="n">
-        <v>310</v>
+        <v>925</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>310</v>
+        <v>925</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44223</v>
+        <v>44195</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K63" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L63" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M63" t="n">
-        <v>753</v>
+        <v>825</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>753</v>
+        <v>825</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44223</v>
+        <v>44195</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K64" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L64" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M64" t="n">
-        <v>556</v>
+        <v>725</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>556</v>
+        <v>725</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44223</v>
+        <v>44195</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K65" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L65" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M65" t="n">
-        <v>347</v>
+        <v>875</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>347</v>
+        <v>875</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44223</v>
+        <v>44195</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5100,25 +5100,25 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K66" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L66" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M66" t="n">
-        <v>955</v>
+        <v>725</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>955</v>
+        <v>725</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K67" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="L67" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M67" t="n">
-        <v>220</v>
+        <v>975</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>220</v>
+        <v>975</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44193</v>
+        <v>44209</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K68" t="n">
+        <v>750</v>
+      </c>
+      <c r="L68" t="n">
         <v>800</v>
       </c>
-      <c r="L68" t="n">
-        <v>850</v>
-      </c>
       <c r="M68" t="n">
-        <v>825</v>
+        <v>779</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>825</v>
+        <v>779</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44193</v>
+        <v>44209</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K69" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L69" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M69" t="n">
-        <v>725</v>
+        <v>578</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>725</v>
+        <v>578</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K70" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L70" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M70" t="n">
-        <v>953</v>
+        <v>725</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>953</v>
+        <v>725</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L71" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M71" t="n">
-        <v>780</v>
+        <v>625</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>780</v>
+        <v>625</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5532,25 +5532,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K72" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L72" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M72" t="n">
-        <v>582</v>
+        <v>725</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>582</v>
+        <v>725</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44208</v>
+        <v>44232</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5604,25 +5604,25 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K73" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L73" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M73" t="n">
-        <v>975</v>
+        <v>625</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>975</v>
+        <v>625</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K74" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L74" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M74" t="n">
-        <v>776</v>
+        <v>625</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>776</v>
+        <v>625</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="K75" t="n">
+        <v>500</v>
+      </c>
+      <c r="L75" t="n">
         <v>550</v>
       </c>
-      <c r="L75" t="n">
-        <v>600</v>
-      </c>
       <c r="M75" t="n">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44208</v>
+        <v>44215</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K76" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L76" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M76" t="n">
-        <v>347</v>
+        <v>779</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>347</v>
+        <v>779</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K77" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L77" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M77" t="n">
-        <v>825</v>
+        <v>576</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>825</v>
+        <v>576</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K78" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L78" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M78" t="n">
-        <v>660</v>
+        <v>357</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>660</v>
+        <v>357</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="K79" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L79" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M79" t="n">
-        <v>482</v>
+        <v>975</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>482</v>
+        <v>975</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K80" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="L80" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="M80" t="n">
-        <v>977</v>
+        <v>220</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>977</v>
+        <v>220</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6180,25 +6180,25 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K81" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L81" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M81" t="n">
-        <v>325</v>
+        <v>877</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>325</v>
+        <v>877</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6252,25 +6252,25 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K82" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="L82" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M82" t="n">
-        <v>975</v>
+        <v>675</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>975</v>
+        <v>675</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K83" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L83" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M83" t="n">
-        <v>773</v>
+        <v>475</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>773</v>
+        <v>475</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44210</v>
+        <v>44203</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K84" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L84" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M84" t="n">
-        <v>540</v>
+        <v>873</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>540</v>
+        <v>873</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44210</v>
+        <v>44203</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K85" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L85" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M85" t="n">
-        <v>945</v>
+        <v>672</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>945</v>
+        <v>672</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44210</v>
+        <v>44203</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K86" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L86" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M86" t="n">
-        <v>750</v>
+        <v>477</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>750</v>
+        <v>477</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44210</v>
+        <v>44203</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J87" t="n">
         <v>1400</v>
       </c>
       <c r="K87" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="L87" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="M87" t="n">
-        <v>586</v>
+        <v>279</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>586</v>
+        <v>279</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K88" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L88" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M88" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="K89" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L89" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="M89" t="n">
-        <v>825</v>
+        <v>660</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>825</v>
+        <v>660</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44201</v>
+        <v>44214</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K90" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="L90" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M90" t="n">
-        <v>977</v>
+        <v>482</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>977</v>
+        <v>482</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44201</v>
+        <v>44214</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="K91" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L91" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M91" t="n">
-        <v>776</v>
+        <v>977</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>776</v>
+        <v>977</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44201</v>
+        <v>44214</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K92" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L92" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M92" t="n">
-        <v>575</v>
+        <v>325</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>575</v>
+        <v>325</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44196</v>
+        <v>44229</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44196</v>
+        <v>44229</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K94" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L94" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M94" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44196</v>
+        <v>44231</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7200,13 +7200,13 @@
         <v>300</v>
       </c>
       <c r="K95" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L95" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M95" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44196</v>
+        <v>44231</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K96" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L96" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M96" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7344,13 +7344,13 @@
         <v>500</v>
       </c>
       <c r="K97" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L97" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M97" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K98" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L98" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M98" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K99" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L99" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M99" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K100" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L100" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M100" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7620,25 +7620,25 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K101" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="L101" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="M101" t="n">
-        <v>925</v>
+        <v>175</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>925</v>
+        <v>175</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7692,25 +7692,25 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K102" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L102" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="M102" t="n">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K103" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L103" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M103" t="n">
-        <v>500</v>
+        <v>678</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>500</v>
+        <v>678</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K104" t="n">
+        <v>450</v>
+      </c>
+      <c r="L104" t="n">
         <v>500</v>
       </c>
-      <c r="K104" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1000</v>
-      </c>
       <c r="M104" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K105" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L105" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M105" t="n">
-        <v>800</v>
+        <v>1156</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>800</v>
+        <v>1156</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44221</v>
+        <v>44204</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K106" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L106" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M106" t="n">
-        <v>850</v>
+        <v>281</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>850</v>
+        <v>281</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44221</v>
+        <v>44243</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K107" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L107" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M107" t="n">
-        <v>653</v>
+        <v>725</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>653</v>
+        <v>725</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44221</v>
+        <v>44243</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K108" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L108" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M108" t="n">
-        <v>460</v>
+        <v>625</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>460</v>
+        <v>625</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44221</v>
+        <v>44202</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="K109" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L109" t="n">
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="M109" t="n">
-        <v>300</v>
+        <v>927</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>300</v>
+        <v>927</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44209</v>
+        <v>44202</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="K110" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="L110" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M110" t="n">
-        <v>975</v>
+        <v>677</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>975</v>
+        <v>677</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44209</v>
+        <v>44202</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K111" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L111" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M111" t="n">
-        <v>779</v>
+        <v>470</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>779</v>
+        <v>470</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44209</v>
+        <v>44202</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K112" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="L112" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M112" t="n">
-        <v>578</v>
+        <v>271</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>578</v>
+        <v>271</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K113" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L113" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M113" t="n">
-        <v>779</v>
+        <v>500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>779</v>
+        <v>500</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K114" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L114" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M114" t="n">
-        <v>576</v>
+        <v>1000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>576</v>
+        <v>1000</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K115" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L115" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M115" t="n">
-        <v>357</v>
+        <v>800</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>357</v>
+        <v>800</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44215</v>
+        <v>44172</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K116" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="L116" t="n">
         <v>1000</v>
       </c>
       <c r="M116" t="n">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44215</v>
+        <v>44172</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K117" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L117" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="M117" t="n">
-        <v>220</v>
+        <v>825</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>220</v>
+        <v>825</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44215</v>
+        <v>44223</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K118" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L118" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M118" t="n">
-        <v>877</v>
+        <v>753</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>877</v>
+        <v>753</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44215</v>
+        <v>44223</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K119" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L119" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M119" t="n">
-        <v>675</v>
+        <v>556</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>675</v>
+        <v>556</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44215</v>
+        <v>44223</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K120" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L120" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M120" t="n">
-        <v>475</v>
+        <v>347</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>475</v>
+        <v>347</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44203</v>
+        <v>44223</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J121" t="n">
         <v>1100</v>
       </c>
       <c r="K121" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="L121" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M121" t="n">
-        <v>873</v>
+        <v>955</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>873</v>
+        <v>955</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44203</v>
+        <v>44223</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K122" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L122" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M122" t="n">
-        <v>672</v>
+        <v>220</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>672</v>
+        <v>220</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K123" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L123" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M123" t="n">
-        <v>477</v>
+        <v>977</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>477</v>
+        <v>977</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="K124" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L124" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M124" t="n">
-        <v>279</v>
+        <v>776</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>279</v>
+        <v>776</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44211</v>
+        <v>44201</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K125" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L125" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M125" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44211</v>
+        <v>44193</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K126" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L126" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M126" t="n">
-        <v>677</v>
+        <v>825</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>677</v>
+        <v>825</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44211</v>
+        <v>44193</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K127" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L127" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M127" t="n">
-        <v>476</v>
+        <v>725</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>476</v>
+        <v>725</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v>1200</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L2" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="M2" t="n">
-        <v>825</v>
+        <v>925</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>825</v>
+        <v>925</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44181</v>
+        <v>44195</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K3" t="n">
+        <v>800</v>
+      </c>
+      <c r="L3" t="n">
         <v>850</v>
       </c>
-      <c r="L3" t="n">
-        <v>900</v>
-      </c>
       <c r="M3" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44195</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L4" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M4" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44195</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K5" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L5" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M5" t="n">
-        <v>653</v>
+        <v>875</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>653</v>
+        <v>875</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44221</v>
+        <v>44195</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L6" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M6" t="n">
-        <v>460</v>
+        <v>725</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>460</v>
+        <v>725</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L7" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>625</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>625</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K8" t="n">
         <v>500</v>
       </c>
-      <c r="K8" t="n">
-        <v>850</v>
-      </c>
       <c r="L8" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="M8" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44251</v>
+        <v>44232</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1001,11 +1001,11 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K9" t="n">
         <v>700</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44232</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L10" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M10" t="n">
-        <v>975</v>
+        <v>625</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>975</v>
+        <v>625</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44208</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
+        <v>700</v>
+      </c>
+      <c r="L11" t="n">
         <v>750</v>
       </c>
-      <c r="L11" t="n">
-        <v>800</v>
-      </c>
       <c r="M11" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44208</v>
+        <v>44232</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L12" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M12" t="n">
-        <v>570</v>
+        <v>625</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>570</v>
+        <v>625</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44208</v>
+        <v>44243</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L13" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M13" t="n">
-        <v>347</v>
+        <v>725</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>347</v>
+        <v>725</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44243</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L14" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M14" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44230</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M15" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44194</v>
+        <v>44230</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K16" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L16" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M16" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44194</v>
+        <v>44230</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44196</v>
+        <v>44230</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L18" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M18" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44196</v>
+        <v>44200</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K19" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L19" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M19" t="n">
-        <v>725</v>
+        <v>953</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>725</v>
+        <v>953</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44196</v>
+        <v>44200</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K20" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L20" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>925</v>
+        <v>780</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>925</v>
+        <v>780</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44196</v>
+        <v>44200</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L21" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M21" t="n">
-        <v>825</v>
+        <v>582</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>825</v>
+        <v>582</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K22" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L22" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M22" t="n">
-        <v>674</v>
+        <v>873</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>674</v>
+        <v>873</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K23" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L23" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M23" t="n">
-        <v>480</v>
+        <v>672</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>480</v>
+        <v>672</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K24" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L24" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M24" t="n">
-        <v>347</v>
+        <v>477</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>347</v>
+        <v>477</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K25" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="L25" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M25" t="n">
-        <v>871</v>
+        <v>279</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>871</v>
+        <v>279</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44211</v>
+        <v>44193</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K26" t="n">
+        <v>800</v>
+      </c>
+      <c r="L26" t="n">
         <v>850</v>
       </c>
-      <c r="L26" t="n">
-        <v>900</v>
-      </c>
       <c r="M26" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44211</v>
+        <v>44193</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K27" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L27" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M27" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44211</v>
+        <v>44225</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K28" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L28" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M28" t="n">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K29" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L29" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M29" t="n">
-        <v>803</v>
+        <v>553</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>803</v>
+        <v>553</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="K30" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L30" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M30" t="n">
-        <v>607</v>
+        <v>375</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>607</v>
+        <v>375</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K31" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L31" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M31" t="n">
-        <v>459</v>
+        <v>725</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>459</v>
+        <v>725</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L32" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M32" t="n">
-        <v>979</v>
+        <v>625</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>979</v>
+        <v>625</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2724,25 +2724,25 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L33" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M33" t="n">
-        <v>310</v>
+        <v>725</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>310</v>
+        <v>725</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44210</v>
+        <v>44231</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2796,25 +2796,25 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L34" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M34" t="n">
-        <v>975</v>
+        <v>625</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>975</v>
+        <v>625</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L35" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="M35" t="n">
-        <v>773</v>
+        <v>925</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>773</v>
+        <v>925</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K36" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L36" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M36" t="n">
-        <v>540</v>
+        <v>825</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>540</v>
+        <v>825</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K37" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L37" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M37" t="n">
-        <v>945</v>
+        <v>753</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>945</v>
+        <v>753</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,13 +3096,13 @@
         <v>1800</v>
       </c>
       <c r="K38" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L38" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M38" t="n">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K39" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L39" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M39" t="n">
-        <v>586</v>
+        <v>347</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>586</v>
+        <v>347</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44200</v>
+        <v>44223</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3233,11 +3233,11 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K40" t="n">
         <v>900</v>
@@ -3246,7 +3246,7 @@
         <v>1000</v>
       </c>
       <c r="M40" t="n">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44200</v>
+        <v>44223</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="K41" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L41" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M41" t="n">
-        <v>780</v>
+        <v>220</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>780</v>
+        <v>220</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44200</v>
+        <v>44209</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="K42" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L42" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M42" t="n">
-        <v>582</v>
+        <v>975</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>582</v>
+        <v>975</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44225</v>
+        <v>44209</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="K43" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L43" t="n">
         <v>800</v>
       </c>
       <c r="M43" t="n">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44225</v>
+        <v>44209</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K44" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L44" t="n">
         <v>600</v>
       </c>
       <c r="M44" t="n">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K45" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L45" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M45" t="n">
-        <v>375</v>
+        <v>747</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>375</v>
+        <v>747</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K46" t="n">
+        <v>500</v>
+      </c>
+      <c r="L46" t="n">
         <v>600</v>
       </c>
-      <c r="K46" t="n">
-        <v>800</v>
-      </c>
-      <c r="L46" t="n">
-        <v>850</v>
-      </c>
       <c r="M46" t="n">
-        <v>825</v>
+        <v>544</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>825</v>
+        <v>544</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K47" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L47" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M47" t="n">
-        <v>725</v>
+        <v>400</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>725</v>
+        <v>400</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K48" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L48" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M48" t="n">
-        <v>825</v>
+        <v>942</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>825</v>
+        <v>942</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K49" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L49" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M49" t="n">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44216</v>
+        <v>44224</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
         <v>1600</v>
       </c>
       <c r="K50" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L50" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M50" t="n">
-        <v>750</v>
+        <v>572</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>750</v>
+        <v>572</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44216</v>
+        <v>44224</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4020,25 +4020,25 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K51" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L51" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M51" t="n">
-        <v>547</v>
+        <v>374</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>547</v>
+        <v>374</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44216</v>
+        <v>44251</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K52" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L52" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M52" t="n">
-        <v>353</v>
+        <v>875</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>353</v>
+        <v>875</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44216</v>
+        <v>44251</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1300</v>
+        <v>160</v>
       </c>
       <c r="K53" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L53" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M53" t="n">
-        <v>977</v>
+        <v>725</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>977</v>
+        <v>725</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44216</v>
+        <v>44210</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K54" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="L54" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M54" t="n">
-        <v>225</v>
+        <v>975</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>225</v>
+        <v>975</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>1500</v>
       </c>
       <c r="K55" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L55" t="n">
         <v>800</v>
       </c>
       <c r="M55" t="n">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4385,11 +4385,11 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K56" t="n">
         <v>500</v>
@@ -4398,7 +4398,7 @@
         <v>600</v>
       </c>
       <c r="M56" t="n">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4452,25 +4452,25 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K57" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L57" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="M57" t="n">
-        <v>400</v>
+        <v>945</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>400</v>
+        <v>945</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4524,25 +4524,25 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K58" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L58" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M58" t="n">
-        <v>942</v>
+        <v>750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>942</v>
+        <v>750</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K59" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L59" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M59" t="n">
-        <v>773</v>
+        <v>586</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>773</v>
+        <v>586</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44224</v>
+        <v>44214</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4668,25 +4668,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K60" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L60" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M60" t="n">
-        <v>572</v>
+        <v>825</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>572</v>
+        <v>825</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44224</v>
+        <v>44214</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4740,25 +4740,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K61" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L61" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M61" t="n">
-        <v>374</v>
+        <v>660</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>374</v>
+        <v>660</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44195</v>
+        <v>44214</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K62" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L62" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="M62" t="n">
-        <v>925</v>
+        <v>482</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>925</v>
+        <v>482</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44195</v>
+        <v>44214</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K63" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L63" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M63" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44195</v>
+        <v>44214</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K64" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L64" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M64" t="n">
-        <v>725</v>
+        <v>325</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>725</v>
+        <v>325</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K65" t="n">
+        <v>800</v>
+      </c>
+      <c r="L65" t="n">
         <v>850</v>
       </c>
-      <c r="L65" t="n">
-        <v>900</v>
-      </c>
       <c r="M65" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K66" t="n">
         <v>700</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44209</v>
+        <v>44194</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5172,25 +5172,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K67" t="n">
+        <v>900</v>
+      </c>
+      <c r="L67" t="n">
         <v>950</v>
       </c>
-      <c r="L67" t="n">
-        <v>1000</v>
-      </c>
       <c r="M67" t="n">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44209</v>
+        <v>44194</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K68" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L68" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M68" t="n">
-        <v>779</v>
+        <v>825</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>779</v>
+        <v>825</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44209</v>
+        <v>44202</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1800</v>
+        <v>1550</v>
       </c>
       <c r="K69" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L69" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M69" t="n">
-        <v>578</v>
+        <v>927</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>578</v>
+        <v>927</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44232</v>
+        <v>44202</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K70" t="n">
+        <v>650</v>
+      </c>
+      <c r="L70" t="n">
         <v>700</v>
       </c>
-      <c r="L70" t="n">
-        <v>750</v>
-      </c>
       <c r="M70" t="n">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44232</v>
+        <v>44202</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="K71" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L71" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M71" t="n">
-        <v>625</v>
+        <v>470</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>625</v>
+        <v>470</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44232</v>
+        <v>44202</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5532,25 +5532,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J72" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K72" t="n">
+        <v>250</v>
+      </c>
+      <c r="L72" t="n">
         <v>300</v>
       </c>
-      <c r="K72" t="n">
-        <v>700</v>
-      </c>
-      <c r="L72" t="n">
-        <v>750</v>
-      </c>
       <c r="M72" t="n">
-        <v>725</v>
+        <v>271</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>725</v>
+        <v>271</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44232</v>
+        <v>44216</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5604,25 +5604,25 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K73" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L73" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M73" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44236</v>
+        <v>44216</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K74" t="n">
+        <v>500</v>
+      </c>
+      <c r="L74" t="n">
         <v>600</v>
       </c>
-      <c r="K74" t="n">
-        <v>600</v>
-      </c>
-      <c r="L74" t="n">
-        <v>650</v>
-      </c>
       <c r="M74" t="n">
-        <v>625</v>
+        <v>547</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>625</v>
+        <v>547</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44236</v>
+        <v>44216</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K75" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L75" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M75" t="n">
-        <v>525</v>
+        <v>353</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>525</v>
+        <v>353</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K76" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L76" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M76" t="n">
-        <v>779</v>
+        <v>977</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>779</v>
+        <v>977</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K77" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L77" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M77" t="n">
-        <v>576</v>
+        <v>225</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>576</v>
+        <v>225</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44215</v>
+        <v>44222</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K78" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L78" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M78" t="n">
-        <v>357</v>
+        <v>674</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>357</v>
+        <v>674</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44215</v>
+        <v>44222</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K79" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="L79" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M79" t="n">
-        <v>975</v>
+        <v>480</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>975</v>
+        <v>480</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44215</v>
+        <v>44222</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K80" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L80" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M80" t="n">
-        <v>220</v>
+        <v>347</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>220</v>
+        <v>347</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44215</v>
+        <v>44222</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6180,16 +6180,16 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K81" t="n">
         <v>850</v>
@@ -6198,7 +6198,7 @@
         <v>900</v>
       </c>
       <c r="M81" t="n">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44215</v>
+        <v>44189</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K82" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L82" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M82" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44215</v>
+        <v>44172</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="K83" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L83" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M83" t="n">
-        <v>475</v>
+        <v>950</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>475</v>
+        <v>950</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44203</v>
+        <v>44172</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K84" t="n">
+        <v>800</v>
+      </c>
+      <c r="L84" t="n">
         <v>850</v>
       </c>
-      <c r="L84" t="n">
-        <v>900</v>
-      </c>
       <c r="M84" t="n">
-        <v>873</v>
+        <v>825</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>873</v>
+        <v>825</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44203</v>
+        <v>44196</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K85" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L85" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M85" t="n">
-        <v>672</v>
+        <v>825</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>672</v>
+        <v>825</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44203</v>
+        <v>44196</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K86" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L86" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M86" t="n">
-        <v>477</v>
+        <v>725</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>477</v>
+        <v>725</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44203</v>
+        <v>44196</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K87" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L87" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="M87" t="n">
-        <v>279</v>
+        <v>925</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>279</v>
+        <v>925</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44214</v>
+        <v>44196</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6684,16 +6684,16 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K88" t="n">
         <v>800</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K89" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="L89" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M89" t="n">
-        <v>660</v>
+        <v>975</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>660</v>
+        <v>975</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
         <v>1900</v>
       </c>
       <c r="K90" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L90" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M90" t="n">
-        <v>482</v>
+        <v>776</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>482</v>
+        <v>776</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="K91" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L91" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M91" t="n">
-        <v>977</v>
+        <v>570</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>977</v>
+        <v>570</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K92" t="n">
         <v>300</v>
       </c>
       <c r="L92" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M92" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44231</v>
+        <v>44201</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K95" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L95" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M95" t="n">
-        <v>725</v>
+        <v>977</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>725</v>
+        <v>977</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44231</v>
+        <v>44201</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K96" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L96" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M96" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44231</v>
+        <v>44201</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7332,25 +7332,25 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K97" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L97" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M97" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44231</v>
+        <v>44204</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7404,25 +7404,25 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K98" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L98" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="M98" t="n">
-        <v>625</v>
+        <v>175</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>625</v>
+        <v>175</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7476,25 +7476,25 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K99" t="n">
+        <v>850</v>
+      </c>
+      <c r="L99" t="n">
         <v>900</v>
       </c>
-      <c r="L99" t="n">
-        <v>950</v>
-      </c>
       <c r="M99" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7548,25 +7548,25 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K100" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L100" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="M100" t="n">
-        <v>825</v>
+        <v>678</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>825</v>
+        <v>678</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K101" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L101" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M101" t="n">
-        <v>175</v>
+        <v>480</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>175</v>
+        <v>480</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="K102" t="n">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="L102" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M102" t="n">
-        <v>875</v>
+        <v>1156</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>875</v>
+        <v>1156</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K103" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="L103" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M103" t="n">
-        <v>678</v>
+        <v>281</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>678</v>
+        <v>281</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44204</v>
+        <v>44218</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="K104" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L104" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M104" t="n">
-        <v>480</v>
+        <v>803</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>480</v>
+        <v>803</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44204</v>
+        <v>44218</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="K105" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="L105" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="M105" t="n">
-        <v>1156</v>
+        <v>607</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1156</v>
+        <v>607</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44204</v>
+        <v>44218</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K106" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L106" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M106" t="n">
-        <v>281</v>
+        <v>459</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>281</v>
+        <v>459</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44243</v>
+        <v>44218</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K107" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L107" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M107" t="n">
-        <v>725</v>
+        <v>979</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>725</v>
+        <v>979</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44243</v>
+        <v>44218</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K108" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L108" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="M108" t="n">
-        <v>625</v>
+        <v>310</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>625</v>
+        <v>310</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44202</v>
+        <v>44221</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="K109" t="n">
+        <v>800</v>
+      </c>
+      <c r="L109" t="n">
         <v>900</v>
       </c>
-      <c r="L109" t="n">
-        <v>950</v>
-      </c>
       <c r="M109" t="n">
-        <v>927</v>
+        <v>850</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>927</v>
+        <v>850</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44202</v>
+        <v>44221</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K110" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L110" t="n">
         <v>700</v>
       </c>
       <c r="M110" t="n">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44202</v>
+        <v>44221</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8352,13 +8352,13 @@
         <v>2000</v>
       </c>
       <c r="K111" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L111" t="n">
         <v>500</v>
       </c>
       <c r="M111" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44202</v>
+        <v>44221</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8421,17 +8421,17 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K112" t="n">
         <v>250</v>
       </c>
       <c r="L112" t="n">
+        <v>350</v>
+      </c>
+      <c r="M112" t="n">
         <v>300</v>
       </c>
-      <c r="M112" t="n">
-        <v>271</v>
-      </c>
       <c r="N112" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44172</v>
+        <v>44211</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K116" t="n">
+        <v>850</v>
+      </c>
+      <c r="L116" t="n">
         <v>900</v>
       </c>
-      <c r="L116" t="n">
-        <v>1000</v>
-      </c>
       <c r="M116" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44172</v>
+        <v>44211</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="K117" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L117" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="M117" t="n">
-        <v>825</v>
+        <v>677</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>825</v>
+        <v>677</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K118" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L118" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M118" t="n">
-        <v>753</v>
+        <v>476</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>753</v>
+        <v>476</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44223</v>
+        <v>44215</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K119" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L119" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M119" t="n">
-        <v>556</v>
+        <v>779</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>556</v>
+        <v>779</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44223</v>
+        <v>44215</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K120" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L120" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M120" t="n">
-        <v>347</v>
+        <v>576</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>347</v>
+        <v>576</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44223</v>
+        <v>44215</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K121" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L121" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M121" t="n">
-        <v>955</v>
+        <v>357</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>955</v>
+        <v>357</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44223</v>
+        <v>44215</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K122" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="L122" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M122" t="n">
-        <v>220</v>
+        <v>975</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>220</v>
+        <v>975</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K123" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="L123" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="M123" t="n">
-        <v>977</v>
+        <v>220</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>977</v>
+        <v>220</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9276,25 +9276,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K124" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L124" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M124" t="n">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
         <v>1600</v>
       </c>
       <c r="K125" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L125" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M125" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44193</v>
+        <v>44215</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K126" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L126" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M126" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44193</v>
+        <v>44181</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1200</v>
+        <v>260</v>
       </c>
       <c r="K127" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L127" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M127" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L2" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M2" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44231</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L3" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M3" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44231</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -636,12 +636,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44195</v>
+        <v>44231</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L5" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M5" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44195</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K6" t="n">
         <v>700</v>
       </c>
       <c r="L6" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K7" t="n">
+        <v>500</v>
+      </c>
+      <c r="L7" t="n">
         <v>600</v>
       </c>
-      <c r="K7" t="n">
-        <v>600</v>
-      </c>
-      <c r="L7" t="n">
-        <v>650</v>
-      </c>
       <c r="M7" t="n">
-        <v>625</v>
+        <v>556</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>625</v>
+        <v>556</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K8" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L8" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M8" t="n">
-        <v>525</v>
+        <v>347</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>525</v>
+        <v>347</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44232</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K9" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L9" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>725</v>
+        <v>955</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>725</v>
+        <v>955</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44232</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K10" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L10" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M10" t="n">
-        <v>625</v>
+        <v>220</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>625</v>
+        <v>220</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44232</v>
+        <v>44196</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K11" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M11" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44232</v>
+        <v>44196</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,13 +1224,13 @@
         <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L12" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M12" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L13" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M13" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M14" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44230</v>
+        <v>44193</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K15" t="n">
         <v>800</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44230</v>
+        <v>44193</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K16" t="n">
         <v>700</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44230</v>
+        <v>44243</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,13 +1584,13 @@
         <v>600</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L17" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M17" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44230</v>
+        <v>44243</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L18" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M18" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44200</v>
+        <v>44215</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K19" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>953</v>
+        <v>779</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>953</v>
+        <v>779</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44200</v>
+        <v>44215</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="K20" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M20" t="n">
-        <v>780</v>
+        <v>576</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>780</v>
+        <v>576</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44200</v>
+        <v>44215</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="K21" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L21" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M21" t="n">
-        <v>582</v>
+        <v>357</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>582</v>
+        <v>357</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K22" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="L22" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M22" t="n">
-        <v>873</v>
+        <v>975</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>873</v>
+        <v>975</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K23" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L23" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
-        <v>672</v>
+        <v>220</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>672</v>
+        <v>220</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K24" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L24" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M24" t="n">
-        <v>477</v>
+        <v>877</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>477</v>
+        <v>877</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K25" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L25" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M25" t="n">
-        <v>279</v>
+        <v>675</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>279</v>
+        <v>675</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44193</v>
+        <v>44215</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K26" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L26" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M26" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44193</v>
+        <v>44221</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>1200</v>
       </c>
       <c r="K27" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L27" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M27" t="n">
-        <v>725</v>
+        <v>850</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>725</v>
+        <v>850</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K28" t="n">
+        <v>600</v>
+      </c>
+      <c r="L28" t="n">
         <v>700</v>
       </c>
-      <c r="L28" t="n">
-        <v>800</v>
-      </c>
       <c r="M28" t="n">
-        <v>750</v>
+        <v>653</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>750</v>
+        <v>653</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K29" t="n">
+        <v>400</v>
+      </c>
+      <c r="L29" t="n">
         <v>500</v>
       </c>
-      <c r="L29" t="n">
-        <v>600</v>
-      </c>
       <c r="M29" t="n">
-        <v>553</v>
+        <v>460</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>553</v>
+        <v>460</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K30" t="n">
+        <v>250</v>
+      </c>
+      <c r="L30" t="n">
         <v>350</v>
       </c>
-      <c r="L30" t="n">
-        <v>400</v>
-      </c>
       <c r="M30" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L31" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M31" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K32" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L32" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M32" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L33" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M33" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L34" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M34" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44252</v>
+        <v>44224</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K35" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L35" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="M35" t="n">
-        <v>925</v>
+        <v>747</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>925</v>
+        <v>747</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44252</v>
+        <v>44224</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2940,25 +2940,25 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K36" t="n">
+        <v>500</v>
+      </c>
+      <c r="L36" t="n">
         <v>600</v>
       </c>
-      <c r="K36" t="n">
-        <v>800</v>
-      </c>
-      <c r="L36" t="n">
-        <v>850</v>
-      </c>
       <c r="M36" t="n">
-        <v>825</v>
+        <v>544</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>825</v>
+        <v>544</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K37" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L37" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M37" t="n">
-        <v>753</v>
+        <v>400</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>753</v>
+        <v>400</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K38" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L38" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M38" t="n">
-        <v>556</v>
+        <v>942</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>556</v>
+        <v>942</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3156,25 +3156,25 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K39" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L39" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M39" t="n">
-        <v>347</v>
+        <v>773</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>347</v>
+        <v>773</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3228,25 +3228,25 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K40" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L40" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M40" t="n">
-        <v>955</v>
+        <v>572</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>955</v>
+        <v>572</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K41" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L41" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M41" t="n">
-        <v>220</v>
+        <v>374</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>220</v>
+        <v>374</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K42" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="L42" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M42" t="n">
-        <v>975</v>
+        <v>803</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>975</v>
+        <v>803</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3456,13 +3456,13 @@
         <v>2100</v>
       </c>
       <c r="K43" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L43" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M43" t="n">
-        <v>779</v>
+        <v>607</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>779</v>
+        <v>607</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="K44" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L44" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M44" t="n">
-        <v>578</v>
+        <v>459</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>578</v>
+        <v>459</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44224</v>
+        <v>44218</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K45" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L45" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M45" t="n">
-        <v>747</v>
+        <v>979</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>747</v>
+        <v>979</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44224</v>
+        <v>44218</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K46" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L46" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M46" t="n">
-        <v>544</v>
+        <v>310</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>544</v>
+        <v>310</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44224</v>
+        <v>44203</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K47" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="L47" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="M47" t="n">
-        <v>400</v>
+        <v>873</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>400</v>
+        <v>873</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44224</v>
+        <v>44203</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K48" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L48" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M48" t="n">
-        <v>942</v>
+        <v>672</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>942</v>
+        <v>672</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44224</v>
+        <v>44203</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K49" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L49" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M49" t="n">
-        <v>773</v>
+        <v>477</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>773</v>
+        <v>477</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44224</v>
+        <v>44203</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K50" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="L50" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M50" t="n">
-        <v>572</v>
+        <v>279</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>572</v>
+        <v>279</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4020,25 +4020,25 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K51" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L51" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M51" t="n">
-        <v>374</v>
+        <v>953</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>374</v>
+        <v>953</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44251</v>
+        <v>44200</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K52" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L52" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M52" t="n">
-        <v>875</v>
+        <v>780</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>875</v>
+        <v>780</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44251</v>
+        <v>44200</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>160</v>
+        <v>1900</v>
       </c>
       <c r="K53" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L53" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M53" t="n">
-        <v>725</v>
+        <v>582</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>725</v>
+        <v>582</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44210</v>
+        <v>44202</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="K54" t="n">
+        <v>900</v>
+      </c>
+      <c r="L54" t="n">
         <v>950</v>
       </c>
-      <c r="L54" t="n">
-        <v>1000</v>
-      </c>
       <c r="M54" t="n">
-        <v>975</v>
+        <v>927</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>975</v>
+        <v>927</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44210</v>
+        <v>44202</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K55" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L55" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M55" t="n">
-        <v>773</v>
+        <v>677</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>773</v>
+        <v>677</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44210</v>
+        <v>44202</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K56" t="n">
+        <v>450</v>
+      </c>
+      <c r="L56" t="n">
         <v>500</v>
       </c>
-      <c r="L56" t="n">
-        <v>600</v>
-      </c>
       <c r="M56" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44210</v>
+        <v>44202</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4452,25 +4452,25 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K57" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L57" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M57" t="n">
-        <v>945</v>
+        <v>271</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>945</v>
+        <v>271</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K58" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L58" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="M58" t="n">
-        <v>750</v>
+        <v>925</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>750</v>
+        <v>925</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K59" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L59" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M59" t="n">
-        <v>586</v>
+        <v>825</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>586</v>
+        <v>825</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K65" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L65" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M65" t="n">
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K66" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L66" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M66" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5172,25 +5172,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="K67" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L67" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M67" t="n">
-        <v>925</v>
+        <v>570</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>925</v>
+        <v>570</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K68" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L68" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M68" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44202</v>
+        <v>44211</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="K69" t="n">
+        <v>850</v>
+      </c>
+      <c r="L69" t="n">
         <v>900</v>
       </c>
-      <c r="L69" t="n">
-        <v>950</v>
-      </c>
       <c r="M69" t="n">
-        <v>927</v>
+        <v>875</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>927</v>
+        <v>875</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44202</v>
+        <v>44211</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K70" t="n">
         <v>650</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44202</v>
+        <v>44211</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="K71" t="n">
         <v>450</v>
@@ -5478,7 +5478,7 @@
         <v>500</v>
       </c>
       <c r="M71" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K72" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L72" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M72" t="n">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44216</v>
+        <v>44204</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K73" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L73" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M73" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44216</v>
+        <v>44204</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K74" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L74" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M74" t="n">
-        <v>547</v>
+        <v>678</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>547</v>
+        <v>678</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44216</v>
+        <v>44204</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K75" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L75" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M75" t="n">
-        <v>353</v>
+        <v>480</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>353</v>
+        <v>480</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44216</v>
+        <v>44204</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K76" t="n">
-        <v>950</v>
+        <v>1100</v>
       </c>
       <c r="L76" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M76" t="n">
-        <v>977</v>
+        <v>1156</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>977</v>
+        <v>1156</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44216</v>
+        <v>44204</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K77" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L77" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M77" t="n">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44222</v>
+        <v>44189</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K78" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L78" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M78" t="n">
-        <v>674</v>
+        <v>825</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>674</v>
+        <v>825</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44222</v>
+        <v>44209</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K79" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L79" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M79" t="n">
-        <v>480</v>
+        <v>975</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>480</v>
+        <v>975</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44222</v>
+        <v>44209</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="K80" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L80" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M80" t="n">
-        <v>347</v>
+        <v>779</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>347</v>
+        <v>779</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44222</v>
+        <v>44209</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K81" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L81" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M81" t="n">
-        <v>871</v>
+        <v>578</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>871</v>
+        <v>578</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44189</v>
+        <v>44229</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44172</v>
+        <v>44229</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K83" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L83" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M83" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44172</v>
+        <v>44216</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K84" t="n">
+        <v>700</v>
+      </c>
+      <c r="L84" t="n">
         <v>800</v>
       </c>
-      <c r="L84" t="n">
-        <v>850</v>
-      </c>
       <c r="M84" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44196</v>
+        <v>44216</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K85" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L85" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M85" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44196</v>
+        <v>44216</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K86" t="n">
         <v>300</v>
       </c>
-      <c r="K86" t="n">
-        <v>700</v>
-      </c>
       <c r="L86" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M86" t="n">
-        <v>725</v>
+        <v>353</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>725</v>
+        <v>353</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44196</v>
+        <v>44216</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K87" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L87" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M87" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44196</v>
+        <v>44216</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="K88" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L88" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="M88" t="n">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44208</v>
+        <v>44195</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6768,13 +6768,13 @@
         <v>1200</v>
       </c>
       <c r="K89" t="n">
+        <v>900</v>
+      </c>
+      <c r="L89" t="n">
         <v>950</v>
       </c>
-      <c r="L89" t="n">
-        <v>1000</v>
-      </c>
       <c r="M89" t="n">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44208</v>
+        <v>44195</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K90" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L90" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M90" t="n">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44208</v>
+        <v>44195</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K91" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L91" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M91" t="n">
-        <v>570</v>
+        <v>725</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>570</v>
+        <v>725</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44208</v>
+        <v>44195</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K92" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L92" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M92" t="n">
-        <v>347</v>
+        <v>875</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>347</v>
+        <v>875</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44229</v>
+        <v>44195</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L93" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M93" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44229</v>
+        <v>44172</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L94" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M94" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44201</v>
+        <v>44172</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1300</v>
+        <v>160</v>
       </c>
       <c r="K95" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L95" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M95" t="n">
-        <v>977</v>
+        <v>825</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>977</v>
+        <v>825</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44201</v>
+        <v>44222</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K96" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L96" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M96" t="n">
-        <v>776</v>
+        <v>674</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>776</v>
+        <v>674</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44201</v>
+        <v>44222</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K97" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M97" t="n">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44204</v>
+        <v>44222</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K98" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L98" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M98" t="n">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44204</v>
+        <v>44222</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7481,11 +7481,11 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K99" t="n">
         <v>850</v>
@@ -7494,7 +7494,7 @@
         <v>900</v>
       </c>
       <c r="M99" t="n">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44204</v>
+        <v>44210</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K100" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="L100" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M100" t="n">
-        <v>678</v>
+        <v>975</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>678</v>
+        <v>975</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44204</v>
+        <v>44210</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K101" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L101" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M101" t="n">
-        <v>480</v>
+        <v>773</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>480</v>
+        <v>773</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44204</v>
+        <v>44210</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="K102" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L102" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M102" t="n">
-        <v>1156</v>
+        <v>540</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1156</v>
+        <v>540</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44204</v>
+        <v>44210</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K103" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L103" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M103" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7836,26 +7836,26 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K104" t="n">
+        <v>700</v>
+      </c>
+      <c r="L104" t="n">
+        <v>800</v>
+      </c>
+      <c r="M104" t="n">
         <v>750</v>
       </c>
-      <c r="L104" t="n">
-        <v>850</v>
-      </c>
-      <c r="M104" t="n">
-        <v>803</v>
-      </c>
       <c r="N104" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>803</v>
+        <v>750</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7908,16 +7908,16 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K105" t="n">
         <v>550</v>
@@ -7926,7 +7926,7 @@
         <v>650</v>
       </c>
       <c r="M105" t="n">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44218</v>
+        <v>44166</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="K106" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L106" t="n">
         <v>500</v>
       </c>
       <c r="M106" t="n">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44218</v>
+        <v>44166</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K107" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L107" t="n">
         <v>1000</v>
       </c>
       <c r="M107" t="n">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44218</v>
+        <v>44166</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K108" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L108" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M108" t="n">
-        <v>310</v>
+        <v>800</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>310</v>
+        <v>800</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8208,13 +8208,13 @@
         <v>1200</v>
       </c>
       <c r="K109" t="n">
+        <v>700</v>
+      </c>
+      <c r="L109" t="n">
         <v>800</v>
       </c>
-      <c r="L109" t="n">
-        <v>900</v>
-      </c>
       <c r="M109" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8280,13 +8280,13 @@
         <v>1500</v>
       </c>
       <c r="K110" t="n">
+        <v>500</v>
+      </c>
+      <c r="L110" t="n">
         <v>600</v>
       </c>
-      <c r="L110" t="n">
-        <v>700</v>
-      </c>
       <c r="M110" t="n">
-        <v>653</v>
+        <v>553</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>653</v>
+        <v>553</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K111" t="n">
+        <v>350</v>
+      </c>
+      <c r="L111" t="n">
         <v>400</v>
       </c>
-      <c r="L111" t="n">
-        <v>500</v>
-      </c>
       <c r="M111" t="n">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44221</v>
+        <v>44232</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K112" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L112" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M112" t="n">
-        <v>300</v>
+        <v>725</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>300</v>
+        <v>725</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44166</v>
+        <v>44232</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L113" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M113" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44166</v>
+        <v>44232</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L114" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M114" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44166</v>
+        <v>44232</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8628,25 +8628,25 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
+        <v>300</v>
+      </c>
+      <c r="K115" t="n">
         <v>600</v>
       </c>
-      <c r="K115" t="n">
-        <v>800</v>
-      </c>
       <c r="L115" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M115" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44211</v>
+        <v>44236</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K116" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L116" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M116" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44211</v>
+        <v>44236</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K117" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L117" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M117" t="n">
-        <v>677</v>
+        <v>525</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>677</v>
+        <v>525</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44211</v>
+        <v>44251</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K118" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L118" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M118" t="n">
-        <v>476</v>
+        <v>875</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>476</v>
+        <v>875</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44215</v>
+        <v>44251</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1400</v>
+        <v>160</v>
       </c>
       <c r="K119" t="n">
+        <v>700</v>
+      </c>
+      <c r="L119" t="n">
         <v>750</v>
       </c>
-      <c r="L119" t="n">
-        <v>800</v>
-      </c>
       <c r="M119" t="n">
-        <v>779</v>
+        <v>725</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>779</v>
+        <v>725</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44215</v>
+        <v>44181</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1700</v>
+        <v>260</v>
       </c>
       <c r="K120" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L120" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M120" t="n">
-        <v>576</v>
+        <v>875</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>576</v>
+        <v>875</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44215</v>
+        <v>44194</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K121" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L121" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M121" t="n">
-        <v>357</v>
+        <v>825</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>357</v>
+        <v>825</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44215</v>
+        <v>44194</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
         <v>1200</v>
       </c>
       <c r="K122" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L122" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M122" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44215</v>
+        <v>44194</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9204,25 +9204,25 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K123" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L123" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="M123" t="n">
-        <v>220</v>
+        <v>925</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>220</v>
+        <v>925</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44215</v>
+        <v>44194</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K124" t="n">
+        <v>800</v>
+      </c>
+      <c r="L124" t="n">
         <v>850</v>
       </c>
-      <c r="L124" t="n">
-        <v>900</v>
-      </c>
       <c r="M124" t="n">
-        <v>877</v>
+        <v>825</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>877</v>
+        <v>825</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K125" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="L125" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M125" t="n">
-        <v>675</v>
+        <v>977</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>675</v>
+        <v>977</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K126" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L126" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M126" t="n">
-        <v>475</v>
+        <v>776</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>475</v>
+        <v>776</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44181</v>
+        <v>44201</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K127" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L127" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M127" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K2" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L2" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M2" t="n">
-        <v>725</v>
+        <v>873</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>725</v>
+        <v>873</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K3" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L3" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M3" t="n">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -636,25 +636,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K4" t="n">
+        <v>450</v>
+      </c>
+      <c r="L4" t="n">
         <v>500</v>
       </c>
-      <c r="K4" t="n">
-        <v>700</v>
-      </c>
-      <c r="L4" t="n">
-        <v>750</v>
-      </c>
       <c r="M4" t="n">
-        <v>725</v>
+        <v>477</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>725</v>
+        <v>477</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K5" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L5" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="M5" t="n">
-        <v>625</v>
+        <v>279</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>625</v>
+        <v>279</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44251</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M6" t="n">
-        <v>753</v>
+        <v>875</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>753</v>
+        <v>875</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44251</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L7" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M7" t="n">
-        <v>556</v>
+        <v>725</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>556</v>
+        <v>725</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K8" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>347</v>
+        <v>975</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>347</v>
+        <v>975</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="K9" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>955</v>
+        <v>779</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>955</v>
+        <v>779</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K10" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="L10" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M10" t="n">
-        <v>220</v>
+        <v>578</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>220</v>
+        <v>578</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44196</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K11" t="n">
+        <v>700</v>
+      </c>
+      <c r="L11" t="n">
         <v>800</v>
       </c>
-      <c r="L11" t="n">
-        <v>850</v>
-      </c>
       <c r="M11" t="n">
-        <v>825</v>
+        <v>753</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>825</v>
+        <v>753</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44196</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="K12" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L12" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M12" t="n">
-        <v>725</v>
+        <v>556</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>725</v>
+        <v>556</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44196</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K13" t="n">
         <v>300</v>
       </c>
-      <c r="K13" t="n">
-        <v>900</v>
-      </c>
       <c r="L13" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="M13" t="n">
-        <v>925</v>
+        <v>347</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>925</v>
+        <v>347</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44196</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L14" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>825</v>
+        <v>955</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>825</v>
+        <v>955</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44193</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L15" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="M15" t="n">
-        <v>825</v>
+        <v>220</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>825</v>
+        <v>220</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44193</v>
+        <v>44222</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K16" t="n">
+        <v>650</v>
+      </c>
+      <c r="L16" t="n">
         <v>700</v>
       </c>
-      <c r="L16" t="n">
-        <v>750</v>
-      </c>
       <c r="M16" t="n">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K17" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L17" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M17" t="n">
-        <v>725</v>
+        <v>480</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>725</v>
+        <v>480</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K18" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L18" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M18" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44215</v>
+        <v>44222</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K19" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M19" t="n">
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K20" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M20" t="n">
-        <v>576</v>
+        <v>825</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>576</v>
+        <v>825</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L21" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M21" t="n">
-        <v>357</v>
+        <v>660</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>357</v>
+        <v>660</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K22" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="L22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M22" t="n">
-        <v>975</v>
+        <v>482</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>975</v>
+        <v>482</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K23" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="L23" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M23" t="n">
-        <v>220</v>
+        <v>977</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>220</v>
+        <v>977</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K24" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="L24" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M24" t="n">
-        <v>877</v>
+        <v>325</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>877</v>
+        <v>325</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44215</v>
+        <v>44194</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2160,13 +2160,13 @@
         <v>1600</v>
       </c>
       <c r="K25" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L25" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M25" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44215</v>
+        <v>44194</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K26" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L26" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M26" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44221</v>
+        <v>44194</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2292,25 +2292,25 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K27" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L27" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="M27" t="n">
-        <v>850</v>
+        <v>925</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>850</v>
+        <v>925</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44221</v>
+        <v>44194</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2364,25 +2364,25 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K28" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L28" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M28" t="n">
-        <v>653</v>
+        <v>825</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>653</v>
+        <v>825</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44221</v>
+        <v>44202</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2000</v>
+        <v>1550</v>
       </c>
       <c r="K29" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L29" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="M29" t="n">
-        <v>460</v>
+        <v>927</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>460</v>
+        <v>927</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44221</v>
+        <v>44202</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K30" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L30" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>677</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>677</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44230</v>
+        <v>44202</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="K31" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L31" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M31" t="n">
-        <v>825</v>
+        <v>470</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>825</v>
+        <v>470</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44230</v>
+        <v>44202</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K32" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L32" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M32" t="n">
-        <v>725</v>
+        <v>271</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>725</v>
+        <v>271</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44230</v>
+        <v>44193</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K33" t="n">
         <v>800</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44230</v>
+        <v>44193</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K34" t="n">
         <v>700</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K35" t="n">
         <v>700</v>
@@ -2886,7 +2886,7 @@
         <v>800</v>
       </c>
       <c r="M35" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K36" t="n">
         <v>500</v>
@@ -2958,7 +2958,7 @@
         <v>600</v>
       </c>
       <c r="M36" t="n">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K37" t="n">
         <v>350</v>
       </c>
       <c r="L37" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M37" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44224</v>
+        <v>44172</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3089,11 +3089,11 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K38" t="n">
         <v>900</v>
@@ -3102,7 +3102,7 @@
         <v>1000</v>
       </c>
       <c r="M38" t="n">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44224</v>
+        <v>44172</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3156,25 +3156,25 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K39" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L39" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M39" t="n">
-        <v>773</v>
+        <v>825</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>773</v>
+        <v>825</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44224</v>
+        <v>44195</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3228,25 +3228,25 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K40" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L40" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M40" t="n">
-        <v>572</v>
+        <v>925</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>572</v>
+        <v>925</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44224</v>
+        <v>44195</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K41" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L41" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M41" t="n">
-        <v>374</v>
+        <v>825</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>374</v>
+        <v>825</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44218</v>
+        <v>44195</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
+        <v>700</v>
+      </c>
+      <c r="L42" t="n">
         <v>750</v>
       </c>
-      <c r="L42" t="n">
-        <v>850</v>
-      </c>
       <c r="M42" t="n">
-        <v>803</v>
+        <v>725</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>803</v>
+        <v>725</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44218</v>
+        <v>44195</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K43" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L43" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M43" t="n">
-        <v>607</v>
+        <v>875</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>607</v>
+        <v>875</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44218</v>
+        <v>44195</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="K44" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L44" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M44" t="n">
-        <v>459</v>
+        <v>725</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>459</v>
+        <v>725</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K45" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L45" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M45" t="n">
-        <v>979</v>
+        <v>750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>979</v>
+        <v>750</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K46" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L46" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M46" t="n">
-        <v>310</v>
+        <v>547</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>310</v>
+        <v>547</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44203</v>
+        <v>44216</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K47" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="L47" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M47" t="n">
-        <v>873</v>
+        <v>353</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>873</v>
+        <v>353</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44203</v>
+        <v>44216</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K48" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="L48" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M48" t="n">
-        <v>672</v>
+        <v>977</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>672</v>
+        <v>977</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44203</v>
+        <v>44216</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K49" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L49" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M49" t="n">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44203</v>
+        <v>44232</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K50" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L50" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M50" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K51" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L51" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M51" t="n">
-        <v>953</v>
+        <v>625</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>953</v>
+        <v>625</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K52" t="n">
+        <v>700</v>
+      </c>
+      <c r="L52" t="n">
         <v>750</v>
       </c>
-      <c r="L52" t="n">
-        <v>800</v>
-      </c>
       <c r="M52" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K53" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L53" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M53" t="n">
-        <v>582</v>
+        <v>625</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>582</v>
+        <v>625</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44202</v>
+        <v>44252</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4236,16 +4236,16 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1550</v>
+        <v>400</v>
       </c>
       <c r="K54" t="n">
         <v>900</v>
@@ -4254,7 +4254,7 @@
         <v>950</v>
       </c>
       <c r="M54" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44202</v>
+        <v>44252</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4308,25 +4308,25 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="K55" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L55" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M55" t="n">
-        <v>677</v>
+        <v>825</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>677</v>
+        <v>825</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K56" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L56" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M56" t="n">
-        <v>470</v>
+        <v>725</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>470</v>
+        <v>725</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K57" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L57" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M57" t="n">
-        <v>271</v>
+        <v>625</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>271</v>
+        <v>625</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44252</v>
+        <v>44236</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K58" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L58" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="M58" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44252</v>
+        <v>44236</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K59" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L59" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="M59" t="n">
-        <v>825</v>
+        <v>525</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>825</v>
+        <v>525</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44214</v>
+        <v>44196</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4673,11 +4673,11 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K60" t="n">
         <v>800</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44214</v>
+        <v>44196</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K61" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L61" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M61" t="n">
-        <v>660</v>
+        <v>725</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>660</v>
+        <v>725</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44214</v>
+        <v>44196</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K62" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L62" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="M62" t="n">
-        <v>482</v>
+        <v>925</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>482</v>
+        <v>925</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44214</v>
+        <v>44196</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K63" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L63" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M63" t="n">
-        <v>977</v>
+        <v>825</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>977</v>
+        <v>825</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K64" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L64" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M64" t="n">
-        <v>325</v>
+        <v>850</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>325</v>
+        <v>850</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K65" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L65" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M65" t="n">
-        <v>975</v>
+        <v>653</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>975</v>
+        <v>653</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K66" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L66" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M66" t="n">
-        <v>776</v>
+        <v>460</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>776</v>
+        <v>460</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="K67" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="L67" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M67" t="n">
-        <v>570</v>
+        <v>300</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>570</v>
+        <v>300</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44208</v>
+        <v>44201</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K68" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="L68" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M68" t="n">
-        <v>347</v>
+        <v>977</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>347</v>
+        <v>977</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44211</v>
+        <v>44201</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K69" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L69" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M69" t="n">
-        <v>875</v>
+        <v>776</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>875</v>
+        <v>776</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44211</v>
+        <v>44201</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K70" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L70" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M70" t="n">
-        <v>677</v>
+        <v>575</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>677</v>
+        <v>575</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K71" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L71" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M71" t="n">
-        <v>476</v>
+        <v>975</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>476</v>
+        <v>975</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44204</v>
+        <v>44208</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K72" t="n">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="L72" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M72" t="n">
-        <v>175</v>
+        <v>776</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>175</v>
+        <v>776</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44204</v>
+        <v>44208</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="K73" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L73" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M73" t="n">
-        <v>875</v>
+        <v>570</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>875</v>
+        <v>570</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44204</v>
+        <v>44208</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K74" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L74" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M74" t="n">
-        <v>678</v>
+        <v>347</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>678</v>
+        <v>347</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44204</v>
+        <v>44210</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K75" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L75" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M75" t="n">
-        <v>480</v>
+        <v>975</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>480</v>
+        <v>975</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44204</v>
+        <v>44210</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="K76" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="L76" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M76" t="n">
-        <v>1156</v>
+        <v>773</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1156</v>
+        <v>773</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44204</v>
+        <v>44210</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K77" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L77" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M77" t="n">
-        <v>281</v>
+        <v>540</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>281</v>
+        <v>540</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44189</v>
+        <v>44210</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5964,25 +5964,25 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K78" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L78" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M78" t="n">
-        <v>825</v>
+        <v>945</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>825</v>
+        <v>945</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K79" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L79" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M79" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K80" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L80" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M80" t="n">
-        <v>779</v>
+        <v>586</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>779</v>
+        <v>586</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44209</v>
+        <v>44231</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="K81" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L81" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M81" t="n">
-        <v>578</v>
+        <v>725</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>578</v>
+        <v>725</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44229</v>
+        <v>44231</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K82" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L82" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M82" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44229</v>
+        <v>44231</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6336,13 +6336,13 @@
         <v>500</v>
       </c>
       <c r="K83" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L83" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M83" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6396,25 +6396,25 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K84" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L84" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M84" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="K85" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L85" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M85" t="n">
-        <v>547</v>
+        <v>779</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>547</v>
+        <v>779</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K86" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L86" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M86" t="n">
-        <v>353</v>
+        <v>576</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>353</v>
+        <v>576</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K87" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="L87" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M87" t="n">
-        <v>977</v>
+        <v>357</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>977</v>
+        <v>357</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K88" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="L88" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M88" t="n">
-        <v>225</v>
+        <v>975</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>225</v>
+        <v>975</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K89" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L89" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="M89" t="n">
-        <v>925</v>
+        <v>220</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>925</v>
+        <v>220</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K90" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L90" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="M90" t="n">
-        <v>825</v>
+        <v>877</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>825</v>
+        <v>877</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K91" t="n">
+        <v>650</v>
+      </c>
+      <c r="L91" t="n">
         <v>700</v>
       </c>
-      <c r="L91" t="n">
-        <v>750</v>
-      </c>
       <c r="M91" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K92" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L92" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M92" t="n">
-        <v>875</v>
+        <v>475</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>875</v>
+        <v>475</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44195</v>
+        <v>44204</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K93" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="L93" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="M93" t="n">
-        <v>725</v>
+        <v>175</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>725</v>
+        <v>175</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44172</v>
+        <v>44204</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K94" t="n">
+        <v>850</v>
+      </c>
+      <c r="L94" t="n">
         <v>900</v>
       </c>
-      <c r="L94" t="n">
-        <v>1000</v>
-      </c>
       <c r="M94" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44172</v>
+        <v>44204</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K95" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L95" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="M95" t="n">
-        <v>825</v>
+        <v>678</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>825</v>
+        <v>678</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44222</v>
+        <v>44204</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K96" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L96" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M96" t="n">
-        <v>674</v>
+        <v>480</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>674</v>
+        <v>480</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44222</v>
+        <v>44204</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="K97" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="L97" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M97" t="n">
-        <v>480</v>
+        <v>1156</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>480</v>
+        <v>1156</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44222</v>
+        <v>44204</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K98" t="n">
+        <v>250</v>
+      </c>
+      <c r="L98" t="n">
         <v>300</v>
       </c>
-      <c r="L98" t="n">
-        <v>400</v>
-      </c>
       <c r="M98" t="n">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44222</v>
+        <v>44200</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K99" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="L99" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M99" t="n">
-        <v>871</v>
+        <v>953</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>871</v>
+        <v>953</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="K100" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="L100" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M100" t="n">
-        <v>975</v>
+        <v>780</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>975</v>
+        <v>780</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K101" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L101" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M101" t="n">
-        <v>773</v>
+        <v>582</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>773</v>
+        <v>582</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44210</v>
+        <v>44166</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K102" t="n">
         <v>500</v>
       </c>
       <c r="L102" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M102" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44210</v>
+        <v>44166</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K103" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L103" t="n">
         <v>1000</v>
       </c>
       <c r="M103" t="n">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44210</v>
+        <v>44166</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7836,25 +7836,25 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K104" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L104" t="n">
         <v>800</v>
       </c>
       <c r="M104" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7908,25 +7908,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K105" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L105" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M105" t="n">
-        <v>586</v>
+        <v>803</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>586</v>
+        <v>803</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="K106" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L106" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M106" t="n">
-        <v>500</v>
+        <v>607</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>500</v>
+        <v>607</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K107" t="n">
+        <v>400</v>
+      </c>
+      <c r="L107" t="n">
         <v>500</v>
       </c>
-      <c r="K107" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L107" t="n">
-        <v>1000</v>
-      </c>
       <c r="M107" t="n">
-        <v>1000</v>
+        <v>459</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1000</v>
+        <v>459</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K108" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L108" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M108" t="n">
-        <v>800</v>
+        <v>979</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>800</v>
+        <v>979</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44225</v>
+        <v>44218</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K109" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L109" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M109" t="n">
-        <v>750</v>
+        <v>310</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>750</v>
+        <v>310</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K110" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L110" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M110" t="n">
-        <v>553</v>
+        <v>825</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>553</v>
+        <v>825</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8340,25 +8340,25 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K111" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L111" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M111" t="n">
-        <v>375</v>
+        <v>825</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>375</v>
+        <v>825</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
+        <v>600</v>
+      </c>
+      <c r="K112" t="n">
         <v>800</v>
       </c>
-      <c r="K112" t="n">
-        <v>700</v>
-      </c>
       <c r="L112" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M112" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K113" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L113" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M113" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K114" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L114" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M114" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K115" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L115" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M115" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44236</v>
+        <v>44211</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K116" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L116" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M116" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44236</v>
+        <v>44211</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K117" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L117" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M117" t="n">
-        <v>525</v>
+        <v>677</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>525</v>
+        <v>677</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44251</v>
+        <v>44211</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K118" t="n">
+        <v>450</v>
+      </c>
+      <c r="L118" t="n">
         <v>500</v>
       </c>
-      <c r="K118" t="n">
-        <v>850</v>
-      </c>
-      <c r="L118" t="n">
-        <v>900</v>
-      </c>
       <c r="M118" t="n">
-        <v>875</v>
+        <v>476</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>875</v>
+        <v>476</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44251</v>
+        <v>44181</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K119" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L119" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M119" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="K120" t="n">
+        <v>800</v>
+      </c>
+      <c r="L120" t="n">
         <v>850</v>
       </c>
-      <c r="L120" t="n">
-        <v>900</v>
-      </c>
       <c r="M120" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K121" t="n">
+        <v>700</v>
+      </c>
+      <c r="L121" t="n">
         <v>800</v>
       </c>
-      <c r="L121" t="n">
-        <v>850</v>
-      </c>
       <c r="M121" t="n">
-        <v>825</v>
+        <v>747</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>825</v>
+        <v>747</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K122" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L122" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M122" t="n">
-        <v>725</v>
+        <v>544</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>725</v>
+        <v>544</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9204,25 +9204,25 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K123" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L123" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="M123" t="n">
-        <v>925</v>
+        <v>400</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>925</v>
+        <v>400</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9276,25 +9276,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K124" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L124" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M124" t="n">
-        <v>825</v>
+        <v>942</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>825</v>
+        <v>942</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44201</v>
+        <v>44224</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K125" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="L125" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M125" t="n">
-        <v>977</v>
+        <v>773</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>977</v>
+        <v>773</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44201</v>
+        <v>44224</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K126" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L126" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M126" t="n">
-        <v>776</v>
+        <v>572</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>776</v>
+        <v>572</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44201</v>
+        <v>44224</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K127" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L127" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M127" t="n">
-        <v>575</v>
+        <v>374</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>575</v>
+        <v>374</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K2" t="n">
+        <v>800</v>
+      </c>
+      <c r="L2" t="n">
         <v>850</v>
       </c>
-      <c r="L2" t="n">
-        <v>900</v>
-      </c>
       <c r="M2" t="n">
-        <v>873</v>
+        <v>825</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>873</v>
+        <v>825</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44203</v>
+        <v>44193</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K3" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L3" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M3" t="n">
-        <v>672</v>
+        <v>725</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>672</v>
+        <v>725</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44203</v>
+        <v>44230</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M4" t="n">
-        <v>477</v>
+        <v>825</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>477</v>
+        <v>825</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44203</v>
+        <v>44230</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L5" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M5" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44251</v>
+        <v>44230</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
+        <v>800</v>
+      </c>
+      <c r="L6" t="n">
         <v>850</v>
       </c>
-      <c r="L6" t="n">
-        <v>900</v>
-      </c>
       <c r="M6" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44251</v>
+        <v>44230</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
         <v>700</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44209</v>
+        <v>44225</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>1200</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44209</v>
+        <v>44225</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="K9" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M9" t="n">
-        <v>779</v>
+        <v>553</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>779</v>
+        <v>553</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44209</v>
+        <v>44225</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>1800</v>
       </c>
       <c r="K10" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L10" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M10" t="n">
-        <v>578</v>
+        <v>375</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>578</v>
+        <v>375</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K11" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M11" t="n">
-        <v>753</v>
+        <v>850</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>753</v>
+        <v>850</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L12" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M12" t="n">
-        <v>556</v>
+        <v>653</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>556</v>
+        <v>653</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M13" t="n">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K14" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L14" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="M14" t="n">
-        <v>955</v>
+        <v>300</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>955</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44223</v>
+        <v>44204</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K15" t="n">
+        <v>150</v>
+      </c>
+      <c r="L15" t="n">
         <v>200</v>
       </c>
-      <c r="L15" t="n">
-        <v>250</v>
-      </c>
       <c r="M15" t="n">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44222</v>
+        <v>44204</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K16" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L16" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M16" t="n">
-        <v>674</v>
+        <v>875</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>674</v>
+        <v>875</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44222</v>
+        <v>44204</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K17" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L17" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M17" t="n">
-        <v>480</v>
+        <v>678</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>480</v>
+        <v>678</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44222</v>
+        <v>44204</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K18" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L18" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M18" t="n">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44222</v>
+        <v>44204</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
+        <v>900</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1100</v>
+      </c>
+      <c r="L19" t="n">
         <v>1200</v>
       </c>
-      <c r="K19" t="n">
-        <v>850</v>
-      </c>
-      <c r="L19" t="n">
-        <v>900</v>
-      </c>
       <c r="M19" t="n">
-        <v>871</v>
+        <v>1156</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>871</v>
+        <v>1156</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44214</v>
+        <v>44204</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L20" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="M20" t="n">
-        <v>825</v>
+        <v>281</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>825</v>
+        <v>281</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K21" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L21" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M21" t="n">
-        <v>660</v>
+        <v>875</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>660</v>
+        <v>875</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K22" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L22" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M22" t="n">
-        <v>482</v>
+        <v>677</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>482</v>
+        <v>677</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="L23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M23" t="n">
-        <v>977</v>
+        <v>476</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>977</v>
+        <v>476</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44214</v>
+        <v>44229</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K24" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L24" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M24" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44194</v>
+        <v>44229</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
         <v>800</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K26" t="n">
         <v>700</v>
       </c>
       <c r="L26" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M26" t="n">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K27" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L27" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M27" t="n">
-        <v>925</v>
+        <v>556</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>925</v>
+        <v>556</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K28" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L28" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M28" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44202</v>
+        <v>44223</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1550</v>
+        <v>1100</v>
       </c>
       <c r="K29" t="n">
         <v>900</v>
       </c>
       <c r="L29" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M29" t="n">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44202</v>
+        <v>44223</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K30" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L30" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
-        <v>677</v>
+        <v>220</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>677</v>
+        <v>220</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2000</v>
+        <v>1550</v>
       </c>
       <c r="K31" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L31" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="M31" t="n">
-        <v>470</v>
+        <v>927</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>470</v>
+        <v>927</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="K32" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L32" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M32" t="n">
-        <v>271</v>
+        <v>677</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>271</v>
+        <v>677</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44193</v>
+        <v>44202</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K33" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L33" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M33" t="n">
-        <v>825</v>
+        <v>470</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>825</v>
+        <v>470</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44193</v>
+        <v>44202</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K34" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L34" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M34" t="n">
-        <v>725</v>
+        <v>271</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>725</v>
+        <v>271</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44225</v>
+        <v>44216</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K35" t="n">
         <v>700</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44225</v>
+        <v>44216</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K36" t="n">
         <v>500</v>
@@ -2958,7 +2958,7 @@
         <v>600</v>
       </c>
       <c r="M36" t="n">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44225</v>
+        <v>44216</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K37" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L37" t="n">
         <v>400</v>
       </c>
       <c r="M37" t="n">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44172</v>
+        <v>44216</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K38" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L38" t="n">
         <v>1000</v>
       </c>
       <c r="M38" t="n">
-        <v>950</v>
+        <v>977</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>950</v>
+        <v>977</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44172</v>
+        <v>44216</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K39" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L39" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="M39" t="n">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44195</v>
+        <v>44189</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>1200</v>
       </c>
       <c r="K40" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L40" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M40" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K41" t="n">
+        <v>750</v>
+      </c>
+      <c r="L41" t="n">
         <v>800</v>
       </c>
-      <c r="L41" t="n">
-        <v>850</v>
-      </c>
       <c r="M41" t="n">
-        <v>825</v>
+        <v>779</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>825</v>
+        <v>779</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K42" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L42" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M42" t="n">
-        <v>725</v>
+        <v>576</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>725</v>
+        <v>576</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3444,25 +3444,25 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K43" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="L43" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M43" t="n">
-        <v>875</v>
+        <v>357</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>875</v>
+        <v>357</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K44" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L44" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M44" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K45" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L45" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M45" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3660,25 +3660,25 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K46" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L46" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M46" t="n">
-        <v>547</v>
+        <v>877</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>547</v>
+        <v>877</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K47" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L47" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M47" t="n">
-        <v>353</v>
+        <v>675</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>353</v>
+        <v>675</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K48" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="L48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M48" t="n">
-        <v>977</v>
+        <v>475</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>977</v>
+        <v>475</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44216</v>
+        <v>44201</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K49" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="L49" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M49" t="n">
-        <v>225</v>
+        <v>977</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>225</v>
+        <v>977</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44232</v>
+        <v>44201</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K50" t="n">
+        <v>750</v>
+      </c>
+      <c r="L50" t="n">
         <v>800</v>
       </c>
-      <c r="K50" t="n">
-        <v>700</v>
-      </c>
-      <c r="L50" t="n">
-        <v>750</v>
-      </c>
       <c r="M50" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44232</v>
+        <v>44201</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K51" t="n">
+        <v>550</v>
+      </c>
+      <c r="L51" t="n">
         <v>600</v>
       </c>
-      <c r="K51" t="n">
-        <v>600</v>
-      </c>
-      <c r="L51" t="n">
-        <v>650</v>
-      </c>
       <c r="M51" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44232</v>
+        <v>44203</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4092,25 +4092,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K52" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L52" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M52" t="n">
-        <v>725</v>
+        <v>873</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>725</v>
+        <v>873</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44232</v>
+        <v>44203</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K53" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L53" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M53" t="n">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44252</v>
+        <v>44203</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4236,25 +4236,25 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K54" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L54" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="M54" t="n">
-        <v>925</v>
+        <v>477</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>925</v>
+        <v>477</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44252</v>
+        <v>44203</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4308,25 +4308,25 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K55" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L55" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="M55" t="n">
-        <v>825</v>
+        <v>279</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>825</v>
+        <v>279</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44243</v>
+        <v>44236</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4392,13 +4392,13 @@
         <v>600</v>
       </c>
       <c r="K56" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L56" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M56" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44243</v>
+        <v>44236</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K57" t="n">
         <v>500</v>
       </c>
-      <c r="K57" t="n">
-        <v>600</v>
-      </c>
       <c r="L57" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M57" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44236</v>
+        <v>44214</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K58" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L58" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M58" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44236</v>
+        <v>44214</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L59" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M59" t="n">
-        <v>525</v>
+        <v>660</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>525</v>
+        <v>660</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44196</v>
+        <v>44214</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K60" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L60" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M60" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44196</v>
+        <v>44214</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K61" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L61" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M61" t="n">
-        <v>725</v>
+        <v>977</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>725</v>
+        <v>977</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44196</v>
+        <v>44214</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J62" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K62" t="n">
         <v>300</v>
       </c>
-      <c r="K62" t="n">
-        <v>900</v>
-      </c>
       <c r="L62" t="n">
-        <v>950</v>
+        <v>350</v>
       </c>
       <c r="M62" t="n">
-        <v>925</v>
+        <v>325</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>925</v>
+        <v>325</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44196</v>
+        <v>44172</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4896,13 +4896,13 @@
         <v>300</v>
       </c>
       <c r="K63" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L63" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M63" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44221</v>
+        <v>44172</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="K64" t="n">
         <v>800</v>
       </c>
       <c r="L64" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="M64" t="n">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44221</v>
+        <v>44252</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K65" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L65" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="M65" t="n">
-        <v>653</v>
+        <v>925</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>653</v>
+        <v>925</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44221</v>
+        <v>44252</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K66" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L66" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M66" t="n">
-        <v>460</v>
+        <v>825</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>460</v>
+        <v>825</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K67" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L67" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M67" t="n">
-        <v>300</v>
+        <v>674</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>300</v>
+        <v>674</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44201</v>
+        <v>44222</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K68" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="L68" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M68" t="n">
-        <v>977</v>
+        <v>480</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>977</v>
+        <v>480</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44201</v>
+        <v>44222</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K69" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L69" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M69" t="n">
-        <v>776</v>
+        <v>347</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>776</v>
+        <v>347</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44201</v>
+        <v>44222</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K70" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L70" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M70" t="n">
-        <v>575</v>
+        <v>871</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>575</v>
+        <v>871</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44208</v>
+        <v>44243</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L71" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M71" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44208</v>
+        <v>44243</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K72" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L72" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M72" t="n">
-        <v>776</v>
+        <v>625</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>776</v>
+        <v>625</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44208</v>
+        <v>44166</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="K73" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M73" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44208</v>
+        <v>44166</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K74" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L74" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M74" t="n">
-        <v>347</v>
+        <v>1000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>347</v>
+        <v>1000</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44210</v>
+        <v>44166</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K75" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L75" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M75" t="n">
-        <v>975</v>
+        <v>800</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>975</v>
+        <v>800</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44210</v>
+        <v>44181</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1500</v>
+        <v>260</v>
       </c>
       <c r="K76" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L76" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M76" t="n">
-        <v>773</v>
+        <v>875</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>773</v>
+        <v>875</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K77" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L77" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M77" t="n">
-        <v>540</v>
+        <v>975</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>540</v>
+        <v>975</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5964,25 +5964,25 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="K78" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L78" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M78" t="n">
-        <v>945</v>
+        <v>779</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>945</v>
+        <v>779</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
         <v>1800</v>
       </c>
       <c r="K79" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L79" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M79" t="n">
-        <v>750</v>
+        <v>578</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>750</v>
+        <v>578</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K80" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L80" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M80" t="n">
-        <v>586</v>
+        <v>975</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>586</v>
+        <v>975</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44231</v>
+        <v>44210</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K81" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L81" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M81" t="n">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44231</v>
+        <v>44210</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K82" t="n">
+        <v>500</v>
+      </c>
+      <c r="L82" t="n">
         <v>600</v>
       </c>
-      <c r="K82" t="n">
-        <v>600</v>
-      </c>
-      <c r="L82" t="n">
-        <v>650</v>
-      </c>
       <c r="M82" t="n">
-        <v>625</v>
+        <v>540</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>625</v>
+        <v>540</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44231</v>
+        <v>44210</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K83" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L83" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M83" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44231</v>
+        <v>44210</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K84" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L84" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M84" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44215</v>
+        <v>44210</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
         <v>1400</v>
       </c>
       <c r="K85" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L85" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M85" t="n">
-        <v>779</v>
+        <v>586</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>779</v>
+        <v>586</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44215</v>
+        <v>44218</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
         <v>1700</v>
       </c>
       <c r="K86" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L86" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M86" t="n">
-        <v>576</v>
+        <v>803</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>576</v>
+        <v>803</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44215</v>
+        <v>44218</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="K87" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L87" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M87" t="n">
-        <v>357</v>
+        <v>607</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>357</v>
+        <v>607</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44215</v>
+        <v>44218</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="K88" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="L88" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M88" t="n">
-        <v>975</v>
+        <v>459</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>975</v>
+        <v>459</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44215</v>
+        <v>44218</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K89" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="L89" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M89" t="n">
-        <v>220</v>
+        <v>979</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>220</v>
+        <v>979</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44215</v>
+        <v>44218</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K90" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="L90" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M90" t="n">
-        <v>877</v>
+        <v>310</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>877</v>
+        <v>310</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44215</v>
+        <v>44231</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K91" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L91" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M91" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44215</v>
+        <v>44231</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K92" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L92" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M92" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44204</v>
+        <v>44231</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K93" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="L93" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="M93" t="n">
-        <v>175</v>
+        <v>725</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>175</v>
+        <v>725</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44204</v>
+        <v>44231</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K94" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L94" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M94" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44204</v>
+        <v>44251</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K95" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L95" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M95" t="n">
-        <v>678</v>
+        <v>875</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>678</v>
+        <v>875</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44204</v>
+        <v>44251</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="K96" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L96" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M96" t="n">
-        <v>480</v>
+        <v>725</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>480</v>
+        <v>725</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44204</v>
+        <v>44208</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K97" t="n">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="L97" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M97" t="n">
-        <v>1156</v>
+        <v>975</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1156</v>
+        <v>975</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44204</v>
+        <v>44208</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K98" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L98" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M98" t="n">
-        <v>281</v>
+        <v>776</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>281</v>
+        <v>776</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44200</v>
+        <v>44208</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K99" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L99" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M99" t="n">
-        <v>953</v>
+        <v>570</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>953</v>
+        <v>570</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44200</v>
+        <v>44208</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="K100" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L100" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M100" t="n">
-        <v>780</v>
+        <v>347</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>780</v>
+        <v>347</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K101" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L101" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M101" t="n">
-        <v>582</v>
+        <v>725</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>582</v>
+        <v>725</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44166</v>
+        <v>44232</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K102" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L102" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M102" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44166</v>
+        <v>44232</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K103" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L103" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M103" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44166</v>
+        <v>44232</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7836,25 +7836,25 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
+        <v>300</v>
+      </c>
+      <c r="K104" t="n">
         <v>600</v>
       </c>
-      <c r="K104" t="n">
-        <v>800</v>
-      </c>
       <c r="L104" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M104" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44218</v>
+        <v>44196</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K105" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L105" t="n">
         <v>850</v>
       </c>
       <c r="M105" t="n">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44218</v>
+        <v>44196</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K106" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L106" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M106" t="n">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44218</v>
+        <v>44196</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8052,25 +8052,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K107" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L107" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="M107" t="n">
-        <v>459</v>
+        <v>925</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>459</v>
+        <v>925</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44218</v>
+        <v>44196</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K108" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L108" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M108" t="n">
-        <v>979</v>
+        <v>825</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>979</v>
+        <v>825</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44218</v>
+        <v>44200</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
         <v>1500</v>
       </c>
       <c r="K109" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L109" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="M109" t="n">
-        <v>310</v>
+        <v>953</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>310</v>
+        <v>953</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44229</v>
+        <v>44200</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="K110" t="n">
+        <v>750</v>
+      </c>
+      <c r="L110" t="n">
         <v>800</v>
       </c>
-      <c r="L110" t="n">
-        <v>850</v>
-      </c>
       <c r="M110" t="n">
-        <v>825</v>
+        <v>780</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>825</v>
+        <v>780</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44229</v>
+        <v>44200</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8340,25 +8340,25 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K111" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L111" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M111" t="n">
-        <v>825</v>
+        <v>582</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>825</v>
+        <v>582</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K112" t="n">
+        <v>700</v>
+      </c>
+      <c r="L112" t="n">
         <v>800</v>
       </c>
-      <c r="L112" t="n">
-        <v>850</v>
-      </c>
       <c r="M112" t="n">
-        <v>825</v>
+        <v>747</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>825</v>
+        <v>747</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K113" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L113" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M113" t="n">
-        <v>725</v>
+        <v>544</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>725</v>
+        <v>544</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K114" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L114" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="M114" t="n">
-        <v>825</v>
+        <v>400</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>825</v>
+        <v>400</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8628,25 +8628,25 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K115" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L115" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M115" t="n">
-        <v>725</v>
+        <v>942</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>725</v>
+        <v>942</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44211</v>
+        <v>44224</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K116" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L116" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M116" t="n">
-        <v>875</v>
+        <v>773</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>875</v>
+        <v>773</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44211</v>
+        <v>44224</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K117" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L117" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M117" t="n">
-        <v>677</v>
+        <v>572</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>677</v>
+        <v>572</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44211</v>
+        <v>44224</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8856,13 +8856,13 @@
         <v>1700</v>
       </c>
       <c r="K118" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L118" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M118" t="n">
-        <v>476</v>
+        <v>374</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>476</v>
+        <v>374</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44181</v>
+        <v>44195</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="K119" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="L119" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="M119" t="n">
-        <v>875</v>
+        <v>925</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>875</v>
+        <v>925</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44189</v>
+        <v>44195</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K120" t="n">
         <v>800</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44224</v>
+        <v>44195</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K121" t="n">
         <v>700</v>
       </c>
       <c r="L121" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M121" t="n">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44224</v>
+        <v>44195</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K122" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L122" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M122" t="n">
-        <v>544</v>
+        <v>875</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>544</v>
+        <v>875</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44224</v>
+        <v>44195</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K123" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L123" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M123" t="n">
-        <v>400</v>
+        <v>725</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>400</v>
+        <v>725</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K124" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L124" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M124" t="n">
-        <v>942</v>
+        <v>825</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>942</v>
+        <v>825</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K125" t="n">
+        <v>700</v>
+      </c>
+      <c r="L125" t="n">
         <v>750</v>
       </c>
-      <c r="L125" t="n">
-        <v>800</v>
-      </c>
       <c r="M125" t="n">
-        <v>773</v>
+        <v>725</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>773</v>
+        <v>725</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K126" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L126" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M126" t="n">
-        <v>572</v>
+        <v>925</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>572</v>
+        <v>925</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K127" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L127" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M127" t="n">
-        <v>374</v>
+        <v>825</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>374</v>
+        <v>825</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K91" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L91" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M91" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K92" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L92" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M92" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K93" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L93" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M93" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
         <v>600</v>
       </c>
       <c r="K94" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L94" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M94" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K95" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L95" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M95" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K96" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L96" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M96" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44208</v>
+        <v>44231</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7332,25 +7332,25 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K97" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L97" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M97" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44208</v>
+        <v>44231</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7404,25 +7404,25 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K98" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L98" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M98" t="n">
-        <v>776</v>
+        <v>625</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>776</v>
+        <v>625</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44208</v>
+        <v>44251</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K99" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L99" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M99" t="n">
-        <v>570</v>
+        <v>875</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>570</v>
+        <v>875</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44208</v>
+        <v>44251</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1700</v>
+        <v>160</v>
       </c>
       <c r="K100" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L100" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M100" t="n">
-        <v>347</v>
+        <v>725</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>347</v>
+        <v>725</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K101" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L101" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M101" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K102" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L102" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M102" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K103" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L103" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M103" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7836,25 +7836,25 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J104" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K104" t="n">
         <v>300</v>
       </c>
-      <c r="K104" t="n">
-        <v>600</v>
-      </c>
       <c r="L104" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M104" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K105" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L105" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M105" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K106" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L106" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M106" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8064,13 +8064,13 @@
         <v>300</v>
       </c>
       <c r="K107" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L107" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M107" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8136,13 +8136,13 @@
         <v>300</v>
       </c>
       <c r="K108" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L108" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M108" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K109" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L109" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M109" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K110" t="n">
+        <v>700</v>
+      </c>
+      <c r="L110" t="n">
         <v>750</v>
       </c>
-      <c r="L110" t="n">
-        <v>800</v>
-      </c>
       <c r="M110" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8340,25 +8340,25 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K111" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L111" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M111" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44224</v>
+        <v>44196</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8412,25 +8412,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K112" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L112" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M112" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L113" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M113" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K114" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L114" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M114" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K115" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L115" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M115" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K116" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L116" t="n">
         <v>800</v>
       </c>
       <c r="M116" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K117" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L117" t="n">
         <v>600</v>
       </c>
       <c r="M117" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,17 +8853,17 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K118" t="n">
         <v>350</v>
       </c>
       <c r="L118" t="n">
+        <v>450</v>
+      </c>
+      <c r="M118" t="n">
         <v>400</v>
       </c>
-      <c r="M118" t="n">
-        <v>374</v>
-      </c>
       <c r="N118" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -8931,10 +8931,10 @@
         <v>900</v>
       </c>
       <c r="L119" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M119" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8988,25 +8988,25 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K120" t="n">
+        <v>750</v>
+      </c>
+      <c r="L120" t="n">
         <v>800</v>
       </c>
-      <c r="L120" t="n">
-        <v>850</v>
-      </c>
       <c r="M120" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K121" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L121" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M121" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K122" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="L122" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M122" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9204,25 +9204,25 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K123" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L123" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M123" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K125" t="n">
         <v>700</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K126" t="n">
+        <v>850</v>
+      </c>
+      <c r="L126" t="n">
         <v>900</v>
       </c>
-      <c r="L126" t="n">
-        <v>950</v>
-      </c>
       <c r="M126" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,58 +9477,346 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E127" t="n">
+        <v>16</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>600</v>
+      </c>
+      <c r="K127" t="n">
+        <v>700</v>
+      </c>
+      <c r="L127" t="n">
+        <v>750</v>
+      </c>
+      <c r="M127" t="n">
+        <v>725</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>7</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E127" t="n">
-        <v>16</v>
-      </c>
-      <c r="F127" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="E128" t="n">
+        <v>16</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K128" t="n">
+        <v>800</v>
+      </c>
+      <c r="L128" t="n">
+        <v>850</v>
+      </c>
+      <c r="M128" t="n">
+        <v>825</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>1</v>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>7</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E129" t="n">
+        <v>16</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K129" t="n">
+        <v>700</v>
+      </c>
+      <c r="L129" t="n">
+        <v>750</v>
+      </c>
+      <c r="M129" t="n">
+        <v>725</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1</v>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>7</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E130" t="n">
+        <v>16</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K130" t="n">
+        <v>900</v>
+      </c>
+      <c r="L130" t="n">
+        <v>950</v>
+      </c>
+      <c r="M130" t="n">
+        <v>925</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1</v>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>7</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E131" t="n">
+        <v>16</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J127" t="n">
+      <c r="J131" t="n">
         <v>1400</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K131" t="n">
         <v>800</v>
       </c>
-      <c r="L127" t="n">
+      <c r="L131" t="n">
         <v>850</v>
       </c>
-      <c r="M127" t="n">
+      <c r="M131" t="n">
         <v>825</v>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P127" t="n">
+      <c r="P131" t="n">
         <v>825</v>
       </c>
-      <c r="Q127" t="n">
-        <v>1</v>
-      </c>
-      <c r="R127" t="inlineStr">
+      <c r="Q131" t="n">
+        <v>1</v>
+      </c>
+      <c r="R131" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44203</v>
+        <v>44557</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K52" t="n">
+        <v>800</v>
+      </c>
+      <c r="L52" t="n">
         <v>850</v>
       </c>
-      <c r="L52" t="n">
-        <v>900</v>
-      </c>
       <c r="M52" t="n">
-        <v>873</v>
+        <v>825</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>873</v>
+        <v>825</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44203</v>
+        <v>44557</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>1600</v>
       </c>
       <c r="K53" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L53" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M53" t="n">
-        <v>672</v>
+        <v>725</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>672</v>
+        <v>725</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K54" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L54" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M54" t="n">
-        <v>477</v>
+        <v>873</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>477</v>
+        <v>873</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K55" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L55" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M55" t="n">
-        <v>279</v>
+        <v>672</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>279</v>
+        <v>672</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44236</v>
+        <v>44203</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K56" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L56" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M56" t="n">
-        <v>625</v>
+        <v>477</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>625</v>
+        <v>477</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44236</v>
+        <v>44203</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K57" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L57" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M57" t="n">
-        <v>525</v>
+        <v>279</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>525</v>
+        <v>279</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K58" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L58" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M58" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K59" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L59" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M59" t="n">
-        <v>660</v>
+        <v>525</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>660</v>
+        <v>525</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="K60" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L60" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M60" t="n">
-        <v>482</v>
+        <v>825</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>482</v>
+        <v>825</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K61" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L61" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M61" t="n">
-        <v>977</v>
+        <v>660</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>977</v>
+        <v>660</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K62" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L62" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M62" t="n">
-        <v>325</v>
+        <v>482</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>325</v>
+        <v>482</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K63" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L63" t="n">
         <v>1000</v>
       </c>
       <c r="M63" t="n">
-        <v>950</v>
+        <v>977</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>950</v>
+        <v>977</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K64" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L64" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M64" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44252</v>
+        <v>44172</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5028,26 +5028,26 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K65" t="n">
         <v>900</v>
       </c>
       <c r="L65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M65" t="n">
         <v>950</v>
       </c>
-      <c r="M65" t="n">
-        <v>925</v>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>925</v>
+        <v>950</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44252</v>
+        <v>44172</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5100,16 +5100,16 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K66" t="n">
         <v>800</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5172,25 +5172,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K67" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L67" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="M67" t="n">
-        <v>674</v>
+        <v>925</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>674</v>
+        <v>925</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K68" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L68" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M68" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
         <v>1700</v>
       </c>
       <c r="K69" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L69" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M69" t="n">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K70" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L70" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M70" t="n">
-        <v>871</v>
+        <v>480</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>871</v>
+        <v>480</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K71" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L71" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M71" t="n">
-        <v>725</v>
+        <v>347</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>725</v>
+        <v>347</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K72" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L72" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M72" t="n">
-        <v>625</v>
+        <v>871</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>625</v>
+        <v>871</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K73" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L73" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M73" t="n">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5688,13 +5688,13 @@
         <v>500</v>
       </c>
       <c r="K74" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L74" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M74" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K75" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L75" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M75" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44181</v>
+        <v>44166</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K76" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="L76" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M76" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K77" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L77" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M77" t="n">
-        <v>975</v>
+        <v>800</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>975</v>
+        <v>800</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44209</v>
+        <v>44181</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2100</v>
+        <v>260</v>
       </c>
       <c r="K78" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L78" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M78" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K79" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L79" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M79" t="n">
-        <v>578</v>
+        <v>975</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>578</v>
+        <v>975</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="K80" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="L80" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M80" t="n">
-        <v>975</v>
+        <v>779</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>975</v>
+        <v>779</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K81" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L81" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M81" t="n">
-        <v>773</v>
+        <v>578</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>773</v>
+        <v>578</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K82" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L82" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M82" t="n">
-        <v>540</v>
+        <v>975</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>540</v>
+        <v>975</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K83" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L83" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M83" t="n">
-        <v>945</v>
+        <v>773</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>945</v>
+        <v>773</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6396,25 +6396,25 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K84" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L84" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M84" t="n">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K85" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L85" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M85" t="n">
-        <v>586</v>
+        <v>945</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>586</v>
+        <v>945</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6540,26 +6540,26 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K86" t="n">
+        <v>700</v>
+      </c>
+      <c r="L86" t="n">
+        <v>800</v>
+      </c>
+      <c r="M86" t="n">
         <v>750</v>
       </c>
-      <c r="L86" t="n">
-        <v>850</v>
-      </c>
-      <c r="M86" t="n">
-        <v>803</v>
-      </c>
       <c r="N86" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>803</v>
+        <v>750</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6612,16 +6612,16 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K87" t="n">
         <v>550</v>
@@ -6630,7 +6630,7 @@
         <v>650</v>
       </c>
       <c r="M87" t="n">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="K88" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L88" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M88" t="n">
-        <v>459</v>
+        <v>803</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>459</v>
+        <v>803</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="K89" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L89" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M89" t="n">
-        <v>979</v>
+        <v>607</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>979</v>
+        <v>607</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K90" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L90" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M90" t="n">
-        <v>310</v>
+        <v>459</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>310</v>
+        <v>459</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K91" t="n">
+        <v>950</v>
+      </c>
+      <c r="L91" t="n">
         <v>1000</v>
       </c>
-      <c r="L91" t="n">
-        <v>1100</v>
-      </c>
       <c r="M91" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K92" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L92" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M92" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K94" t="n">
         <v>800</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7188,25 +7188,25 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K95" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L95" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M95" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7260,25 +7260,25 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
         <v>600</v>
       </c>
       <c r="K96" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L96" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M96" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K97" t="n">
         <v>700</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7488,13 +7488,13 @@
         <v>500</v>
       </c>
       <c r="K99" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L99" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M99" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K100" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L100" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M100" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44208</v>
+        <v>44251</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K101" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L101" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M101" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44208</v>
+        <v>44251</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1900</v>
+        <v>160</v>
       </c>
       <c r="K102" t="n">
+        <v>700</v>
+      </c>
+      <c r="L102" t="n">
         <v>750</v>
       </c>
-      <c r="L102" t="n">
-        <v>800</v>
-      </c>
       <c r="M102" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="K103" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L103" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M103" t="n">
-        <v>570</v>
+        <v>975</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>570</v>
+        <v>975</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K104" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L104" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M104" t="n">
-        <v>347</v>
+        <v>776</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>347</v>
+        <v>776</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K105" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L105" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M105" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K106" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L106" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M106" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,7 +8061,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K107" t="n">
         <v>700</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,7 +8133,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K108" t="n">
         <v>600</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K109" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L109" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M109" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8280,13 +8280,13 @@
         <v>300</v>
       </c>
       <c r="K110" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L110" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M110" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K111" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L111" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M111" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8424,13 +8424,13 @@
         <v>300</v>
       </c>
       <c r="K112" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L112" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M112" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8484,25 +8484,25 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K113" t="n">
         <v>900</v>
       </c>
       <c r="L113" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="M113" t="n">
-        <v>953</v>
+        <v>925</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>953</v>
+        <v>925</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L114" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M114" t="n">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K115" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L115" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M115" t="n">
-        <v>582</v>
+        <v>953</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>582</v>
+        <v>953</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K116" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L116" t="n">
         <v>800</v>
       </c>
       <c r="M116" t="n">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K117" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L117" t="n">
         <v>600</v>
       </c>
       <c r="M117" t="n">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K118" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L118" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M118" t="n">
-        <v>400</v>
+        <v>747</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>400</v>
+        <v>747</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K119" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L119" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M119" t="n">
-        <v>942</v>
+        <v>544</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>942</v>
+        <v>544</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8988,25 +8988,25 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K120" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="L120" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M120" t="n">
-        <v>773</v>
+        <v>400</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>773</v>
+        <v>400</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K121" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L121" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M121" t="n">
-        <v>572</v>
+        <v>942</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>572</v>
+        <v>942</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K122" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L122" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M122" t="n">
-        <v>374</v>
+        <v>773</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>374</v>
+        <v>773</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9204,25 +9204,25 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K123" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L123" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M123" t="n">
-        <v>925</v>
+        <v>572</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>925</v>
+        <v>572</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9276,25 +9276,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K124" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L124" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M124" t="n">
-        <v>825</v>
+        <v>374</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>825</v>
+        <v>374</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K125" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L125" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M125" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K126" t="n">
+        <v>800</v>
+      </c>
+      <c r="L126" t="n">
         <v>850</v>
       </c>
-      <c r="L126" t="n">
-        <v>900</v>
-      </c>
       <c r="M126" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,7 +9501,7 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K127" t="n">
         <v>700</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K128" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L128" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="M128" t="n">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,7 +9645,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K129" t="n">
         <v>700</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K130" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L130" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M130" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9780,43 +9780,187 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K131" t="n">
+        <v>700</v>
+      </c>
+      <c r="L131" t="n">
+        <v>750</v>
+      </c>
+      <c r="M131" t="n">
+        <v>725</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>1</v>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>7</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E132" t="n">
+        <v>16</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K132" t="n">
+        <v>900</v>
+      </c>
+      <c r="L132" t="n">
+        <v>950</v>
+      </c>
+      <c r="M132" t="n">
+        <v>925</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>1</v>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>7</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E133" t="n">
+        <v>16</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J131" t="n">
+      <c r="J133" t="n">
         <v>1400</v>
       </c>
-      <c r="K131" t="n">
+      <c r="K133" t="n">
         <v>800</v>
       </c>
-      <c r="L131" t="n">
+      <c r="L133" t="n">
         <v>850</v>
       </c>
-      <c r="M131" t="n">
+      <c r="M133" t="n">
         <v>825</v>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P131" t="n">
+      <c r="P133" t="n">
         <v>825</v>
       </c>
-      <c r="Q131" t="n">
-        <v>1</v>
-      </c>
-      <c r="R131" t="inlineStr">
+      <c r="Q133" t="n">
+        <v>1</v>
+      </c>
+      <c r="R133" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K103" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L103" t="n">
         <v>1000</v>
       </c>
       <c r="M103" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K104" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L104" t="n">
         <v>800</v>
       </c>
       <c r="M104" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7908,25 +7908,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K105" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L105" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M105" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7980,25 +7980,25 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K106" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L106" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M106" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K107" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L107" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M107" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K108" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L108" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M108" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K109" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L109" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M109" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8268,25 +8268,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J110" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K110" t="n">
         <v>300</v>
       </c>
-      <c r="K110" t="n">
-        <v>600</v>
-      </c>
       <c r="L110" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M110" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K111" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L111" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M111" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K112" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L112" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M112" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8496,13 +8496,13 @@
         <v>300</v>
       </c>
       <c r="K113" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L113" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M113" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8568,13 +8568,13 @@
         <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L114" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M114" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K115" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L115" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M115" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K116" t="n">
+        <v>700</v>
+      </c>
+      <c r="L116" t="n">
         <v>750</v>
       </c>
-      <c r="L116" t="n">
-        <v>800</v>
-      </c>
       <c r="M116" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8772,25 +8772,25 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K117" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L117" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M117" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44224</v>
+        <v>44196</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8844,25 +8844,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K118" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L118" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M118" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K119" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L119" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M119" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K120" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L120" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M120" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K121" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L121" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M121" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K122" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L122" t="n">
         <v>800</v>
       </c>
       <c r="M122" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K123" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L123" t="n">
         <v>600</v>
       </c>
       <c r="M123" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,17 +9285,17 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K124" t="n">
         <v>350</v>
       </c>
       <c r="L124" t="n">
+        <v>450</v>
+      </c>
+      <c r="M124" t="n">
         <v>400</v>
       </c>
-      <c r="M124" t="n">
-        <v>374</v>
-      </c>
       <c r="N124" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -9363,10 +9363,10 @@
         <v>900</v>
       </c>
       <c r="L125" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M125" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K126" t="n">
+        <v>750</v>
+      </c>
+      <c r="L126" t="n">
         <v>800</v>
       </c>
-      <c r="L126" t="n">
-        <v>850</v>
-      </c>
       <c r="M126" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9492,25 +9492,25 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K127" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L127" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M127" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K128" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="L128" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M128" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9636,25 +9636,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K129" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L129" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M129" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K131" t="n">
         <v>700</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K132" t="n">
+        <v>850</v>
+      </c>
+      <c r="L132" t="n">
         <v>900</v>
       </c>
-      <c r="L132" t="n">
-        <v>950</v>
-      </c>
       <c r="M132" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,58 +9909,346 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E133" t="n">
+        <v>16</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>600</v>
+      </c>
+      <c r="K133" t="n">
+        <v>700</v>
+      </c>
+      <c r="L133" t="n">
+        <v>750</v>
+      </c>
+      <c r="M133" t="n">
+        <v>725</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>7</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E133" t="n">
-        <v>16</v>
-      </c>
-      <c r="F133" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="E134" t="n">
+        <v>16</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K134" t="n">
+        <v>800</v>
+      </c>
+      <c r="L134" t="n">
+        <v>850</v>
+      </c>
+      <c r="M134" t="n">
+        <v>825</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>1</v>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>7</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E135" t="n">
+        <v>16</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K135" t="n">
+        <v>700</v>
+      </c>
+      <c r="L135" t="n">
+        <v>750</v>
+      </c>
+      <c r="M135" t="n">
+        <v>725</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>1</v>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E136" t="n">
+        <v>16</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K136" t="n">
+        <v>900</v>
+      </c>
+      <c r="L136" t="n">
+        <v>950</v>
+      </c>
+      <c r="M136" t="n">
+        <v>925</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1</v>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>7</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E137" t="n">
+        <v>16</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J133" t="n">
+      <c r="J137" t="n">
         <v>1400</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K137" t="n">
         <v>800</v>
       </c>
-      <c r="L133" t="n">
+      <c r="L137" t="n">
         <v>850</v>
       </c>
-      <c r="M133" t="n">
+      <c r="M137" t="n">
         <v>825</v>
       </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P133" t="n">
+      <c r="P137" t="n">
         <v>825</v>
       </c>
-      <c r="Q133" t="n">
-        <v>1</v>
-      </c>
-      <c r="R133" t="inlineStr">
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
+      <c r="R137" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R137"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K35" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L35" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M35" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K36" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L36" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M36" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3012,25 +3012,25 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>1500</v>
       </c>
       <c r="K37" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M37" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K38" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L38" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M38" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K39" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L39" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M39" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K40" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L40" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M40" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K41" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L41" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M41" t="n">
-        <v>779</v>
+        <v>353</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>779</v>
+        <v>353</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K42" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L42" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M42" t="n">
-        <v>576</v>
+        <v>977</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>576</v>
+        <v>977</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K43" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L43" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M43" t="n">
-        <v>357</v>
+        <v>225</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>357</v>
+        <v>225</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44215</v>
+        <v>44189</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
         <v>1200</v>
       </c>
       <c r="K44" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L44" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M44" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K45" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L45" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M45" t="n">
-        <v>220</v>
+        <v>779</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>220</v>
+        <v>779</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3660,25 +3660,25 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K46" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L46" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M46" t="n">
-        <v>877</v>
+        <v>576</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>877</v>
+        <v>576</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K47" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L47" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M47" t="n">
-        <v>675</v>
+        <v>357</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>675</v>
+        <v>357</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K48" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L48" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M48" t="n">
-        <v>475</v>
+        <v>975</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>475</v>
+        <v>975</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K49" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="L49" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="M49" t="n">
-        <v>977</v>
+        <v>220</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>977</v>
+        <v>220</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K50" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L50" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M50" t="n">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4020,25 +4020,25 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
         <v>1600</v>
       </c>
       <c r="K51" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L51" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M51" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44557</v>
+        <v>44215</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4092,25 +4092,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K52" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L52" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M52" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44557</v>
+        <v>44201</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K53" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L53" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M53" t="n">
-        <v>725</v>
+        <v>977</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>725</v>
+        <v>977</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="K54" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L54" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M54" t="n">
-        <v>873</v>
+        <v>776</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>873</v>
+        <v>776</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>1600</v>
       </c>
       <c r="K55" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L55" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M55" t="n">
-        <v>672</v>
+        <v>575</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>672</v>
+        <v>575</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44203</v>
+        <v>44557</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K56" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L56" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M56" t="n">
-        <v>477</v>
+        <v>825</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>477</v>
+        <v>825</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44203</v>
+        <v>44557</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K57" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L57" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M57" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44236</v>
+        <v>44203</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K58" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L58" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M58" t="n">
-        <v>625</v>
+        <v>873</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>625</v>
+        <v>873</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44236</v>
+        <v>44203</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K59" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L59" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M59" t="n">
-        <v>525</v>
+        <v>672</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>525</v>
+        <v>672</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44214</v>
+        <v>44203</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K60" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L60" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M60" t="n">
-        <v>825</v>
+        <v>477</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>825</v>
+        <v>477</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44214</v>
+        <v>44203</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K61" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L61" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M61" t="n">
-        <v>660</v>
+        <v>279</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>660</v>
+        <v>279</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K62" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L62" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M62" t="n">
-        <v>482</v>
+        <v>625</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>482</v>
+        <v>625</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K63" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L63" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="M63" t="n">
-        <v>977</v>
+        <v>525</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>977</v>
+        <v>525</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K64" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L64" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M64" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K65" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L65" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M65" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>160</v>
+        <v>1900</v>
       </c>
       <c r="K66" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L66" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M66" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44252</v>
+        <v>44214</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5172,25 +5172,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K67" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L67" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M67" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44252</v>
+        <v>44214</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K68" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L68" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M68" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K69" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L69" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M69" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K70" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L70" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M70" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K71" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L71" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="M71" t="n">
-        <v>347</v>
+        <v>925</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>347</v>
+        <v>925</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5532,25 +5532,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K72" t="n">
+        <v>800</v>
+      </c>
+      <c r="L72" t="n">
         <v>850</v>
       </c>
-      <c r="L72" t="n">
-        <v>900</v>
-      </c>
       <c r="M72" t="n">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K73" t="n">
+        <v>650</v>
+      </c>
+      <c r="L73" t="n">
         <v>700</v>
       </c>
-      <c r="L73" t="n">
-        <v>750</v>
-      </c>
       <c r="M73" t="n">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K74" t="n">
+        <v>450</v>
+      </c>
+      <c r="L74" t="n">
         <v>500</v>
       </c>
-      <c r="K74" t="n">
-        <v>600</v>
-      </c>
-      <c r="L74" t="n">
-        <v>650</v>
-      </c>
       <c r="M74" t="n">
-        <v>625</v>
+        <v>480</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>625</v>
+        <v>480</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44166</v>
+        <v>44222</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K75" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L75" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M75" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44166</v>
+        <v>44222</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K76" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L76" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M76" t="n">
-        <v>1000</v>
+        <v>871</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1000</v>
+        <v>871</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
         <v>600</v>
       </c>
       <c r="K77" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L77" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M77" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44181</v>
+        <v>44243</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K78" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L78" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M78" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K79" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L79" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M79" t="n">
-        <v>975</v>
+        <v>500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>975</v>
+        <v>500</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K80" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="L80" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M80" t="n">
-        <v>779</v>
+        <v>1000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>779</v>
+        <v>1000</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K81" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L81" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M81" t="n">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44210</v>
+        <v>44181</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="K82" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L82" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M82" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K83" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L83" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M83" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="K84" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L84" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M84" t="n">
-        <v>540</v>
+        <v>779</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>540</v>
+        <v>779</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K85" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L85" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M85" t="n">
-        <v>945</v>
+        <v>578</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>945</v>
+        <v>578</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K86" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L86" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M86" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K87" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L87" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M87" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K88" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L88" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M88" t="n">
-        <v>803</v>
+        <v>540</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>803</v>
+        <v>540</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="K89" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L89" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M89" t="n">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K90" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L90" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M90" t="n">
-        <v>459</v>
+        <v>750</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>459</v>
+        <v>750</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
         <v>1400</v>
       </c>
       <c r="K91" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L91" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M91" t="n">
-        <v>979</v>
+        <v>586</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>979</v>
+        <v>586</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K92" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L92" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M92" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K93" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L93" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="M93" t="n">
-        <v>1050</v>
+        <v>607</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1050</v>
+        <v>607</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K94" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L94" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M94" t="n">
-        <v>850</v>
+        <v>459</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>850</v>
+        <v>459</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7188,25 +7188,25 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K95" t="n">
+        <v>950</v>
+      </c>
+      <c r="L95" t="n">
         <v>1000</v>
       </c>
-      <c r="L95" t="n">
-        <v>1100</v>
-      </c>
       <c r="M95" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7260,25 +7260,25 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K96" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L96" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M96" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K97" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L97" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M97" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K98" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L98" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M98" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K99" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L99" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M99" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
         <v>600</v>
       </c>
       <c r="K100" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L100" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M100" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K101" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L101" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M101" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K102" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L102" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M102" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44559</v>
+        <v>44231</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K103" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L103" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M103" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44559</v>
+        <v>44231</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7836,25 +7836,25 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K104" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L104" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M104" t="n">
-        <v>746</v>
+        <v>625</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>746</v>
+        <v>625</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7908,25 +7908,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K105" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L105" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M105" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7980,25 +7980,25 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="K106" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L106" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M106" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K107" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L107" t="n">
         <v>1000</v>
       </c>
       <c r="M107" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K108" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L108" t="n">
         <v>800</v>
       </c>
       <c r="M108" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K109" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L109" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M109" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8268,25 +8268,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K110" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L110" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M110" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K111" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L111" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M111" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K112" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L112" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M112" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8484,25 +8484,25 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K113" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L113" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M113" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J114" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K114" t="n">
         <v>300</v>
       </c>
-      <c r="K114" t="n">
-        <v>600</v>
-      </c>
       <c r="L114" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M114" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K115" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L115" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M115" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K116" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L116" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M116" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8784,13 +8784,13 @@
         <v>300</v>
       </c>
       <c r="K117" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L117" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M117" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8856,13 +8856,13 @@
         <v>300</v>
       </c>
       <c r="K118" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L118" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M118" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K119" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L119" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M119" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K120" t="n">
+        <v>700</v>
+      </c>
+      <c r="L120" t="n">
         <v>750</v>
       </c>
-      <c r="L120" t="n">
-        <v>800</v>
-      </c>
       <c r="M120" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K121" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L121" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M121" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44224</v>
+        <v>44196</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9132,25 +9132,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K122" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L122" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M122" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K123" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L123" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M123" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K124" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L124" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M124" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K125" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L125" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M125" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K126" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L126" t="n">
         <v>800</v>
       </c>
       <c r="M126" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K127" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L127" t="n">
         <v>600</v>
       </c>
       <c r="M127" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,17 +9573,17 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K128" t="n">
         <v>350</v>
       </c>
       <c r="L128" t="n">
+        <v>450</v>
+      </c>
+      <c r="M128" t="n">
         <v>400</v>
       </c>
-      <c r="M128" t="n">
-        <v>374</v>
-      </c>
       <c r="N128" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -9651,10 +9651,10 @@
         <v>900</v>
       </c>
       <c r="L129" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M129" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9708,25 +9708,25 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K130" t="n">
+        <v>750</v>
+      </c>
+      <c r="L130" t="n">
         <v>800</v>
       </c>
-      <c r="L130" t="n">
-        <v>850</v>
-      </c>
       <c r="M130" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9780,25 +9780,25 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K131" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L131" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M131" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K132" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="L132" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M132" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9924,25 +9924,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K133" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L133" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M133" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K135" t="n">
         <v>700</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K136" t="n">
+        <v>850</v>
+      </c>
+      <c r="L136" t="n">
         <v>900</v>
       </c>
-      <c r="L136" t="n">
-        <v>950</v>
-      </c>
       <c r="M136" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,58 +10197,346 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E137" t="n">
+        <v>16</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>600</v>
+      </c>
+      <c r="K137" t="n">
+        <v>700</v>
+      </c>
+      <c r="L137" t="n">
+        <v>750</v>
+      </c>
+      <c r="M137" t="n">
+        <v>725</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>7</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E137" t="n">
-        <v>16</v>
-      </c>
-      <c r="F137" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="E138" t="n">
+        <v>16</v>
+      </c>
+      <c r="F138" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K138" t="n">
+        <v>800</v>
+      </c>
+      <c r="L138" t="n">
+        <v>850</v>
+      </c>
+      <c r="M138" t="n">
+        <v>825</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1</v>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>7</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E139" t="n">
+        <v>16</v>
+      </c>
+      <c r="F139" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K139" t="n">
+        <v>700</v>
+      </c>
+      <c r="L139" t="n">
+        <v>750</v>
+      </c>
+      <c r="M139" t="n">
+        <v>725</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1</v>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>7</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E140" t="n">
+        <v>16</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K140" t="n">
+        <v>900</v>
+      </c>
+      <c r="L140" t="n">
+        <v>950</v>
+      </c>
+      <c r="M140" t="n">
+        <v>925</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1</v>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>7</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E141" t="n">
+        <v>16</v>
+      </c>
+      <c r="F141" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J137" t="n">
+      <c r="J141" t="n">
         <v>1400</v>
       </c>
-      <c r="K137" t="n">
+      <c r="K141" t="n">
         <v>800</v>
       </c>
-      <c r="L137" t="n">
+      <c r="L141" t="n">
         <v>850</v>
       </c>
-      <c r="M137" t="n">
+      <c r="M141" t="n">
         <v>825</v>
       </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P137" t="n">
+      <c r="P141" t="n">
         <v>825</v>
       </c>
-      <c r="Q137" t="n">
-        <v>1</v>
-      </c>
-      <c r="R137" t="inlineStr">
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44223</v>
+        <v>44561</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K26" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L26" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M26" t="n">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44223</v>
+        <v>44561</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K27" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L27" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M27" t="n">
-        <v>556</v>
+        <v>850</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>556</v>
+        <v>850</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44223</v>
+        <v>44561</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2364,25 +2364,25 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K28" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L28" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M28" t="n">
-        <v>347</v>
+        <v>1000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>347</v>
+        <v>1000</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44223</v>
+        <v>44561</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K29" t="n">
+        <v>800</v>
+      </c>
+      <c r="L29" t="n">
         <v>900</v>
       </c>
-      <c r="L29" t="n">
-        <v>1000</v>
-      </c>
       <c r="M29" t="n">
-        <v>955</v>
+        <v>850</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>955</v>
+        <v>850</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>1500</v>
       </c>
       <c r="K30" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L30" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M30" t="n">
-        <v>220</v>
+        <v>753</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>220</v>
+        <v>753</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44202</v>
+        <v>44223</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1550</v>
+        <v>1800</v>
       </c>
       <c r="K31" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L31" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M31" t="n">
-        <v>927</v>
+        <v>556</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>927</v>
+        <v>556</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44202</v>
+        <v>44223</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K32" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L32" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M32" t="n">
-        <v>677</v>
+        <v>347</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>677</v>
+        <v>347</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44202</v>
+        <v>44223</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K33" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L33" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M33" t="n">
-        <v>470</v>
+        <v>955</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>470</v>
+        <v>955</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44202</v>
+        <v>44223</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K34" t="n">
+        <v>200</v>
+      </c>
+      <c r="L34" t="n">
         <v>250</v>
       </c>
-      <c r="L34" t="n">
-        <v>300</v>
-      </c>
       <c r="M34" t="n">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44560</v>
+        <v>44202</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="K35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L35" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="M35" t="n">
-        <v>1000</v>
+        <v>927</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>927</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44560</v>
+        <v>44202</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K36" t="n">
+        <v>650</v>
+      </c>
+      <c r="L36" t="n">
         <v>700</v>
       </c>
-      <c r="L36" t="n">
-        <v>800</v>
-      </c>
       <c r="M36" t="n">
-        <v>750</v>
+        <v>677</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>750</v>
+        <v>677</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44560</v>
+        <v>44202</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3012,25 +3012,25 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L37" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M37" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44560</v>
+        <v>44202</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K38" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L38" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M38" t="n">
-        <v>850</v>
+        <v>271</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>850</v>
+        <v>271</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K39" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L39" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M39" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K40" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L40" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M40" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>1500</v>
       </c>
       <c r="K41" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M41" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3372,25 +3372,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K42" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L42" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M42" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K43" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L43" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M43" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K44" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L44" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M44" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K45" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L45" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M45" t="n">
-        <v>779</v>
+        <v>353</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>779</v>
+        <v>353</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K46" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L46" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M46" t="n">
-        <v>576</v>
+        <v>977</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>576</v>
+        <v>977</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K47" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L47" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M47" t="n">
-        <v>357</v>
+        <v>225</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>357</v>
+        <v>225</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44215</v>
+        <v>44189</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
         <v>1200</v>
       </c>
       <c r="K48" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L48" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M48" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K49" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L49" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M49" t="n">
-        <v>220</v>
+        <v>779</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>220</v>
+        <v>779</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K50" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L50" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M50" t="n">
-        <v>877</v>
+        <v>576</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>877</v>
+        <v>576</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4020,25 +4020,25 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K51" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L51" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M51" t="n">
-        <v>675</v>
+        <v>357</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>675</v>
+        <v>357</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4092,25 +4092,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K52" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L52" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M52" t="n">
-        <v>475</v>
+        <v>975</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>475</v>
+        <v>975</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K53" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="L53" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="M53" t="n">
-        <v>977</v>
+        <v>220</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>977</v>
+        <v>220</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4236,25 +4236,25 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K54" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L54" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M54" t="n">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44201</v>
+        <v>44215</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4308,25 +4308,25 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>1600</v>
       </c>
       <c r="K55" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L55" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M55" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44557</v>
+        <v>44215</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K56" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L56" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M56" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44557</v>
+        <v>44201</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K57" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L57" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M57" t="n">
-        <v>725</v>
+        <v>977</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>725</v>
+        <v>977</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="K58" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L58" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M58" t="n">
-        <v>873</v>
+        <v>776</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>873</v>
+        <v>776</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
         <v>1600</v>
       </c>
       <c r="K59" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L59" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M59" t="n">
-        <v>672</v>
+        <v>575</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>672</v>
+        <v>575</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44203</v>
+        <v>44557</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K60" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L60" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M60" t="n">
-        <v>477</v>
+        <v>825</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>477</v>
+        <v>825</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44203</v>
+        <v>44557</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K61" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L61" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M61" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44236</v>
+        <v>44203</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K62" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L62" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M62" t="n">
-        <v>625</v>
+        <v>873</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>625</v>
+        <v>873</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44236</v>
+        <v>44203</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K63" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L63" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M63" t="n">
-        <v>525</v>
+        <v>672</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>525</v>
+        <v>672</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44214</v>
+        <v>44203</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K64" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L64" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M64" t="n">
-        <v>825</v>
+        <v>477</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>825</v>
+        <v>477</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44214</v>
+        <v>44203</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K65" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L65" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M65" t="n">
-        <v>660</v>
+        <v>279</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>660</v>
+        <v>279</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K66" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L66" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M66" t="n">
-        <v>482</v>
+        <v>625</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>482</v>
+        <v>625</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K67" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L67" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="M67" t="n">
-        <v>977</v>
+        <v>525</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>977</v>
+        <v>525</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K68" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L68" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M68" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K69" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L69" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M69" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>160</v>
+        <v>1900</v>
       </c>
       <c r="K70" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L70" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M70" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44252</v>
+        <v>44214</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K71" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L71" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M71" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44252</v>
+        <v>44214</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5532,25 +5532,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K72" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L72" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M72" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K73" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L73" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M73" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K74" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L74" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M74" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K75" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L75" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="M75" t="n">
-        <v>347</v>
+        <v>925</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>347</v>
+        <v>925</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5820,25 +5820,25 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K76" t="n">
+        <v>800</v>
+      </c>
+      <c r="L76" t="n">
         <v>850</v>
       </c>
-      <c r="L76" t="n">
-        <v>900</v>
-      </c>
       <c r="M76" t="n">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K77" t="n">
+        <v>650</v>
+      </c>
+      <c r="L77" t="n">
         <v>700</v>
       </c>
-      <c r="L77" t="n">
-        <v>750</v>
-      </c>
       <c r="M77" t="n">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K78" t="n">
+        <v>450</v>
+      </c>
+      <c r="L78" t="n">
         <v>500</v>
       </c>
-      <c r="K78" t="n">
-        <v>600</v>
-      </c>
-      <c r="L78" t="n">
-        <v>650</v>
-      </c>
       <c r="M78" t="n">
-        <v>625</v>
+        <v>480</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>625</v>
+        <v>480</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44166</v>
+        <v>44222</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K79" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L79" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M79" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44166</v>
+        <v>44222</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K80" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L80" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M80" t="n">
-        <v>1000</v>
+        <v>871</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1000</v>
+        <v>871</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
         <v>600</v>
       </c>
       <c r="K81" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L81" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M81" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44181</v>
+        <v>44243</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K82" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L82" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M82" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K83" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L83" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M83" t="n">
-        <v>975</v>
+        <v>500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>975</v>
+        <v>500</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K84" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="L84" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M84" t="n">
-        <v>779</v>
+        <v>1000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>779</v>
+        <v>1000</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L85" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M85" t="n">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44210</v>
+        <v>44181</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="K86" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L86" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M86" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K87" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L87" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M87" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="K88" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L88" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M88" t="n">
-        <v>540</v>
+        <v>779</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>540</v>
+        <v>779</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K89" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L89" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M89" t="n">
-        <v>945</v>
+        <v>578</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>945</v>
+        <v>578</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K90" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L90" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M90" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K91" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L91" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M91" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K92" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L92" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M92" t="n">
-        <v>803</v>
+        <v>540</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>803</v>
+        <v>540</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="K93" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L93" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M93" t="n">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K94" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L94" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M94" t="n">
-        <v>459</v>
+        <v>750</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>459</v>
+        <v>750</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7188,25 +7188,25 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
         <v>1400</v>
       </c>
       <c r="K95" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L95" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M95" t="n">
-        <v>979</v>
+        <v>586</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>979</v>
+        <v>586</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K96" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L96" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M96" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K97" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L97" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="M97" t="n">
-        <v>1050</v>
+        <v>607</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1050</v>
+        <v>607</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K98" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L98" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M98" t="n">
-        <v>850</v>
+        <v>459</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>850</v>
+        <v>459</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7476,25 +7476,25 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K99" t="n">
+        <v>950</v>
+      </c>
+      <c r="L99" t="n">
         <v>1000</v>
       </c>
-      <c r="L99" t="n">
-        <v>1100</v>
-      </c>
       <c r="M99" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7548,25 +7548,25 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K100" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L100" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M100" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L101" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M101" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K102" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L102" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M102" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K103" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L103" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M103" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
         <v>600</v>
       </c>
       <c r="K104" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L104" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M104" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L105" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M105" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K106" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L106" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M106" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44559</v>
+        <v>44231</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8052,25 +8052,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K107" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L107" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M107" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44559</v>
+        <v>44231</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K108" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L108" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M108" t="n">
-        <v>746</v>
+        <v>625</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>746</v>
+        <v>625</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K109" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L109" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M109" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8268,25 +8268,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="K110" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L110" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M110" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K111" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L111" t="n">
         <v>1000</v>
       </c>
       <c r="M111" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K112" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L112" t="n">
         <v>800</v>
       </c>
       <c r="M112" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8484,25 +8484,25 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K113" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L113" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M113" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K114" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L114" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M114" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K115" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L115" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M115" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K116" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L116" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M116" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8772,25 +8772,25 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K117" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L117" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M117" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8844,25 +8844,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J118" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K118" t="n">
         <v>300</v>
       </c>
-      <c r="K118" t="n">
-        <v>600</v>
-      </c>
       <c r="L118" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M118" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K119" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L119" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M119" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K120" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L120" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M120" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9072,13 +9072,13 @@
         <v>300</v>
       </c>
       <c r="K121" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L121" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M121" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9144,13 +9144,13 @@
         <v>300</v>
       </c>
       <c r="K122" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L122" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M122" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K123" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L123" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M123" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K124" t="n">
+        <v>700</v>
+      </c>
+      <c r="L124" t="n">
         <v>750</v>
       </c>
-      <c r="L124" t="n">
-        <v>800</v>
-      </c>
       <c r="M124" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K125" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L125" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M125" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44224</v>
+        <v>44196</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K126" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L126" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M126" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K127" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L127" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M127" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K128" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L128" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M128" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K129" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L129" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M129" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K130" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L130" t="n">
         <v>800</v>
       </c>
       <c r="M130" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K131" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L131" t="n">
         <v>600</v>
       </c>
       <c r="M131" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,17 +9861,17 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K132" t="n">
         <v>350</v>
       </c>
       <c r="L132" t="n">
+        <v>450</v>
+      </c>
+      <c r="M132" t="n">
         <v>400</v>
       </c>
-      <c r="M132" t="n">
-        <v>374</v>
-      </c>
       <c r="N132" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J133" t="n">
@@ -9939,10 +9939,10 @@
         <v>900</v>
       </c>
       <c r="L133" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M133" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -9996,25 +9996,25 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K134" t="n">
+        <v>750</v>
+      </c>
+      <c r="L134" t="n">
         <v>800</v>
       </c>
-      <c r="L134" t="n">
-        <v>850</v>
-      </c>
       <c r="M134" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10068,25 +10068,25 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K135" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L135" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M135" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K136" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="L136" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M136" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K137" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L137" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M137" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K139" t="n">
         <v>700</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K140" t="n">
+        <v>850</v>
+      </c>
+      <c r="L140" t="n">
         <v>900</v>
       </c>
-      <c r="L140" t="n">
-        <v>950</v>
-      </c>
       <c r="M140" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,58 +10485,346 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E141" t="n">
+        <v>16</v>
+      </c>
+      <c r="F141" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>600</v>
+      </c>
+      <c r="K141" t="n">
+        <v>700</v>
+      </c>
+      <c r="L141" t="n">
+        <v>750</v>
+      </c>
+      <c r="M141" t="n">
+        <v>725</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>7</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E141" t="n">
-        <v>16</v>
-      </c>
-      <c r="F141" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="E142" t="n">
+        <v>16</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K142" t="n">
+        <v>800</v>
+      </c>
+      <c r="L142" t="n">
+        <v>850</v>
+      </c>
+      <c r="M142" t="n">
+        <v>825</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>1</v>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>7</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E143" t="n">
+        <v>16</v>
+      </c>
+      <c r="F143" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K143" t="n">
+        <v>700</v>
+      </c>
+      <c r="L143" t="n">
+        <v>750</v>
+      </c>
+      <c r="M143" t="n">
+        <v>725</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>1</v>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>7</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E144" t="n">
+        <v>16</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K144" t="n">
+        <v>900</v>
+      </c>
+      <c r="L144" t="n">
+        <v>950</v>
+      </c>
+      <c r="M144" t="n">
+        <v>925</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1</v>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>7</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J141" t="n">
+      <c r="J145" t="n">
         <v>1400</v>
       </c>
-      <c r="K141" t="n">
+      <c r="K145" t="n">
         <v>800</v>
       </c>
-      <c r="L141" t="n">
+      <c r="L145" t="n">
         <v>850</v>
       </c>
-      <c r="M141" t="n">
+      <c r="M145" t="n">
         <v>825</v>
       </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P141" t="n">
+      <c r="P145" t="n">
         <v>825</v>
       </c>
-      <c r="Q141" t="n">
-        <v>1</v>
-      </c>
-      <c r="R141" t="inlineStr">
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44181</v>
+        <v>44566</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="K86" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="L86" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M86" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44209</v>
+        <v>44566</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K87" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L87" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M87" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44209</v>
+        <v>44566</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K88" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L88" t="n">
         <v>800</v>
       </c>
       <c r="M88" t="n">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44209</v>
+        <v>44566</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K89" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L89" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M89" t="n">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44210</v>
+        <v>44181</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="K90" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L90" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M90" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K91" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L91" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M91" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="K92" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L92" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M92" t="n">
-        <v>540</v>
+        <v>779</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>540</v>
+        <v>779</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K93" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L93" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M93" t="n">
-        <v>945</v>
+        <v>578</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>945</v>
+        <v>578</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K94" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L94" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M94" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7188,25 +7188,25 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K95" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L95" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M95" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K96" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L96" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M96" t="n">
-        <v>803</v>
+        <v>540</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>803</v>
+        <v>540</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7332,25 +7332,25 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="K97" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L97" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M97" t="n">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7404,25 +7404,25 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K98" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L98" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M98" t="n">
-        <v>459</v>
+        <v>750</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>459</v>
+        <v>750</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7476,25 +7476,25 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
         <v>1400</v>
       </c>
       <c r="K99" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L99" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M99" t="n">
-        <v>979</v>
+        <v>586</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>979</v>
+        <v>586</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K100" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L100" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M100" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K101" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L101" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="M101" t="n">
-        <v>1050</v>
+        <v>607</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1050</v>
+        <v>607</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K102" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L102" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M102" t="n">
-        <v>850</v>
+        <v>459</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>850</v>
+        <v>459</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K103" t="n">
+        <v>950</v>
+      </c>
+      <c r="L103" t="n">
         <v>1000</v>
       </c>
-      <c r="L103" t="n">
-        <v>1100</v>
-      </c>
       <c r="M103" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7836,25 +7836,25 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K104" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L104" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M104" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L105" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M105" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K106" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L106" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M106" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K107" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L107" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M107" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>600</v>
       </c>
       <c r="K108" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L108" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M108" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K109" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L109" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M109" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K110" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L110" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M110" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44559</v>
+        <v>44231</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8340,25 +8340,25 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K111" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L111" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M111" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44559</v>
+        <v>44231</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8412,25 +8412,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K112" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L112" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M112" t="n">
-        <v>746</v>
+        <v>625</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>746</v>
+        <v>625</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8484,25 +8484,25 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K113" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L113" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M113" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="K114" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L114" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M114" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K115" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L115" t="n">
         <v>1000</v>
       </c>
       <c r="M115" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K116" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L116" t="n">
         <v>800</v>
       </c>
       <c r="M116" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8772,25 +8772,25 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K117" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L117" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M117" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8844,25 +8844,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K118" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L118" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M118" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K119" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L119" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M119" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K120" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L120" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M120" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K121" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L121" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M121" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9132,25 +9132,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J122" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K122" t="n">
         <v>300</v>
       </c>
-      <c r="K122" t="n">
-        <v>600</v>
-      </c>
       <c r="L122" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M122" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K123" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L123" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M123" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K124" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L124" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M124" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9360,13 +9360,13 @@
         <v>300</v>
       </c>
       <c r="K125" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L125" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M125" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9432,13 +9432,13 @@
         <v>300</v>
       </c>
       <c r="K126" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L126" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M126" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K127" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L127" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M127" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K128" t="n">
+        <v>700</v>
+      </c>
+      <c r="L128" t="n">
         <v>750</v>
       </c>
-      <c r="L128" t="n">
-        <v>800</v>
-      </c>
       <c r="M128" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9636,25 +9636,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K129" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L129" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M129" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44224</v>
+        <v>44196</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9708,25 +9708,25 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K130" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L130" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M130" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K131" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L131" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M131" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K132" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L132" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M132" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K133" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L133" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M133" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K134" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L134" t="n">
         <v>800</v>
       </c>
       <c r="M134" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K135" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L135" t="n">
         <v>600</v>
       </c>
       <c r="M135" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,17 +10149,17 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K136" t="n">
         <v>350</v>
       </c>
       <c r="L136" t="n">
+        <v>450</v>
+      </c>
+      <c r="M136" t="n">
         <v>400</v>
       </c>
-      <c r="M136" t="n">
-        <v>374</v>
-      </c>
       <c r="N136" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J137" t="n">
@@ -10227,10 +10227,10 @@
         <v>900</v>
       </c>
       <c r="L137" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M137" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -10284,25 +10284,25 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K138" t="n">
+        <v>750</v>
+      </c>
+      <c r="L138" t="n">
         <v>800</v>
       </c>
-      <c r="L138" t="n">
-        <v>850</v>
-      </c>
       <c r="M138" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -10356,25 +10356,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K139" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L139" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M139" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K140" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="L140" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M140" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10500,25 +10500,25 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K141" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L141" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M141" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K143" t="n">
         <v>700</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K144" t="n">
+        <v>850</v>
+      </c>
+      <c r="L144" t="n">
         <v>900</v>
       </c>
-      <c r="L144" t="n">
-        <v>950</v>
-      </c>
       <c r="M144" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,58 +10773,346 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>600</v>
+      </c>
+      <c r="K145" t="n">
+        <v>700</v>
+      </c>
+      <c r="L145" t="n">
+        <v>750</v>
+      </c>
+      <c r="M145" t="n">
+        <v>725</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>7</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E145" t="n">
-        <v>16</v>
-      </c>
-      <c r="F145" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="E146" t="n">
+        <v>16</v>
+      </c>
+      <c r="F146" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K146" t="n">
+        <v>800</v>
+      </c>
+      <c r="L146" t="n">
+        <v>850</v>
+      </c>
+      <c r="M146" t="n">
+        <v>825</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>7</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E147" t="n">
+        <v>16</v>
+      </c>
+      <c r="F147" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K147" t="n">
+        <v>700</v>
+      </c>
+      <c r="L147" t="n">
+        <v>750</v>
+      </c>
+      <c r="M147" t="n">
+        <v>725</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>7</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E148" t="n">
+        <v>16</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K148" t="n">
+        <v>900</v>
+      </c>
+      <c r="L148" t="n">
+        <v>950</v>
+      </c>
+      <c r="M148" t="n">
+        <v>925</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>1</v>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>7</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E149" t="n">
+        <v>16</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J145" t="n">
+      <c r="J149" t="n">
         <v>1400</v>
       </c>
-      <c r="K145" t="n">
+      <c r="K149" t="n">
         <v>800</v>
       </c>
-      <c r="L145" t="n">
+      <c r="L149" t="n">
         <v>850</v>
       </c>
-      <c r="M145" t="n">
+      <c r="M149" t="n">
         <v>825</v>
       </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P145" t="n">
+      <c r="P149" t="n">
         <v>825</v>
       </c>
-      <c r="Q145" t="n">
-        <v>1</v>
-      </c>
-      <c r="R145" t="inlineStr">
+      <c r="Q149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R149" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R149"/>
+  <dimension ref="A1:R153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -10865,21 +10865,21 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K146" t="n">
         <v>800</v>
       </c>
       <c r="L146" t="n">
+        <v>900</v>
+      </c>
+      <c r="M146" t="n">
         <v>850</v>
       </c>
-      <c r="M146" t="n">
-        <v>825</v>
-      </c>
       <c r="N146" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="K147" t="n">
+        <v>600</v>
+      </c>
+      <c r="L147" t="n">
         <v>700</v>
       </c>
-      <c r="L147" t="n">
-        <v>750</v>
-      </c>
       <c r="M147" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K148" t="n">
+        <v>800</v>
+      </c>
+      <c r="L148" t="n">
         <v>900</v>
       </c>
-      <c r="L148" t="n">
-        <v>950</v>
-      </c>
       <c r="M148" t="n">
-        <v>925</v>
+        <v>850</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>925</v>
+        <v>850</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,58 +11061,346 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="E149" t="n">
+        <v>16</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K149" t="n">
+        <v>600</v>
+      </c>
+      <c r="L149" t="n">
+        <v>700</v>
+      </c>
+      <c r="M149" t="n">
+        <v>650</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>7</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E149" t="n">
-        <v>16</v>
-      </c>
-      <c r="F149" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="E150" t="n">
+        <v>16</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K150" t="n">
+        <v>800</v>
+      </c>
+      <c r="L150" t="n">
+        <v>850</v>
+      </c>
+      <c r="M150" t="n">
+        <v>825</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>1</v>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>7</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E151" t="n">
+        <v>16</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K151" t="n">
+        <v>700</v>
+      </c>
+      <c r="L151" t="n">
+        <v>750</v>
+      </c>
+      <c r="M151" t="n">
+        <v>725</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>1</v>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>7</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E152" t="n">
+        <v>16</v>
+      </c>
+      <c r="F152" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K152" t="n">
+        <v>900</v>
+      </c>
+      <c r="L152" t="n">
+        <v>950</v>
+      </c>
+      <c r="M152" t="n">
+        <v>925</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>7</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E153" t="n">
+        <v>16</v>
+      </c>
+      <c r="F153" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J149" t="n">
+      <c r="J153" t="n">
         <v>1400</v>
       </c>
-      <c r="K149" t="n">
+      <c r="K153" t="n">
         <v>800</v>
       </c>
-      <c r="L149" t="n">
+      <c r="L153" t="n">
         <v>850</v>
       </c>
-      <c r="M149" t="n">
+      <c r="M153" t="n">
         <v>825</v>
       </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P149" t="n">
+      <c r="P153" t="n">
         <v>825</v>
       </c>
-      <c r="Q149" t="n">
-        <v>1</v>
-      </c>
-      <c r="R149" t="inlineStr">
+      <c r="Q153" t="n">
+        <v>1</v>
+      </c>
+      <c r="R153" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R153"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44214</v>
+        <v>44571</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K68" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L68" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="M68" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44214</v>
+        <v>44571</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K69" t="n">
+        <v>500</v>
+      </c>
+      <c r="L69" t="n">
         <v>600</v>
       </c>
-      <c r="L69" t="n">
-        <v>700</v>
-      </c>
       <c r="M69" t="n">
-        <v>660</v>
+        <v>550</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>660</v>
+        <v>550</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44214</v>
+        <v>44571</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5388,25 +5388,25 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K70" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L70" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M70" t="n">
-        <v>482</v>
+        <v>700</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>482</v>
+        <v>700</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44214</v>
+        <v>44571</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="K71" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L71" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M71" t="n">
-        <v>977</v>
+        <v>550</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>977</v>
+        <v>550</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K72" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L72" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M72" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K73" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L73" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M73" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>160</v>
+        <v>1900</v>
       </c>
       <c r="K74" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L74" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M74" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44252</v>
+        <v>44214</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K75" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L75" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M75" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44252</v>
+        <v>44214</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5820,25 +5820,25 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K76" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L76" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M76" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K77" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L77" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M77" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K78" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L78" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M78" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K79" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L79" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="M79" t="n">
-        <v>347</v>
+        <v>925</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>347</v>
+        <v>925</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K80" t="n">
+        <v>800</v>
+      </c>
+      <c r="L80" t="n">
         <v>850</v>
       </c>
-      <c r="L80" t="n">
-        <v>900</v>
-      </c>
       <c r="M80" t="n">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K81" t="n">
+        <v>650</v>
+      </c>
+      <c r="L81" t="n">
         <v>700</v>
       </c>
-      <c r="L81" t="n">
-        <v>750</v>
-      </c>
       <c r="M81" t="n">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K82" t="n">
+        <v>450</v>
+      </c>
+      <c r="L82" t="n">
         <v>500</v>
       </c>
-      <c r="K82" t="n">
-        <v>600</v>
-      </c>
-      <c r="L82" t="n">
-        <v>650</v>
-      </c>
       <c r="M82" t="n">
-        <v>625</v>
+        <v>480</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>625</v>
+        <v>480</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44166</v>
+        <v>44222</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K83" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L83" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M83" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44166</v>
+        <v>44222</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K84" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L84" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M84" t="n">
-        <v>1000</v>
+        <v>871</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1000</v>
+        <v>871</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
         <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L85" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M85" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44566</v>
+        <v>44243</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K86" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L86" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M86" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44566</v>
+        <v>44166</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="K87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L87" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M87" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44566</v>
+        <v>44166</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K88" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L88" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M88" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44566</v>
+        <v>44166</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K89" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L89" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M89" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44181</v>
+        <v>44566</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="K90" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="L90" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M90" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44209</v>
+        <v>44566</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K91" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L91" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M91" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44209</v>
+        <v>44566</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K92" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L92" t="n">
         <v>800</v>
       </c>
       <c r="M92" t="n">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44209</v>
+        <v>44566</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K93" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L93" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M93" t="n">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44210</v>
+        <v>44181</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="K94" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L94" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M94" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K95" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L95" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M95" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>773</v>
+        <v>975</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="K96" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L96" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M96" t="n">
-        <v>540</v>
+        <v>779</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>540</v>
+        <v>779</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7332,25 +7332,25 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K97" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L97" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M97" t="n">
-        <v>945</v>
+        <v>578</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>945</v>
+        <v>578</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7404,25 +7404,25 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K98" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L98" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M98" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7476,25 +7476,25 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K99" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L99" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M99" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K100" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L100" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M100" t="n">
-        <v>803</v>
+        <v>540</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>803</v>
+        <v>540</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7620,25 +7620,25 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="K101" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L101" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M101" t="n">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7692,25 +7692,25 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K102" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L102" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M102" t="n">
-        <v>459</v>
+        <v>750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>459</v>
+        <v>750</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
         <v>1400</v>
       </c>
       <c r="K103" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L103" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M103" t="n">
-        <v>979</v>
+        <v>586</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>979</v>
+        <v>586</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K104" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L104" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M104" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K105" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L105" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="M105" t="n">
-        <v>1050</v>
+        <v>607</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1050</v>
+        <v>607</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K106" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L106" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M106" t="n">
-        <v>850</v>
+        <v>459</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>850</v>
+        <v>459</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8052,25 +8052,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K107" t="n">
+        <v>950</v>
+      </c>
+      <c r="L107" t="n">
         <v>1000</v>
       </c>
-      <c r="L107" t="n">
-        <v>1100</v>
-      </c>
       <c r="M107" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K108" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L108" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M108" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K109" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L109" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M109" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K110" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L110" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M110" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K111" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L111" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M111" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
         <v>600</v>
       </c>
       <c r="K112" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L112" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M112" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K113" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L113" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M113" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K114" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L114" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M114" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44559</v>
+        <v>44231</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8628,25 +8628,25 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K115" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L115" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M115" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44559</v>
+        <v>44231</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8700,25 +8700,25 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K116" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L116" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M116" t="n">
-        <v>746</v>
+        <v>625</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>746</v>
+        <v>625</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8772,25 +8772,25 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K117" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L117" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M117" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8844,25 +8844,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="K118" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L118" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M118" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K119" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L119" t="n">
         <v>1000</v>
       </c>
       <c r="M119" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K120" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L120" t="n">
         <v>800</v>
       </c>
       <c r="M120" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K121" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L121" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M121" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9132,25 +9132,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K122" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L122" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M122" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>347</v>
+        <v>850</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K123" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L123" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M123" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K124" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L124" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M124" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K125" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L125" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M125" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J126" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K126" t="n">
         <v>300</v>
       </c>
-      <c r="K126" t="n">
-        <v>600</v>
-      </c>
       <c r="L126" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M126" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K127" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L127" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M127" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K128" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L128" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M128" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9648,13 +9648,13 @@
         <v>300</v>
       </c>
       <c r="K129" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L129" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M129" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44196</v>
+        <v>44232</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9720,13 +9720,13 @@
         <v>300</v>
       </c>
       <c r="K130" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L130" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M130" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K131" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L131" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M131" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K132" t="n">
+        <v>700</v>
+      </c>
+      <c r="L132" t="n">
         <v>750</v>
       </c>
-      <c r="L132" t="n">
-        <v>800</v>
-      </c>
       <c r="M132" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -9924,25 +9924,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K133" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L133" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M133" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44224</v>
+        <v>44196</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -9996,25 +9996,25 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K134" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L134" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M134" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K135" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L135" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M135" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>544</v>
+        <v>953</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K136" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L136" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M136" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K137" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L137" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M137" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>942</v>
+        <v>582</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K138" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L138" t="n">
         <v>800</v>
       </c>
       <c r="M138" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K139" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L139" t="n">
         <v>600</v>
       </c>
       <c r="M139" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,17 +10437,17 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K140" t="n">
         <v>350</v>
       </c>
       <c r="L140" t="n">
+        <v>450</v>
+      </c>
+      <c r="M140" t="n">
         <v>400</v>
       </c>
-      <c r="M140" t="n">
-        <v>374</v>
-      </c>
       <c r="N140" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J141" t="n">
@@ -10515,10 +10515,10 @@
         <v>900</v>
       </c>
       <c r="L141" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M141" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -10572,25 +10572,25 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K142" t="n">
+        <v>750</v>
+      </c>
+      <c r="L142" t="n">
         <v>800</v>
       </c>
-      <c r="L142" t="n">
-        <v>850</v>
-      </c>
       <c r="M142" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -10644,25 +10644,25 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K143" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L143" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K144" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="L144" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M144" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>875</v>
+        <v>374</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10788,25 +10788,25 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K145" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L145" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M145" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44568</v>
+        <v>44195</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K146" t="n">
         <v>800</v>
       </c>
       <c r="L146" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="M146" t="n">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44568</v>
+        <v>44195</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="K147" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L147" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M147" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44568</v>
+        <v>44195</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K148" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L148" t="n">
         <v>900</v>
       </c>
       <c r="M148" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44568</v>
+        <v>44195</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="K149" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L149" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M149" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -11153,21 +11153,21 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K150" t="n">
         <v>800</v>
       </c>
       <c r="L150" t="n">
+        <v>900</v>
+      </c>
+      <c r="M150" t="n">
         <v>850</v>
       </c>
-      <c r="M150" t="n">
-        <v>825</v>
-      </c>
       <c r="N150" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="K151" t="n">
+        <v>600</v>
+      </c>
+      <c r="L151" t="n">
         <v>700</v>
       </c>
-      <c r="L151" t="n">
-        <v>750</v>
-      </c>
       <c r="M151" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K152" t="n">
+        <v>800</v>
+      </c>
+      <c r="L152" t="n">
         <v>900</v>
       </c>
-      <c r="L152" t="n">
-        <v>950</v>
-      </c>
       <c r="M152" t="n">
-        <v>925</v>
+        <v>850</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>925</v>
+        <v>850</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,58 +11349,346 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="E153" t="n">
+        <v>16</v>
+      </c>
+      <c r="F153" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K153" t="n">
+        <v>600</v>
+      </c>
+      <c r="L153" t="n">
+        <v>700</v>
+      </c>
+      <c r="M153" t="n">
+        <v>650</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>1</v>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>7</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E153" t="n">
-        <v>16</v>
-      </c>
-      <c r="F153" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="E154" t="n">
+        <v>16</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K154" t="n">
+        <v>800</v>
+      </c>
+      <c r="L154" t="n">
+        <v>850</v>
+      </c>
+      <c r="M154" t="n">
+        <v>825</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>7</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E155" t="n">
+        <v>16</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K155" t="n">
+        <v>700</v>
+      </c>
+      <c r="L155" t="n">
+        <v>750</v>
+      </c>
+      <c r="M155" t="n">
+        <v>725</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>7</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E156" t="n">
+        <v>16</v>
+      </c>
+      <c r="F156" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K156" t="n">
+        <v>900</v>
+      </c>
+      <c r="L156" t="n">
+        <v>950</v>
+      </c>
+      <c r="M156" t="n">
+        <v>925</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>1</v>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>7</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E157" t="n">
+        <v>16</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J153" t="n">
+      <c r="J157" t="n">
         <v>1400</v>
       </c>
-      <c r="K153" t="n">
+      <c r="K157" t="n">
         <v>800</v>
       </c>
-      <c r="L153" t="n">
+      <c r="L157" t="n">
         <v>850</v>
       </c>
-      <c r="M153" t="n">
+      <c r="M157" t="n">
         <v>825</v>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P153" t="n">
+      <c r="P157" t="n">
         <v>825</v>
       </c>
-      <c r="Q153" t="n">
-        <v>1</v>
-      </c>
-      <c r="R153" t="inlineStr">
+      <c r="Q157" t="n">
+        <v>1</v>
+      </c>
+      <c r="R157" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K2" t="n">
+        <v>700</v>
+      </c>
+      <c r="L2" t="n">
         <v>800</v>
       </c>
-      <c r="L2" t="n">
-        <v>850</v>
-      </c>
       <c r="M2" t="n">
-        <v>825</v>
+        <v>747</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>825</v>
+        <v>747</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K3" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M3" t="n">
-        <v>725</v>
+        <v>544</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>725</v>
+        <v>544</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L4" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="M4" t="n">
-        <v>825</v>
+        <v>400</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>825</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K5" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L5" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>725</v>
+        <v>942</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>725</v>
+        <v>942</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K6" t="n">
+        <v>750</v>
+      </c>
+      <c r="L6" t="n">
         <v>800</v>
       </c>
-      <c r="L6" t="n">
-        <v>850</v>
-      </c>
       <c r="M6" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K7" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L7" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M7" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K8" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M8" t="n">
-        <v>750</v>
+        <v>374</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>750</v>
+        <v>374</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44225</v>
+        <v>44181</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1500</v>
+        <v>260</v>
       </c>
       <c r="K9" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L9" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M9" t="n">
-        <v>553</v>
+        <v>875</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>553</v>
+        <v>875</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K10" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L10" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L11" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M11" t="n">
-        <v>850</v>
+        <v>553</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>850</v>
+        <v>553</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K12" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L12" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M12" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44221</v>
+        <v>44243</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L13" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M13" t="n">
-        <v>460</v>
+        <v>725</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>725</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44221</v>
+        <v>44243</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L14" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>625</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>300</v>
+        <v>625</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K15" t="n">
-        <v>150</v>
+        <v>850</v>
       </c>
       <c r="L15" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="M15" t="n">
-        <v>175</v>
+        <v>873</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>175</v>
+        <v>873</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K16" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L16" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M16" t="n">
-        <v>875</v>
+        <v>672</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>875</v>
+        <v>672</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K17" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L17" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M17" t="n">
-        <v>678</v>
+        <v>477</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>678</v>
+        <v>477</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K18" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L18" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M18" t="n">
-        <v>480</v>
+        <v>279</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>480</v>
+        <v>279</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44204</v>
+        <v>44568</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>800</v>
+      </c>
+      <c r="L19" t="n">
         <v>900</v>
       </c>
-      <c r="K19" t="n">
-        <v>1100</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1200</v>
-      </c>
       <c r="M19" t="n">
-        <v>1156</v>
+        <v>850</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1156</v>
+        <v>850</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44204</v>
+        <v>44568</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="K20" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L20" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M20" t="n">
-        <v>281</v>
+        <v>650</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>281</v>
+        <v>650</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44211</v>
+        <v>44568</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
         <v>900</v>
       </c>
       <c r="M21" t="n">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44211</v>
+        <v>44568</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="K22" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L22" t="n">
         <v>700</v>
       </c>
       <c r="M22" t="n">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44211</v>
+        <v>44553</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="M23" t="n">
-        <v>476</v>
+        <v>1050</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>476</v>
+        <v>1050</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44229</v>
+        <v>44553</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,17 +2085,17 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K24" t="n">
         <v>800</v>
       </c>
       <c r="L24" t="n">
+        <v>900</v>
+      </c>
+      <c r="M24" t="n">
         <v>850</v>
       </c>
-      <c r="M24" t="n">
-        <v>825</v>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44229</v>
+        <v>44553</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="M25" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M26" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44561</v>
+        <v>44252</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L27" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="M27" t="n">
-        <v>850</v>
+        <v>925</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>850</v>
+        <v>925</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44561</v>
+        <v>44252</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L28" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M28" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44561</v>
+        <v>44566</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K29" t="n">
         <v>800</v>
       </c>
       <c r="L29" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M29" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44223</v>
+        <v>44566</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K30" t="n">
+        <v>600</v>
+      </c>
+      <c r="L30" t="n">
         <v>700</v>
       </c>
-      <c r="L30" t="n">
-        <v>800</v>
-      </c>
       <c r="M30" t="n">
-        <v>753</v>
+        <v>650</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>753</v>
+        <v>650</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44223</v>
+        <v>44566</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2580,25 +2580,25 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K31" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L31" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M31" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44223</v>
+        <v>44566</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K32" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L32" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M32" t="n">
-        <v>347</v>
+        <v>650</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>347</v>
+        <v>650</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K33" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L33" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M33" t="n">
-        <v>955</v>
+        <v>674</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>955</v>
+        <v>674</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>1500</v>
       </c>
       <c r="K34" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L34" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M34" t="n">
-        <v>220</v>
+        <v>480</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>220</v>
+        <v>480</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44202</v>
+        <v>44222</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1550</v>
+        <v>1700</v>
       </c>
       <c r="K35" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L35" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="M35" t="n">
-        <v>927</v>
+        <v>347</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>927</v>
+        <v>347</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44202</v>
+        <v>44222</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="K36" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L36" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M36" t="n">
-        <v>677</v>
+        <v>871</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>677</v>
+        <v>871</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44202</v>
+        <v>44559</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K37" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M37" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44202</v>
+        <v>44559</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K38" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L38" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M38" t="n">
-        <v>271</v>
+        <v>746</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>271</v>
+        <v>746</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K39" t="n">
         <v>1000</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K40" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L40" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M40" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44560</v>
+        <v>44195</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L41" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="M41" t="n">
-        <v>1000</v>
+        <v>925</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1000</v>
+        <v>925</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44560</v>
+        <v>44195</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3387,10 +3387,10 @@
         <v>800</v>
       </c>
       <c r="L42" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="M42" t="n">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
         <v>700</v>
       </c>
       <c r="L43" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M43" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="K44" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L44" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M44" t="n">
-        <v>547</v>
+        <v>875</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>547</v>
+        <v>875</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K45" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L45" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M45" t="n">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44216</v>
+        <v>44561</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="K46" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L46" t="n">
         <v>1000</v>
       </c>
       <c r="M46" t="n">
-        <v>977</v>
+        <v>1000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>977</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44216</v>
+        <v>44561</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K47" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L47" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M47" t="n">
-        <v>225</v>
+        <v>850</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>225</v>
+        <v>850</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44189</v>
+        <v>44561</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K48" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L48" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M48" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44215</v>
+        <v>44561</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K49" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L49" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M49" t="n">
-        <v>779</v>
+        <v>850</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>779</v>
+        <v>850</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44215</v>
+        <v>44557</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K50" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L50" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M50" t="n">
-        <v>576</v>
+        <v>825</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>576</v>
+        <v>825</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44215</v>
+        <v>44557</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K51" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L51" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M51" t="n">
-        <v>357</v>
+        <v>725</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>357</v>
+        <v>725</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44215</v>
+        <v>44232</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K52" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L52" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M52" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44215</v>
+        <v>44232</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K53" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L53" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="M53" t="n">
-        <v>220</v>
+        <v>625</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>220</v>
+        <v>625</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44215</v>
+        <v>44232</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K54" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L54" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M54" t="n">
-        <v>877</v>
+        <v>725</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>877</v>
+        <v>725</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44215</v>
+        <v>44232</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K55" t="n">
+        <v>600</v>
+      </c>
+      <c r="L55" t="n">
         <v>650</v>
       </c>
-      <c r="L55" t="n">
-        <v>700</v>
-      </c>
       <c r="M55" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44215</v>
+        <v>44223</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K56" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L56" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M56" t="n">
-        <v>475</v>
+        <v>753</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>475</v>
+        <v>753</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44201</v>
+        <v>44223</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K57" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L57" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M57" t="n">
-        <v>977</v>
+        <v>556</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>977</v>
+        <v>556</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44201</v>
+        <v>44223</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K58" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L58" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M58" t="n">
-        <v>776</v>
+        <v>347</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>776</v>
+        <v>347</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44201</v>
+        <v>44223</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L59" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M59" t="n">
-        <v>575</v>
+        <v>955</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>575</v>
+        <v>955</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44557</v>
+        <v>44223</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K60" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L60" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="M60" t="n">
-        <v>825</v>
+        <v>220</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>825</v>
+        <v>220</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44557</v>
+        <v>44189</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K61" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L61" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M61" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44203</v>
+        <v>44166</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K62" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L62" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M62" t="n">
-        <v>873</v>
+        <v>500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>873</v>
+        <v>500</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44203</v>
+        <v>44166</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K63" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="L63" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M63" t="n">
-        <v>672</v>
+        <v>1000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>672</v>
+        <v>1000</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44203</v>
+        <v>44166</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K64" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L64" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M64" t="n">
-        <v>477</v>
+        <v>800</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>477</v>
+        <v>800</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K65" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L65" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M65" t="n">
-        <v>279</v>
+        <v>953</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>279</v>
+        <v>953</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="K66" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L66" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M66" t="n">
-        <v>625</v>
+        <v>780</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>625</v>
+        <v>780</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K67" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L67" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M67" t="n">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44571</v>
+        <v>44231</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K68" t="n">
         <v>700</v>
       </c>
       <c r="L68" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M68" t="n">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44571</v>
+        <v>44231</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="K69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L69" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M69" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44571</v>
+        <v>44231</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K70" t="n">
         <v>700</v>
       </c>
       <c r="L70" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M70" t="n">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44571</v>
+        <v>44231</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L71" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M71" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1400</v>
+        <v>1550</v>
       </c>
       <c r="K72" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L72" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="M72" t="n">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K73" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L73" t="n">
         <v>700</v>
       </c>
       <c r="M73" t="n">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K74" t="n">
         <v>450</v>
@@ -5694,7 +5694,7 @@
         <v>500</v>
       </c>
       <c r="M74" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K75" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="L75" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M75" t="n">
-        <v>977</v>
+        <v>271</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>977</v>
+        <v>271</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K76" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L76" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M76" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K77" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L77" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M77" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>160</v>
+        <v>1900</v>
       </c>
       <c r="K78" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L78" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M78" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44252</v>
+        <v>44214</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K79" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L79" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M79" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44252</v>
+        <v>44214</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K80" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L80" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M80" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K81" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L81" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M81" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K82" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L82" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M82" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44222</v>
+        <v>44201</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K83" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="L83" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M83" t="n">
-        <v>347</v>
+        <v>977</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>347</v>
+        <v>977</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44222</v>
+        <v>44201</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K84" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L84" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M84" t="n">
-        <v>871</v>
+        <v>776</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>871</v>
+        <v>776</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44243</v>
+        <v>44201</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K85" t="n">
+        <v>550</v>
+      </c>
+      <c r="L85" t="n">
         <v>600</v>
       </c>
-      <c r="K85" t="n">
-        <v>700</v>
-      </c>
-      <c r="L85" t="n">
-        <v>750</v>
-      </c>
       <c r="M85" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44243</v>
+        <v>44215</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K86" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L86" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M86" t="n">
-        <v>625</v>
+        <v>779</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>625</v>
+        <v>779</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44166</v>
+        <v>44215</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K87" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M87" t="n">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44166</v>
+        <v>44215</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K88" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L88" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M88" t="n">
-        <v>1000</v>
+        <v>357</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1000</v>
+        <v>357</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44166</v>
+        <v>44215</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K89" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L89" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M89" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44566</v>
+        <v>44215</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K90" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L90" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M90" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44566</v>
+        <v>44215</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="K91" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L91" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M91" t="n">
-        <v>650</v>
+        <v>877</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>650</v>
+        <v>877</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44566</v>
+        <v>44215</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K92" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L92" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M92" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44566</v>
+        <v>44215</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K93" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L93" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M93" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44181</v>
+        <v>44204</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K94" t="n">
-        <v>850</v>
+        <v>150</v>
       </c>
       <c r="L94" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="M94" t="n">
-        <v>875</v>
+        <v>175</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>875</v>
+        <v>175</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44209</v>
+        <v>44204</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K95" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L95" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M95" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44209</v>
+        <v>44204</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="K96" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L96" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M96" t="n">
-        <v>779</v>
+        <v>678</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>779</v>
+        <v>678</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44209</v>
+        <v>44204</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K97" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M97" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K98" t="n">
-        <v>950</v>
+        <v>1100</v>
       </c>
       <c r="L98" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M98" t="n">
-        <v>975</v>
+        <v>1156</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>975</v>
+        <v>1156</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K99" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="L99" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M99" t="n">
-        <v>773</v>
+        <v>281</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>773</v>
+        <v>281</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K100" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L100" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M100" t="n">
-        <v>540</v>
+        <v>803</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>540</v>
+        <v>803</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7620,25 +7620,25 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="K101" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L101" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M101" t="n">
-        <v>945</v>
+        <v>607</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>945</v>
+        <v>607</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7692,25 +7692,25 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="K102" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L102" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M102" t="n">
-        <v>750</v>
+        <v>459</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>750</v>
+        <v>459</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J103" t="n">
         <v>1400</v>
       </c>
       <c r="K103" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L103" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M103" t="n">
-        <v>586</v>
+        <v>979</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>586</v>
+        <v>979</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K104" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="L104" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M104" t="n">
-        <v>803</v>
+        <v>310</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>803</v>
+        <v>310</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44218</v>
+        <v>44251</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K105" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L105" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M105" t="n">
-        <v>607</v>
+        <v>875</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>607</v>
+        <v>875</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44218</v>
+        <v>44251</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>2200</v>
+        <v>160</v>
       </c>
       <c r="K106" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L106" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M106" t="n">
-        <v>459</v>
+        <v>725</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>459</v>
+        <v>725</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8057,11 +8057,11 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K107" t="n">
         <v>950</v>
@@ -8070,7 +8070,7 @@
         <v>1000</v>
       </c>
       <c r="M107" t="n">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>1500</v>
       </c>
       <c r="K108" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L108" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M108" t="n">
-        <v>310</v>
+        <v>773</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>310</v>
+        <v>773</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44553</v>
+        <v>44210</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K109" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L109" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M109" t="n">
-        <v>1050</v>
+        <v>540</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1050</v>
+        <v>540</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44553</v>
+        <v>44210</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8268,25 +8268,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K110" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L110" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M110" t="n">
-        <v>850</v>
+        <v>945</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>850</v>
+        <v>945</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44553</v>
+        <v>44210</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K111" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L111" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="M111" t="n">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44553</v>
+        <v>44210</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K112" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L112" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M112" t="n">
-        <v>850</v>
+        <v>586</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>850</v>
+        <v>586</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K113" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L113" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M113" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K114" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L114" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M114" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K115" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L115" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M115" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K116" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L116" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M116" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44251</v>
+        <v>44211</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8777,11 +8777,11 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K117" t="n">
         <v>850</v>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P117" t="n">
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44251</v>
+        <v>44211</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="K118" t="n">
+        <v>650</v>
+      </c>
+      <c r="L118" t="n">
         <v>700</v>
       </c>
-      <c r="L118" t="n">
-        <v>750</v>
-      </c>
       <c r="M118" t="n">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44559</v>
+        <v>44211</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K119" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L119" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M119" t="n">
-        <v>1000</v>
+        <v>476</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1000</v>
+        <v>476</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44559</v>
+        <v>44209</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K120" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L120" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M120" t="n">
-        <v>746</v>
+        <v>975</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>746</v>
+        <v>975</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44559</v>
+        <v>44209</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K121" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L121" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M121" t="n">
-        <v>1000</v>
+        <v>779</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1000</v>
+        <v>779</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44559</v>
+        <v>44209</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9132,25 +9132,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K122" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L122" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M122" t="n">
-        <v>850</v>
+        <v>578</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>850</v>
+        <v>578</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9216,13 +9216,13 @@
         <v>1200</v>
       </c>
       <c r="K123" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L123" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M123" t="n">
-        <v>975</v>
+        <v>850</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>975</v>
+        <v>850</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K124" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L124" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M124" t="n">
-        <v>776</v>
+        <v>653</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>776</v>
+        <v>653</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K125" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L125" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M125" t="n">
-        <v>570</v>
+        <v>460</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>570</v>
+        <v>460</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9429,17 +9429,17 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K126" t="n">
+        <v>250</v>
+      </c>
+      <c r="L126" t="n">
+        <v>350</v>
+      </c>
+      <c r="M126" t="n">
         <v>300</v>
       </c>
-      <c r="L126" t="n">
-        <v>400</v>
-      </c>
-      <c r="M126" t="n">
-        <v>347</v>
-      </c>
       <c r="N126" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44232</v>
+        <v>44196</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K127" t="n">
         <v>800</v>
       </c>
-      <c r="K127" t="n">
-        <v>700</v>
-      </c>
       <c r="L127" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M127" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44232</v>
+        <v>44196</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K128" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L128" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M128" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44232</v>
+        <v>44196</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9648,13 +9648,13 @@
         <v>300</v>
       </c>
       <c r="K129" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L129" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M129" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44232</v>
+        <v>44196</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9720,13 +9720,13 @@
         <v>300</v>
       </c>
       <c r="K130" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L130" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M130" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>1200</v>
       </c>
       <c r="K131" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L131" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M131" t="n">
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K132" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L132" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M132" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -9924,25 +9924,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K133" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L133" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M133" t="n">
-        <v>925</v>
+        <v>570</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>925</v>
+        <v>570</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -9996,25 +9996,25 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J134" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K134" t="n">
         <v>300</v>
       </c>
-      <c r="K134" t="n">
-        <v>800</v>
-      </c>
       <c r="L134" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M134" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44200</v>
+        <v>44560</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10080,13 +10080,13 @@
         <v>1500</v>
       </c>
       <c r="K135" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L135" t="n">
         <v>1000</v>
       </c>
       <c r="M135" t="n">
-        <v>953</v>
+        <v>1000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>953</v>
+        <v>1000</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44200</v>
+        <v>44560</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K136" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L136" t="n">
         <v>800</v>
       </c>
       <c r="M136" t="n">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44200</v>
+        <v>44560</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K137" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L137" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M137" t="n">
-        <v>582</v>
+        <v>1000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>582</v>
+        <v>1000</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44224</v>
+        <v>44560</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -10284,25 +10284,25 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K138" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L138" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M138" t="n">
-        <v>747</v>
+        <v>850</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>747</v>
+        <v>850</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44224</v>
+        <v>44216</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K139" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L139" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M139" t="n">
-        <v>544</v>
+        <v>750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>544</v>
+        <v>750</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44224</v>
+        <v>44216</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K140" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L140" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M140" t="n">
-        <v>400</v>
+        <v>547</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>400</v>
+        <v>547</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44224</v>
+        <v>44216</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K141" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L141" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M141" t="n">
-        <v>942</v>
+        <v>353</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>942</v>
+        <v>353</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44224</v>
+        <v>44216</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -10572,25 +10572,25 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K142" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L142" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M142" t="n">
-        <v>773</v>
+        <v>977</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>773</v>
+        <v>977</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44224</v>
+        <v>44216</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -10644,25 +10644,25 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K143" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L143" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M143" t="n">
-        <v>572</v>
+        <v>225</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>572</v>
+        <v>225</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44224</v>
+        <v>44229</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10716,25 +10716,25 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K144" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L144" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M144" t="n">
-        <v>374</v>
+        <v>825</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>374</v>
+        <v>825</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44195</v>
+        <v>44229</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -10788,25 +10788,25 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K145" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L145" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M145" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K147" t="n">
         <v>700</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K148" t="n">
+        <v>800</v>
+      </c>
+      <c r="L148" t="n">
         <v>850</v>
       </c>
-      <c r="L148" t="n">
-        <v>900</v>
-      </c>
       <c r="M148" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K149" t="n">
         <v>700</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44568</v>
+        <v>44194</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -11148,25 +11148,25 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K150" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L150" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="M150" t="n">
-        <v>850</v>
+        <v>925</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>850</v>
+        <v>925</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44568</v>
+        <v>44194</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -11220,25 +11220,25 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="K151" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L151" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M151" t="n">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44568</v>
+        <v>44236</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11292,25 +11292,25 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K152" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L152" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M152" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44568</v>
+        <v>44236</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -11364,25 +11364,25 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="K153" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L153" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M153" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44194</v>
+        <v>44571</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K154" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L154" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="M154" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44194</v>
+        <v>44571</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K155" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L155" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M155" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44194</v>
+        <v>44571</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K156" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L156" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="M156" t="n">
-        <v>925</v>
+        <v>700</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>925</v>
+        <v>700</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44194</v>
+        <v>44571</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K157" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L157" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M157" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R157"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="K100" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L100" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="M100" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7629,17 +7629,17 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="K101" t="n">
+        <v>500</v>
+      </c>
+      <c r="L101" t="n">
+        <v>600</v>
+      </c>
+      <c r="M101" t="n">
         <v>550</v>
       </c>
-      <c r="L101" t="n">
-        <v>650</v>
-      </c>
-      <c r="M101" t="n">
-        <v>607</v>
-      </c>
       <c r="N101" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7692,25 +7692,25 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="K102" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L102" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M102" t="n">
-        <v>459</v>
+        <v>800</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>459</v>
+        <v>800</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1400</v>
+        <v>10000</v>
       </c>
       <c r="K103" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L103" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M103" t="n">
-        <v>979</v>
+        <v>550</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>979</v>
+        <v>550</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K104" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L104" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M104" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K105" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L105" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M105" t="n">
-        <v>875</v>
+        <v>607</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>875</v>
+        <v>607</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>160</v>
+        <v>2200</v>
       </c>
       <c r="K106" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L106" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M106" t="n">
-        <v>725</v>
+        <v>459</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>725</v>
+        <v>459</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8057,11 +8057,11 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K107" t="n">
         <v>950</v>
@@ -8070,7 +8070,7 @@
         <v>1000</v>
       </c>
       <c r="M107" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>1500</v>
       </c>
       <c r="K108" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="L108" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M108" t="n">
-        <v>773</v>
+        <v>310</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>773</v>
+        <v>310</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K109" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L109" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M109" t="n">
-        <v>540</v>
+        <v>875</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>540</v>
+        <v>875</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8268,25 +8268,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K110" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L110" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M110" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8340,25 +8340,25 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K111" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L111" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M111" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8412,25 +8412,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K112" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L112" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M112" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K113" t="n">
+        <v>500</v>
+      </c>
+      <c r="L113" t="n">
         <v>600</v>
       </c>
-      <c r="K113" t="n">
-        <v>800</v>
-      </c>
-      <c r="L113" t="n">
-        <v>850</v>
-      </c>
       <c r="M113" t="n">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K114" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L114" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M114" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K115" t="n">
+        <v>700</v>
+      </c>
+      <c r="L115" t="n">
         <v>800</v>
       </c>
-      <c r="L115" t="n">
-        <v>850</v>
-      </c>
       <c r="M115" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K116" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L116" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M116" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K117" t="n">
+        <v>800</v>
+      </c>
+      <c r="L117" t="n">
         <v>850</v>
       </c>
-      <c r="L117" t="n">
-        <v>900</v>
-      </c>
       <c r="M117" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K118" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L118" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M118" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8916,25 +8916,25 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K119" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L119" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M119" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44209</v>
+        <v>44230</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8988,25 +8988,25 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K120" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L120" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M120" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K121" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L121" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M121" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K122" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L122" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M122" t="n">
-        <v>578</v>
+        <v>677</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>578</v>
+        <v>677</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44221</v>
+        <v>44211</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K123" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L123" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M123" t="n">
-        <v>850</v>
+        <v>476</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>850</v>
+        <v>476</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K124" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="L124" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M124" t="n">
-        <v>653</v>
+        <v>975</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>653</v>
+        <v>975</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K125" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L125" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M125" t="n">
-        <v>460</v>
+        <v>779</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>460</v>
+        <v>779</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K126" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L126" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M126" t="n">
-        <v>300</v>
+        <v>578</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>300</v>
+        <v>578</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -9507,11 +9507,11 @@
         <v>800</v>
       </c>
       <c r="L127" t="n">
+        <v>900</v>
+      </c>
+      <c r="M127" t="n">
         <v>850</v>
       </c>
-      <c r="M127" t="n">
-        <v>825</v>
-      </c>
       <c r="N127" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K128" t="n">
+        <v>600</v>
+      </c>
+      <c r="L128" t="n">
         <v>700</v>
       </c>
-      <c r="L128" t="n">
-        <v>750</v>
-      </c>
       <c r="M128" t="n">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9636,25 +9636,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K129" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L129" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="M129" t="n">
-        <v>925</v>
+        <v>460</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>925</v>
+        <v>460</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9708,26 +9708,26 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J130" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K130" t="n">
+        <v>250</v>
+      </c>
+      <c r="L130" t="n">
+        <v>350</v>
+      </c>
+      <c r="M130" t="n">
         <v>300</v>
       </c>
-      <c r="K130" t="n">
-        <v>800</v>
-      </c>
-      <c r="L130" t="n">
-        <v>850</v>
-      </c>
-      <c r="M130" t="n">
-        <v>825</v>
-      </c>
       <c r="N130" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>825</v>
+        <v>300</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>1200</v>
       </c>
       <c r="K131" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L131" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M131" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K132" t="n">
+        <v>700</v>
+      </c>
+      <c r="L132" t="n">
         <v>750</v>
       </c>
-      <c r="L132" t="n">
-        <v>800</v>
-      </c>
       <c r="M132" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -9924,25 +9924,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K133" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L133" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M133" t="n">
-        <v>570</v>
+        <v>925</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>570</v>
+        <v>925</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -9996,25 +9996,25 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K134" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L134" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M134" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K135" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L135" t="n">
         <v>1000</v>
       </c>
       <c r="M135" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K136" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L136" t="n">
         <v>800</v>
       </c>
       <c r="M136" t="n">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K137" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L137" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M137" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -10284,25 +10284,25 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K138" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L138" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M138" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K139" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L139" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M139" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K140" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L140" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M140" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -10500,25 +10500,25 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>1500</v>
       </c>
       <c r="K141" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L141" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M141" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -10572,25 +10572,25 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K142" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L142" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M142" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K143" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L143" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M143" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K144" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L144" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M144" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -10788,25 +10788,25 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K145" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L145" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M145" t="n">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44193</v>
+        <v>44216</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K146" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L146" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M146" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44193</v>
+        <v>44216</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K147" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L147" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M147" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44194</v>
+        <v>44229</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K148" t="n">
         <v>800</v>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44194</v>
+        <v>44229</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -11076,25 +11076,25 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K149" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L149" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M149" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K150" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L150" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M150" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K151" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L151" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M151" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K152" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L152" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M152" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -11376,13 +11376,13 @@
         <v>1200</v>
       </c>
       <c r="K153" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L153" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M153" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44571</v>
+        <v>44194</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -11436,25 +11436,25 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K154" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L154" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="M154" t="n">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44571</v>
+        <v>44194</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11508,25 +11508,25 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K155" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L155" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M155" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -11580,25 +11580,25 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K156" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L156" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M156" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -11652,43 +11652,331 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K157" t="n">
         <v>500</v>
       </c>
       <c r="L157" t="n">
+        <v>550</v>
+      </c>
+      <c r="M157" t="n">
+        <v>525</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>1</v>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>7</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E158" t="n">
+        <v>16</v>
+      </c>
+      <c r="F158" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K158" t="n">
+        <v>700</v>
+      </c>
+      <c r="L158" t="n">
+        <v>700</v>
+      </c>
+      <c r="M158" t="n">
+        <v>700</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>1</v>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>7</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E159" t="n">
+        <v>16</v>
+      </c>
+      <c r="F159" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K159" t="n">
+        <v>500</v>
+      </c>
+      <c r="L159" t="n">
         <v>600</v>
       </c>
-      <c r="M157" t="n">
+      <c r="M159" t="n">
         <v>550</v>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P157" t="n">
+      <c r="P159" t="n">
         <v>550</v>
       </c>
-      <c r="Q157" t="n">
-        <v>1</v>
-      </c>
-      <c r="R157" t="inlineStr">
+      <c r="Q159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>7</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E160" t="n">
+        <v>16</v>
+      </c>
+      <c r="F160" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K160" t="n">
+        <v>700</v>
+      </c>
+      <c r="L160" t="n">
+        <v>700</v>
+      </c>
+      <c r="M160" t="n">
+        <v>700</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>1</v>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>7</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E161" t="n">
+        <v>16</v>
+      </c>
+      <c r="F161" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K161" t="n">
+        <v>500</v>
+      </c>
+      <c r="L161" t="n">
+        <v>600</v>
+      </c>
+      <c r="M161" t="n">
+        <v>550</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R161" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R161"/>
+  <dimension ref="A1:R165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44195</v>
+        <v>44575</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K41" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L41" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="M41" t="n">
-        <v>925</v>
+        <v>750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>925</v>
+        <v>750</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44195</v>
+        <v>44575</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3384,13 +3384,13 @@
         <v>1600</v>
       </c>
       <c r="K42" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L42" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M42" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44195</v>
+        <v>44575</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3444,26 +3444,26 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K43" t="n">
         <v>700</v>
       </c>
       <c r="L43" t="n">
+        <v>800</v>
+      </c>
+      <c r="M43" t="n">
         <v>750</v>
       </c>
-      <c r="M43" t="n">
-        <v>725</v>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44195</v>
+        <v>44575</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K44" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L44" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M44" t="n">
-        <v>875</v>
+        <v>550</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>875</v>
+        <v>550</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3588,25 +3588,25 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K45" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L45" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M45" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44561</v>
+        <v>44195</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K46" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L46" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M46" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44561</v>
+        <v>44195</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L47" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M47" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44561</v>
+        <v>44195</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K48" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L48" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M48" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44561</v>
+        <v>44195</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K49" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L49" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M49" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44557</v>
+        <v>44561</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K50" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L50" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M50" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44557</v>
+        <v>44561</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K51" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L51" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M51" t="n">
-        <v>725</v>
+        <v>850</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>725</v>
+        <v>850</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44232</v>
+        <v>44561</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4092,25 +4092,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K52" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L52" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M52" t="n">
-        <v>725</v>
+        <v>1000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>725</v>
+        <v>1000</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44232</v>
+        <v>44561</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K53" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L53" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M53" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44232</v>
+        <v>44557</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K54" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L54" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M54" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44232</v>
+        <v>44557</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K55" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L55" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M55" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44223</v>
+        <v>44232</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K56" t="n">
         <v>700</v>
       </c>
       <c r="L56" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M56" t="n">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44223</v>
+        <v>44232</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L57" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M57" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44223</v>
+        <v>44232</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4524,25 +4524,25 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K58" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L58" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M58" t="n">
-        <v>347</v>
+        <v>725</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>347</v>
+        <v>725</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44223</v>
+        <v>44232</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K59" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L59" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M59" t="n">
-        <v>955</v>
+        <v>625</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>955</v>
+        <v>625</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J60" t="n">
         <v>1500</v>
       </c>
       <c r="K60" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L60" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M60" t="n">
-        <v>220</v>
+        <v>753</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>220</v>
+        <v>753</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44189</v>
+        <v>44223</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K61" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L61" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M61" t="n">
-        <v>825</v>
+        <v>556</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>825</v>
+        <v>556</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44166</v>
+        <v>44223</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K62" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L62" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M62" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44166</v>
+        <v>44223</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K63" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L63" t="n">
         <v>1000</v>
       </c>
       <c r="M63" t="n">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44166</v>
+        <v>44223</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K64" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L64" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M64" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44200</v>
+        <v>44189</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K65" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L65" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M65" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="K66" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L66" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M66" t="n">
-        <v>780</v>
+        <v>500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>780</v>
+        <v>500</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K67" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L67" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M67" t="n">
-        <v>582</v>
+        <v>1000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>582</v>
+        <v>1000</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44231</v>
+        <v>44166</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K68" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L68" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M68" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44231</v>
+        <v>44200</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K69" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L69" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M69" t="n">
-        <v>625</v>
+        <v>953</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>625</v>
+        <v>953</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44231</v>
+        <v>44200</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K70" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L70" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M70" t="n">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44231</v>
+        <v>44200</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K71" t="n">
+        <v>550</v>
+      </c>
+      <c r="L71" t="n">
         <v>600</v>
       </c>
-      <c r="K71" t="n">
-        <v>600</v>
-      </c>
-      <c r="L71" t="n">
-        <v>650</v>
-      </c>
       <c r="M71" t="n">
-        <v>625</v>
+        <v>582</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>625</v>
+        <v>582</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1550</v>
+        <v>300</v>
       </c>
       <c r="K72" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L72" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M72" t="n">
-        <v>927</v>
+        <v>725</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>927</v>
+        <v>725</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="K73" t="n">
+        <v>600</v>
+      </c>
+      <c r="L73" t="n">
         <v>650</v>
       </c>
-      <c r="L73" t="n">
-        <v>700</v>
-      </c>
       <c r="M73" t="n">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K74" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L74" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M74" t="n">
-        <v>470</v>
+        <v>725</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>470</v>
+        <v>725</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K75" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L75" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M75" t="n">
-        <v>271</v>
+        <v>625</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>271</v>
+        <v>625</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1400</v>
+        <v>1550</v>
       </c>
       <c r="K76" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L76" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="M76" t="n">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K77" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L77" t="n">
         <v>700</v>
       </c>
       <c r="M77" t="n">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K78" t="n">
         <v>450</v>
@@ -5982,7 +5982,7 @@
         <v>500</v>
       </c>
       <c r="M78" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K79" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="L79" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M79" t="n">
-        <v>977</v>
+        <v>271</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>977</v>
+        <v>271</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K80" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L80" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M80" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K81" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L81" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M81" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>160</v>
+        <v>1900</v>
       </c>
       <c r="K82" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L82" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M82" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44201</v>
+        <v>44214</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6329,11 +6329,11 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K83" t="n">
         <v>950</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44201</v>
+        <v>44214</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K84" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L84" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M84" t="n">
-        <v>776</v>
+        <v>325</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>776</v>
+        <v>325</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44201</v>
+        <v>44172</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K85" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L85" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M85" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44215</v>
+        <v>44172</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1400</v>
+        <v>160</v>
       </c>
       <c r="K86" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L86" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M86" t="n">
-        <v>779</v>
+        <v>825</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>779</v>
+        <v>825</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K87" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L87" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M87" t="n">
-        <v>576</v>
+        <v>977</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>576</v>
+        <v>977</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="K88" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L88" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M88" t="n">
-        <v>357</v>
+        <v>776</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>357</v>
+        <v>776</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K89" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L89" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M89" t="n">
-        <v>975</v>
+        <v>575</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>975</v>
+        <v>575</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K90" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L90" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M90" t="n">
-        <v>220</v>
+        <v>779</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>220</v>
+        <v>779</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K91" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L91" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M91" t="n">
-        <v>877</v>
+        <v>576</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>877</v>
+        <v>576</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K92" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L92" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M92" t="n">
-        <v>675</v>
+        <v>357</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>675</v>
+        <v>357</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K93" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L93" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M93" t="n">
-        <v>475</v>
+        <v>975</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>475</v>
+        <v>975</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K94" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L94" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M94" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K95" t="n">
         <v>850</v>
@@ -7206,7 +7206,7 @@
         <v>900</v>
       </c>
       <c r="M95" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K96" t="n">
         <v>650</v>
@@ -7278,7 +7278,7 @@
         <v>700</v>
       </c>
       <c r="M96" t="n">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K97" t="n">
         <v>450</v>
@@ -7350,7 +7350,7 @@
         <v>500</v>
       </c>
       <c r="M97" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K98" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="L98" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="M98" t="n">
-        <v>1156</v>
+        <v>175</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1156</v>
+        <v>175</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K99" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="L99" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M99" t="n">
-        <v>281</v>
+        <v>875</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>281</v>
+        <v>875</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="K100" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L100" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M100" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="K101" t="n">
+        <v>450</v>
+      </c>
+      <c r="L101" t="n">
         <v>500</v>
       </c>
-      <c r="L101" t="n">
-        <v>600</v>
-      </c>
       <c r="M101" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7692,25 +7692,25 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="K102" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L102" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M102" t="n">
-        <v>800</v>
+        <v>1156</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>800</v>
+        <v>1156</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="K103" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L103" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M103" t="n">
-        <v>550</v>
+        <v>281</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>550</v>
+        <v>281</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="K104" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L104" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="M104" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7917,17 +7917,17 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="K105" t="n">
+        <v>500</v>
+      </c>
+      <c r="L105" t="n">
+        <v>600</v>
+      </c>
+      <c r="M105" t="n">
         <v>550</v>
       </c>
-      <c r="L105" t="n">
-        <v>650</v>
-      </c>
-      <c r="M105" t="n">
-        <v>607</v>
-      </c>
       <c r="N105" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7980,25 +7980,25 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="K106" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L106" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M106" t="n">
-        <v>459</v>
+        <v>800</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>459</v>
+        <v>800</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8052,25 +8052,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1400</v>
+        <v>10000</v>
       </c>
       <c r="K107" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L107" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M107" t="n">
-        <v>979</v>
+        <v>550</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>979</v>
+        <v>550</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K108" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L108" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M108" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K109" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L109" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M109" t="n">
-        <v>875</v>
+        <v>607</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>875</v>
+        <v>607</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>160</v>
+        <v>2200</v>
       </c>
       <c r="K110" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L110" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M110" t="n">
-        <v>725</v>
+        <v>459</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>725</v>
+        <v>459</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8345,11 +8345,11 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K111" t="n">
         <v>950</v>
@@ -8358,7 +8358,7 @@
         <v>1000</v>
       </c>
       <c r="M111" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J112" t="n">
         <v>1500</v>
       </c>
       <c r="K112" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="L112" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M112" t="n">
-        <v>773</v>
+        <v>310</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>773</v>
+        <v>310</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L113" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M113" t="n">
-        <v>540</v>
+        <v>875</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>540</v>
+        <v>875</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K114" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L114" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M114" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8628,25 +8628,25 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K115" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L115" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M115" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8700,25 +8700,25 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K116" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L116" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M116" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K117" t="n">
+        <v>500</v>
+      </c>
+      <c r="L117" t="n">
         <v>600</v>
       </c>
-      <c r="K117" t="n">
-        <v>800</v>
-      </c>
-      <c r="L117" t="n">
-        <v>850</v>
-      </c>
       <c r="M117" t="n">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8844,25 +8844,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K118" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L118" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M118" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K119" t="n">
+        <v>700</v>
+      </c>
+      <c r="L119" t="n">
         <v>800</v>
       </c>
-      <c r="L119" t="n">
-        <v>850</v>
-      </c>
       <c r="M119" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K120" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L120" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M120" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K121" t="n">
+        <v>800</v>
+      </c>
+      <c r="L121" t="n">
         <v>850</v>
       </c>
-      <c r="L121" t="n">
-        <v>900</v>
-      </c>
       <c r="M121" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K122" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L122" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M122" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9204,25 +9204,25 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K123" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L123" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M123" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44209</v>
+        <v>44230</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9276,25 +9276,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K124" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L124" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M124" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K125" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L125" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M125" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K126" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L126" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M126" t="n">
-        <v>578</v>
+        <v>677</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>578</v>
+        <v>677</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44221</v>
+        <v>44211</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K127" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L127" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M127" t="n">
-        <v>850</v>
+        <v>476</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>850</v>
+        <v>476</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K128" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="L128" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M128" t="n">
-        <v>653</v>
+        <v>975</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>653</v>
+        <v>975</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K129" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L129" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M129" t="n">
-        <v>460</v>
+        <v>779</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>460</v>
+        <v>779</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K130" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L130" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>578</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>300</v>
+        <v>578</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -9795,11 +9795,11 @@
         <v>800</v>
       </c>
       <c r="L131" t="n">
+        <v>900</v>
+      </c>
+      <c r="M131" t="n">
         <v>850</v>
       </c>
-      <c r="M131" t="n">
-        <v>825</v>
-      </c>
       <c r="N131" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K132" t="n">
+        <v>600</v>
+      </c>
+      <c r="L132" t="n">
         <v>700</v>
       </c>
-      <c r="L132" t="n">
-        <v>750</v>
-      </c>
       <c r="M132" t="n">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -9924,25 +9924,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K133" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L133" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="M133" t="n">
-        <v>925</v>
+        <v>460</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>925</v>
+        <v>460</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -9996,26 +9996,26 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J134" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K134" t="n">
+        <v>250</v>
+      </c>
+      <c r="L134" t="n">
+        <v>350</v>
+      </c>
+      <c r="M134" t="n">
         <v>300</v>
       </c>
-      <c r="K134" t="n">
-        <v>800</v>
-      </c>
-      <c r="L134" t="n">
-        <v>850</v>
-      </c>
-      <c r="M134" t="n">
-        <v>825</v>
-      </c>
       <c r="N134" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>825</v>
+        <v>300</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
         <v>1200</v>
       </c>
       <c r="K135" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L135" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M135" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K136" t="n">
+        <v>700</v>
+      </c>
+      <c r="L136" t="n">
         <v>750</v>
       </c>
-      <c r="L136" t="n">
-        <v>800</v>
-      </c>
       <c r="M136" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K137" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L137" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M137" t="n">
-        <v>570</v>
+        <v>925</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>570</v>
+        <v>925</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -10284,25 +10284,25 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K138" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L138" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M138" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K139" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L139" t="n">
         <v>1000</v>
       </c>
       <c r="M139" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K140" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L140" t="n">
         <v>800</v>
       </c>
       <c r="M140" t="n">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -10500,25 +10500,25 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K141" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L141" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M141" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -10572,25 +10572,25 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K142" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L142" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M142" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K143" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L143" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M143" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K144" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L144" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M144" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -10788,25 +10788,25 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
         <v>1500</v>
       </c>
       <c r="K145" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L145" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M145" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -10860,25 +10860,25 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K146" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L146" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M146" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K147" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L147" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M147" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K148" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L148" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M148" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -11076,25 +11076,25 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K149" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L149" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M149" t="n">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44193</v>
+        <v>44216</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K150" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L150" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M150" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44193</v>
+        <v>44216</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K151" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L151" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M151" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44194</v>
+        <v>44229</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K152" t="n">
         <v>800</v>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P152" t="n">
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44194</v>
+        <v>44229</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -11364,25 +11364,25 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K153" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L153" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M153" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K154" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L154" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M154" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K155" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L155" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M155" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K156" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L156" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M156" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -11664,13 +11664,13 @@
         <v>1200</v>
       </c>
       <c r="K157" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L157" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M157" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44571</v>
+        <v>44194</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -11724,25 +11724,25 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K158" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L158" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="M158" t="n">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44571</v>
+        <v>44194</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -11796,25 +11796,25 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K159" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L159" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M159" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -11868,25 +11868,25 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K160" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L160" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M160" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -11940,43 +11940,331 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K161" t="n">
         <v>500</v>
       </c>
       <c r="L161" t="n">
+        <v>550</v>
+      </c>
+      <c r="M161" t="n">
+        <v>525</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>7</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E162" t="n">
+        <v>16</v>
+      </c>
+      <c r="F162" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K162" t="n">
+        <v>700</v>
+      </c>
+      <c r="L162" t="n">
+        <v>700</v>
+      </c>
+      <c r="M162" t="n">
+        <v>700</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>1</v>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>7</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E163" t="n">
+        <v>16</v>
+      </c>
+      <c r="F163" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K163" t="n">
+        <v>500</v>
+      </c>
+      <c r="L163" t="n">
         <v>600</v>
       </c>
-      <c r="M161" t="n">
+      <c r="M163" t="n">
         <v>550</v>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P161" t="n">
+      <c r="P163" t="n">
         <v>550</v>
       </c>
-      <c r="Q161" t="n">
-        <v>1</v>
-      </c>
-      <c r="R161" t="inlineStr">
+      <c r="Q163" t="n">
+        <v>1</v>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>7</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E164" t="n">
+        <v>16</v>
+      </c>
+      <c r="F164" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K164" t="n">
+        <v>700</v>
+      </c>
+      <c r="L164" t="n">
+        <v>700</v>
+      </c>
+      <c r="M164" t="n">
+        <v>700</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>1</v>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>7</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E165" t="n">
+        <v>16</v>
+      </c>
+      <c r="F165" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K165" t="n">
+        <v>500</v>
+      </c>
+      <c r="L165" t="n">
+        <v>600</v>
+      </c>
+      <c r="M165" t="n">
+        <v>550</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>1</v>
+      </c>
+      <c r="R165" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44202</v>
+        <v>44579</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="K76" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L76" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M76" t="n">
-        <v>927</v>
+        <v>825</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>927</v>
+        <v>825</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44202</v>
+        <v>44579</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="K77" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L77" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M77" t="n">
-        <v>677</v>
+        <v>825</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>677</v>
+        <v>825</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2000</v>
+        <v>1550</v>
       </c>
       <c r="K78" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L78" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="M78" t="n">
-        <v>470</v>
+        <v>927</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>470</v>
+        <v>927</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="K79" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L79" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M79" t="n">
-        <v>271</v>
+        <v>677</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>271</v>
+        <v>677</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K80" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L80" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M80" t="n">
-        <v>825</v>
+        <v>470</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>825</v>
+        <v>470</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K81" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L81" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M81" t="n">
-        <v>660</v>
+        <v>271</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>660</v>
+        <v>271</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="K82" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L82" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M82" t="n">
-        <v>482</v>
+        <v>825</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>482</v>
+        <v>825</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K83" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L83" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M83" t="n">
-        <v>977</v>
+        <v>660</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>977</v>
+        <v>660</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K84" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L84" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M84" t="n">
-        <v>325</v>
+        <v>482</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>325</v>
+        <v>482</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K85" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L85" t="n">
         <v>1000</v>
       </c>
       <c r="M85" t="n">
-        <v>950</v>
+        <v>977</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>950</v>
+        <v>977</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K86" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L86" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M86" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44201</v>
+        <v>44172</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K87" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="L87" t="n">
         <v>1000</v>
       </c>
       <c r="M87" t="n">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44201</v>
+        <v>44172</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1900</v>
+        <v>160</v>
       </c>
       <c r="K88" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L88" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M88" t="n">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K89" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L89" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M89" t="n">
-        <v>575</v>
+        <v>977</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>575</v>
+        <v>977</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6833,11 +6833,11 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="K90" t="n">
         <v>750</v>
@@ -6846,7 +6846,7 @@
         <v>800</v>
       </c>
       <c r="M90" t="n">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6905,11 +6905,11 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K91" t="n">
         <v>550</v>
@@ -6918,7 +6918,7 @@
         <v>600</v>
       </c>
       <c r="M91" t="n">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J92" t="n">
         <v>1400</v>
       </c>
       <c r="K92" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L92" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M92" t="n">
-        <v>357</v>
+        <v>779</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>357</v>
+        <v>779</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K93" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L93" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M93" t="n">
-        <v>975</v>
+        <v>576</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>975</v>
+        <v>576</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L94" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M94" t="n">
-        <v>220</v>
+        <v>357</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>220</v>
+        <v>357</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7188,25 +7188,25 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K95" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="L95" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M95" t="n">
-        <v>877</v>
+        <v>975</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>877</v>
+        <v>975</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7260,25 +7260,25 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K96" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L96" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M96" t="n">
-        <v>675</v>
+        <v>220</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>675</v>
+        <v>220</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K97" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L97" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M97" t="n">
-        <v>475</v>
+        <v>877</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>475</v>
+        <v>877</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7404,25 +7404,25 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
         <v>1600</v>
       </c>
       <c r="K98" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="L98" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M98" t="n">
-        <v>175</v>
+        <v>675</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>175</v>
+        <v>675</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7476,25 +7476,25 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K99" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L99" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M99" t="n">
-        <v>875</v>
+        <v>475</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>875</v>
+        <v>475</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K100" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="L100" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M100" t="n">
-        <v>678</v>
+        <v>175</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>678</v>
+        <v>175</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K101" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L101" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M101" t="n">
-        <v>480</v>
+        <v>875</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>480</v>
+        <v>875</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="K102" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="L102" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="M102" t="n">
-        <v>1156</v>
+        <v>678</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1156</v>
+        <v>678</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K103" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L103" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M103" t="n">
-        <v>281</v>
+        <v>480</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>281</v>
+        <v>480</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="K104" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L104" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M104" t="n">
-        <v>800</v>
+        <v>1156</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>800</v>
+        <v>1156</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="K105" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L105" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M105" t="n">
-        <v>550</v>
+        <v>281</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>550</v>
+        <v>281</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="K108" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L108" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="M108" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,17 +8205,17 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="K109" t="n">
+        <v>500</v>
+      </c>
+      <c r="L109" t="n">
+        <v>600</v>
+      </c>
+      <c r="M109" t="n">
         <v>550</v>
       </c>
-      <c r="L109" t="n">
-        <v>650</v>
-      </c>
-      <c r="M109" t="n">
-        <v>607</v>
-      </c>
       <c r="N109" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="K110" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L110" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M110" t="n">
-        <v>459</v>
+        <v>803</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>459</v>
+        <v>803</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="K111" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L111" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M111" t="n">
-        <v>979</v>
+        <v>607</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>979</v>
+        <v>607</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K112" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L112" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M112" t="n">
-        <v>310</v>
+        <v>459</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>310</v>
+        <v>459</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K113" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="L113" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M113" t="n">
-        <v>875</v>
+        <v>979</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>875</v>
+        <v>979</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="K114" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L114" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M114" t="n">
-        <v>725</v>
+        <v>310</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>725</v>
+        <v>310</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K115" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L115" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M115" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K116" t="n">
+        <v>700</v>
+      </c>
+      <c r="L116" t="n">
         <v>750</v>
       </c>
-      <c r="L116" t="n">
-        <v>800</v>
-      </c>
       <c r="M116" t="n">
-        <v>773</v>
+        <v>725</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>773</v>
+        <v>725</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K117" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L117" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M117" t="n">
-        <v>540</v>
+        <v>975</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>540</v>
+        <v>975</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8844,25 +8844,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K118" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L118" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M118" t="n">
-        <v>945</v>
+        <v>773</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>945</v>
+        <v>773</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8916,25 +8916,25 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K119" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L119" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M119" t="n">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K120" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L120" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M120" t="n">
-        <v>586</v>
+        <v>945</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>586</v>
+        <v>945</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K121" t="n">
+        <v>700</v>
+      </c>
+      <c r="L121" t="n">
         <v>800</v>
       </c>
-      <c r="L121" t="n">
-        <v>850</v>
-      </c>
       <c r="M121" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K122" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L122" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M122" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K124" t="n">
         <v>700</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K125" t="n">
+        <v>800</v>
+      </c>
+      <c r="L125" t="n">
         <v>850</v>
       </c>
-      <c r="L125" t="n">
-        <v>900</v>
-      </c>
       <c r="M125" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K126" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L126" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M126" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K127" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L127" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M127" t="n">
-        <v>476</v>
+        <v>875</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>476</v>
+        <v>875</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K128" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="L128" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M128" t="n">
-        <v>975</v>
+        <v>677</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>975</v>
+        <v>677</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="K129" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L129" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M129" t="n">
-        <v>779</v>
+        <v>476</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>779</v>
+        <v>476</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K130" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L130" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M130" t="n">
-        <v>578</v>
+        <v>975</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>578</v>
+        <v>975</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="K131" t="n">
+        <v>750</v>
+      </c>
+      <c r="L131" t="n">
         <v>800</v>
       </c>
-      <c r="L131" t="n">
-        <v>900</v>
-      </c>
       <c r="M131" t="n">
-        <v>850</v>
+        <v>779</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>850</v>
+        <v>779</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K132" t="n">
+        <v>550</v>
+      </c>
+      <c r="L132" t="n">
         <v>600</v>
       </c>
-      <c r="L132" t="n">
-        <v>700</v>
-      </c>
       <c r="M132" t="n">
-        <v>653</v>
+        <v>578</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>653</v>
+        <v>578</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K133" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L133" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M133" t="n">
-        <v>460</v>
+        <v>850</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>460</v>
+        <v>850</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K134" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L134" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M134" t="n">
-        <v>300</v>
+        <v>653</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>300</v>
+        <v>653</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K135" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L135" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M135" t="n">
-        <v>825</v>
+        <v>460</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>825</v>
+        <v>460</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10145,21 +10145,21 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J136" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K136" t="n">
+        <v>250</v>
+      </c>
+      <c r="L136" t="n">
+        <v>350</v>
+      </c>
+      <c r="M136" t="n">
         <v>300</v>
       </c>
-      <c r="K136" t="n">
-        <v>700</v>
-      </c>
-      <c r="L136" t="n">
-        <v>750</v>
-      </c>
-      <c r="M136" t="n">
-        <v>725</v>
-      </c>
       <c r="N136" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>725</v>
+        <v>300</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K137" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L137" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M137" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10296,13 +10296,13 @@
         <v>300</v>
       </c>
       <c r="K138" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L138" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M138" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -10356,25 +10356,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K139" t="n">
+        <v>900</v>
+      </c>
+      <c r="L139" t="n">
         <v>950</v>
       </c>
-      <c r="L139" t="n">
-        <v>1000</v>
-      </c>
       <c r="M139" t="n">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10428,25 +10428,25 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K140" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L140" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M140" t="n">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="K141" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L141" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M141" t="n">
-        <v>570</v>
+        <v>975</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>570</v>
+        <v>975</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K142" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L142" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M142" t="n">
-        <v>347</v>
+        <v>776</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>347</v>
+        <v>776</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K143" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L143" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K144" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L144" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M144" t="n">
-        <v>750</v>
+        <v>347</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>750</v>
+        <v>347</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10872,13 +10872,13 @@
         <v>1600</v>
       </c>
       <c r="K146" t="n">
+        <v>700</v>
+      </c>
+      <c r="L146" t="n">
         <v>800</v>
       </c>
-      <c r="L146" t="n">
-        <v>900</v>
-      </c>
       <c r="M146" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K147" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L147" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M147" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K148" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L148" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M148" t="n">
-        <v>547</v>
+        <v>850</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>547</v>
+        <v>850</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K149" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L149" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M149" t="n">
-        <v>353</v>
+        <v>750</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>353</v>
+        <v>750</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K150" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L150" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M150" t="n">
-        <v>977</v>
+        <v>547</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>977</v>
+        <v>547</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K151" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L151" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M151" t="n">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K152" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L152" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M152" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -11364,25 +11364,25 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K153" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L153" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="M153" t="n">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44193</v>
+        <v>44229</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K154" t="n">
         <v>800</v>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P154" t="n">
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44193</v>
+        <v>44229</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11508,25 +11508,25 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K155" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L155" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M155" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K158" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L158" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M158" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K159" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L159" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M159" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K160" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L160" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="M160" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K161" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L161" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M161" t="n">
-        <v>525</v>
+        <v>825</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>525</v>
+        <v>825</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K162" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L162" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M162" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K163" t="n">
         <v>500</v>
       </c>
       <c r="L163" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M163" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12265,6 +12265,150 @@
         <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>7</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E166" t="n">
+        <v>16</v>
+      </c>
+      <c r="F166" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K166" t="n">
+        <v>700</v>
+      </c>
+      <c r="L166" t="n">
+        <v>700</v>
+      </c>
+      <c r="M166" t="n">
+        <v>700</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>1</v>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>7</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E167" t="n">
+        <v>16</v>
+      </c>
+      <c r="F167" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K167" t="n">
+        <v>500</v>
+      </c>
+      <c r="L167" t="n">
+        <v>600</v>
+      </c>
+      <c r="M167" t="n">
+        <v>550</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>1</v>
+      </c>
+      <c r="R167" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44223</v>
+        <v>44581</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K60" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L60" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M60" t="n">
-        <v>753</v>
+        <v>825</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>753</v>
+        <v>825</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44223</v>
+        <v>44581</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K61" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L61" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M61" t="n">
-        <v>556</v>
+        <v>725</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>556</v>
+        <v>725</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44223</v>
+        <v>44581</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K62" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L62" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M62" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44223</v>
+        <v>44581</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K63" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L63" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M63" t="n">
-        <v>955</v>
+        <v>725</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>955</v>
+        <v>725</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J64" t="n">
         <v>1500</v>
       </c>
       <c r="K64" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L64" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M64" t="n">
-        <v>220</v>
+        <v>753</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>220</v>
+        <v>753</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44189</v>
+        <v>44223</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K65" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L65" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M65" t="n">
-        <v>825</v>
+        <v>556</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>825</v>
+        <v>556</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44166</v>
+        <v>44223</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K66" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L66" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M66" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>500</v>
+        <v>347</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44166</v>
+        <v>44223</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K67" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L67" t="n">
         <v>1000</v>
       </c>
       <c r="M67" t="n">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44166</v>
+        <v>44223</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K68" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L68" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M68" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44200</v>
+        <v>44189</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K69" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L69" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M69" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>953</v>
+        <v>825</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="K70" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L70" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M70" t="n">
-        <v>780</v>
+        <v>500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>780</v>
+        <v>500</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K71" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L71" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M71" t="n">
-        <v>582</v>
+        <v>1000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>582</v>
+        <v>1000</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44231</v>
+        <v>44166</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K72" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L72" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M72" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44231</v>
+        <v>44200</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K73" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L73" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M73" t="n">
-        <v>625</v>
+        <v>953</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>625</v>
+        <v>953</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44231</v>
+        <v>44200</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K74" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L74" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M74" t="n">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44231</v>
+        <v>44200</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K75" t="n">
+        <v>550</v>
+      </c>
+      <c r="L75" t="n">
         <v>600</v>
       </c>
-      <c r="K75" t="n">
-        <v>600</v>
-      </c>
-      <c r="L75" t="n">
-        <v>650</v>
-      </c>
       <c r="M75" t="n">
-        <v>625</v>
+        <v>582</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>625</v>
+        <v>582</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44579</v>
+        <v>44231</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K76" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L76" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M76" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44579</v>
+        <v>44231</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K77" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L77" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M77" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5964,25 +5964,25 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="K78" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L78" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="M78" t="n">
-        <v>927</v>
+        <v>725</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>927</v>
+        <v>725</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="K79" t="n">
+        <v>600</v>
+      </c>
+      <c r="L79" t="n">
         <v>650</v>
       </c>
-      <c r="L79" t="n">
-        <v>700</v>
-      </c>
       <c r="M79" t="n">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44202</v>
+        <v>44579</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K80" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L80" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M80" t="n">
-        <v>470</v>
+        <v>825</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>470</v>
+        <v>825</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44202</v>
+        <v>44579</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6180,25 +6180,25 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
         <v>1400</v>
       </c>
       <c r="K81" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L81" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="M81" t="n">
-        <v>271</v>
+        <v>825</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>271</v>
+        <v>825</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1400</v>
+        <v>1550</v>
       </c>
       <c r="K82" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L82" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="M82" t="n">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K83" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L83" t="n">
         <v>700</v>
       </c>
       <c r="M83" t="n">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K84" t="n">
         <v>450</v>
@@ -6414,7 +6414,7 @@
         <v>500</v>
       </c>
       <c r="M84" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K85" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="L85" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M85" t="n">
-        <v>977</v>
+        <v>271</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>977</v>
+        <v>271</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K86" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L86" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M86" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K87" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L87" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M87" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>950</v>
+        <v>660</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44172</v>
+        <v>44214</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>160</v>
+        <v>1900</v>
       </c>
       <c r="K88" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L88" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M88" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44201</v>
+        <v>44214</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6761,11 +6761,11 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K89" t="n">
         <v>950</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44201</v>
+        <v>44214</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K90" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L90" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M90" t="n">
-        <v>776</v>
+        <v>325</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>776</v>
+        <v>325</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44201</v>
+        <v>44172</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K91" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L91" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M91" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44215</v>
+        <v>44172</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1400</v>
+        <v>160</v>
       </c>
       <c r="K92" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L92" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M92" t="n">
-        <v>779</v>
+        <v>825</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>779</v>
+        <v>825</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K93" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="L93" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M93" t="n">
-        <v>576</v>
+        <v>977</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>576</v>
+        <v>977</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="K94" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L94" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M94" t="n">
-        <v>357</v>
+        <v>776</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>357</v>
+        <v>776</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K95" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="L95" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M95" t="n">
-        <v>975</v>
+        <v>575</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>975</v>
+        <v>575</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K96" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L96" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M96" t="n">
-        <v>220</v>
+        <v>779</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>220</v>
+        <v>779</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7332,25 +7332,25 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K97" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L97" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M97" t="n">
-        <v>877</v>
+        <v>576</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>877</v>
+        <v>576</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7404,25 +7404,25 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K98" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L98" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M98" t="n">
-        <v>675</v>
+        <v>357</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>675</v>
+        <v>357</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7476,25 +7476,25 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K99" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="L99" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M99" t="n">
-        <v>475</v>
+        <v>975</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>475</v>
+        <v>975</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K100" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L100" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M100" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,7 +7629,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K101" t="n">
         <v>850</v>
@@ -7638,7 +7638,7 @@
         <v>900</v>
       </c>
       <c r="M101" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K102" t="n">
         <v>650</v>
@@ -7710,7 +7710,7 @@
         <v>700</v>
       </c>
       <c r="M102" t="n">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K103" t="n">
         <v>450</v>
@@ -7782,7 +7782,7 @@
         <v>500</v>
       </c>
       <c r="M103" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K104" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="L104" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="M104" t="n">
-        <v>1156</v>
+        <v>175</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1156</v>
+        <v>175</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K105" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="L105" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M105" t="n">
-        <v>281</v>
+        <v>875</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>281</v>
+        <v>875</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="K106" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L106" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M106" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="K107" t="n">
+        <v>450</v>
+      </c>
+      <c r="L107" t="n">
         <v>500</v>
       </c>
-      <c r="L107" t="n">
-        <v>600</v>
-      </c>
       <c r="M107" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="K108" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L108" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M108" t="n">
-        <v>800</v>
+        <v>1156</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>800</v>
+        <v>1156</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="K109" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L109" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M109" t="n">
-        <v>550</v>
+        <v>281</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>550</v>
+        <v>281</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="K110" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L110" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="M110" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8349,17 +8349,17 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="K111" t="n">
+        <v>500</v>
+      </c>
+      <c r="L111" t="n">
+        <v>600</v>
+      </c>
+      <c r="M111" t="n">
         <v>550</v>
       </c>
-      <c r="L111" t="n">
-        <v>650</v>
-      </c>
-      <c r="M111" t="n">
-        <v>607</v>
-      </c>
       <c r="N111" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8412,25 +8412,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="K112" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L112" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M112" t="n">
-        <v>459</v>
+        <v>800</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>459</v>
+        <v>800</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8484,25 +8484,25 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1400</v>
+        <v>10000</v>
       </c>
       <c r="K113" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L113" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M113" t="n">
-        <v>979</v>
+        <v>550</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>979</v>
+        <v>550</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K114" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L114" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M114" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K115" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L115" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M115" t="n">
-        <v>875</v>
+        <v>607</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>875</v>
+        <v>607</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>160</v>
+        <v>2200</v>
       </c>
       <c r="K116" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L116" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M116" t="n">
-        <v>725</v>
+        <v>459</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>725</v>
+        <v>459</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8777,11 +8777,11 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K117" t="n">
         <v>950</v>
@@ -8790,7 +8790,7 @@
         <v>1000</v>
       </c>
       <c r="M117" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J118" t="n">
         <v>1500</v>
       </c>
       <c r="K118" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="L118" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M118" t="n">
-        <v>773</v>
+        <v>310</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>773</v>
+        <v>310</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K119" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L119" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M119" t="n">
-        <v>540</v>
+        <v>875</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>540</v>
+        <v>875</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8988,25 +8988,25 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K120" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L120" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M120" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K121" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L121" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M121" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9132,25 +9132,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K122" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L122" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M122" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K123" t="n">
+        <v>500</v>
+      </c>
+      <c r="L123" t="n">
         <v>600</v>
       </c>
-      <c r="K123" t="n">
-        <v>800</v>
-      </c>
-      <c r="L123" t="n">
-        <v>850</v>
-      </c>
       <c r="M123" t="n">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9276,25 +9276,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K124" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L124" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M124" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K125" t="n">
+        <v>700</v>
+      </c>
+      <c r="L125" t="n">
         <v>800</v>
       </c>
-      <c r="L125" t="n">
-        <v>850</v>
-      </c>
       <c r="M125" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K126" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L126" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M126" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K127" t="n">
+        <v>800</v>
+      </c>
+      <c r="L127" t="n">
         <v>850</v>
       </c>
-      <c r="L127" t="n">
-        <v>900</v>
-      </c>
       <c r="M127" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K128" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L128" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M128" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9636,25 +9636,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K129" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L129" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M129" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44209</v>
+        <v>44230</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9708,25 +9708,25 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K130" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L130" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M130" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K131" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L131" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M131" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K132" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L132" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M132" t="n">
-        <v>578</v>
+        <v>677</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>578</v>
+        <v>677</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44221</v>
+        <v>44211</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K133" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L133" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M133" t="n">
-        <v>850</v>
+        <v>476</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>850</v>
+        <v>476</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K134" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="L134" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M134" t="n">
-        <v>653</v>
+        <v>975</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>653</v>
+        <v>975</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K135" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L135" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M135" t="n">
-        <v>460</v>
+        <v>779</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>460</v>
+        <v>779</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K136" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L136" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M136" t="n">
-        <v>300</v>
+        <v>578</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>300</v>
+        <v>578</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
@@ -10227,11 +10227,11 @@
         <v>800</v>
       </c>
       <c r="L137" t="n">
+        <v>900</v>
+      </c>
+      <c r="M137" t="n">
         <v>850</v>
       </c>
-      <c r="M137" t="n">
-        <v>825</v>
-      </c>
       <c r="N137" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K138" t="n">
+        <v>600</v>
+      </c>
+      <c r="L138" t="n">
         <v>700</v>
       </c>
-      <c r="L138" t="n">
-        <v>750</v>
-      </c>
       <c r="M138" t="n">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -10356,25 +10356,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K139" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L139" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="M139" t="n">
-        <v>925</v>
+        <v>460</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>925</v>
+        <v>460</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10428,26 +10428,26 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J140" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K140" t="n">
+        <v>250</v>
+      </c>
+      <c r="L140" t="n">
+        <v>350</v>
+      </c>
+      <c r="M140" t="n">
         <v>300</v>
       </c>
-      <c r="K140" t="n">
-        <v>800</v>
-      </c>
-      <c r="L140" t="n">
-        <v>850</v>
-      </c>
-      <c r="M140" t="n">
-        <v>825</v>
-      </c>
       <c r="N140" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>825</v>
+        <v>300</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>1200</v>
       </c>
       <c r="K141" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L141" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M141" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K142" t="n">
+        <v>700</v>
+      </c>
+      <c r="L142" t="n">
         <v>750</v>
       </c>
-      <c r="L142" t="n">
-        <v>800</v>
-      </c>
       <c r="M142" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -10644,25 +10644,25 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K143" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L143" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M143" t="n">
-        <v>570</v>
+        <v>925</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>570</v>
+        <v>925</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10716,25 +10716,25 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K144" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L144" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M144" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K145" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L145" t="n">
         <v>1000</v>
       </c>
       <c r="M145" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K146" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L146" t="n">
         <v>800</v>
       </c>
       <c r="M146" t="n">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -10932,25 +10932,25 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K147" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L147" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M147" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11004,25 +11004,25 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K148" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L148" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M148" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K149" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L149" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M149" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K150" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L150" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M150" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -11220,25 +11220,25 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
         <v>1500</v>
       </c>
       <c r="K151" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L151" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M151" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11292,25 +11292,25 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K152" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L152" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M152" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K153" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L153" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M153" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K154" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L154" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M154" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11508,25 +11508,25 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K155" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L155" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M155" t="n">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44193</v>
+        <v>44216</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K156" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L156" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M156" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44193</v>
+        <v>44216</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K157" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L157" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M157" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44194</v>
+        <v>44229</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K158" t="n">
         <v>800</v>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P158" t="n">
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44194</v>
+        <v>44229</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -11796,25 +11796,25 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K159" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L159" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M159" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K160" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L160" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M160" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K161" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L161" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M161" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K162" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L162" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M162" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -12096,13 +12096,13 @@
         <v>1200</v>
       </c>
       <c r="K163" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L163" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M163" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44571</v>
+        <v>44194</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -12156,25 +12156,25 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K164" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L164" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="M164" t="n">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44571</v>
+        <v>44194</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -12228,25 +12228,25 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K165" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L165" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M165" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -12300,25 +12300,25 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K166" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L166" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M166" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -12372,43 +12372,331 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K167" t="n">
         <v>500</v>
       </c>
       <c r="L167" t="n">
+        <v>550</v>
+      </c>
+      <c r="M167" t="n">
+        <v>525</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>1</v>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>7</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E168" t="n">
+        <v>16</v>
+      </c>
+      <c r="F168" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K168" t="n">
+        <v>700</v>
+      </c>
+      <c r="L168" t="n">
+        <v>700</v>
+      </c>
+      <c r="M168" t="n">
+        <v>700</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>1</v>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>7</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E169" t="n">
+        <v>16</v>
+      </c>
+      <c r="F169" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K169" t="n">
+        <v>500</v>
+      </c>
+      <c r="L169" t="n">
         <v>600</v>
       </c>
-      <c r="M167" t="n">
+      <c r="M169" t="n">
         <v>550</v>
       </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P167" t="n">
+      <c r="P169" t="n">
         <v>550</v>
       </c>
-      <c r="Q167" t="n">
-        <v>1</v>
-      </c>
-      <c r="R167" t="inlineStr">
+      <c r="Q169" t="n">
+        <v>1</v>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>7</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E170" t="n">
+        <v>16</v>
+      </c>
+      <c r="F170" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K170" t="n">
+        <v>700</v>
+      </c>
+      <c r="L170" t="n">
+        <v>700</v>
+      </c>
+      <c r="M170" t="n">
+        <v>700</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>7</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E171" t="n">
+        <v>16</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K171" t="n">
+        <v>500</v>
+      </c>
+      <c r="L171" t="n">
+        <v>600</v>
+      </c>
+      <c r="M171" t="n">
+        <v>550</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>1</v>
+      </c>
+      <c r="R171" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R171"/>
+  <dimension ref="A1:R175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44218</v>
+        <v>44582</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K114" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L114" t="n">
         <v>850</v>
       </c>
       <c r="M114" t="n">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44218</v>
+        <v>44582</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K115" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L115" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M115" t="n">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44218</v>
+        <v>44582</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8700,25 +8700,25 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="K116" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L116" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M116" t="n">
-        <v>459</v>
+        <v>825</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>459</v>
+        <v>825</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44218</v>
+        <v>44582</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8772,25 +8772,25 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K117" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L117" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M117" t="n">
-        <v>979</v>
+        <v>725</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>979</v>
+        <v>725</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K118" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L118" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M118" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K119" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L119" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M119" t="n">
-        <v>875</v>
+        <v>607</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>875</v>
+        <v>607</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>160</v>
+        <v>2200</v>
       </c>
       <c r="K120" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L120" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M120" t="n">
-        <v>725</v>
+        <v>459</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>725</v>
+        <v>459</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9065,11 +9065,11 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K121" t="n">
         <v>950</v>
@@ -9078,7 +9078,7 @@
         <v>1000</v>
       </c>
       <c r="M121" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J122" t="n">
         <v>1500</v>
       </c>
       <c r="K122" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="L122" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M122" t="n">
-        <v>773</v>
+        <v>310</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>773</v>
+        <v>310</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K123" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L123" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M123" t="n">
-        <v>540</v>
+        <v>875</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>540</v>
+        <v>875</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9276,25 +9276,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K124" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L124" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M124" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K125" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L125" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M125" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K126" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L126" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M126" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K127" t="n">
+        <v>500</v>
+      </c>
+      <c r="L127" t="n">
         <v>600</v>
       </c>
-      <c r="K127" t="n">
-        <v>800</v>
-      </c>
-      <c r="L127" t="n">
-        <v>850</v>
-      </c>
       <c r="M127" t="n">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9564,25 +9564,25 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K128" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L128" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M128" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K129" t="n">
+        <v>700</v>
+      </c>
+      <c r="L129" t="n">
         <v>800</v>
       </c>
-      <c r="L129" t="n">
-        <v>850</v>
-      </c>
       <c r="M129" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K130" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L130" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M130" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>725</v>
+        <v>586</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K131" t="n">
+        <v>800</v>
+      </c>
+      <c r="L131" t="n">
         <v>850</v>
       </c>
-      <c r="L131" t="n">
-        <v>900</v>
-      </c>
       <c r="M131" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K132" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L132" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M132" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -9924,25 +9924,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K133" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L133" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M133" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>476</v>
+        <v>825</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44209</v>
+        <v>44230</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -9996,25 +9996,25 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K134" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="L134" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M134" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K135" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L135" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M135" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K136" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L136" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M136" t="n">
-        <v>578</v>
+        <v>677</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>578</v>
+        <v>677</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44221</v>
+        <v>44211</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K137" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L137" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M137" t="n">
-        <v>850</v>
+        <v>476</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>850</v>
+        <v>476</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K138" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="L138" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M138" t="n">
-        <v>653</v>
+        <v>975</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>653</v>
+        <v>975</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K139" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L139" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M139" t="n">
-        <v>460</v>
+        <v>779</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>460</v>
+        <v>779</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K140" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L140" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M140" t="n">
-        <v>300</v>
+        <v>578</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>300</v>
+        <v>578</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
@@ -10515,11 +10515,11 @@
         <v>800</v>
       </c>
       <c r="L141" t="n">
+        <v>900</v>
+      </c>
+      <c r="M141" t="n">
         <v>850</v>
       </c>
-      <c r="M141" t="n">
-        <v>825</v>
-      </c>
       <c r="N141" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K142" t="n">
+        <v>600</v>
+      </c>
+      <c r="L142" t="n">
         <v>700</v>
       </c>
-      <c r="L142" t="n">
-        <v>750</v>
-      </c>
       <c r="M142" t="n">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -10644,25 +10644,25 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K143" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L143" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="M143" t="n">
-        <v>925</v>
+        <v>460</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>925</v>
+        <v>460</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10716,26 +10716,26 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J144" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K144" t="n">
+        <v>250</v>
+      </c>
+      <c r="L144" t="n">
+        <v>350</v>
+      </c>
+      <c r="M144" t="n">
         <v>300</v>
       </c>
-      <c r="K144" t="n">
-        <v>800</v>
-      </c>
-      <c r="L144" t="n">
-        <v>850</v>
-      </c>
-      <c r="M144" t="n">
-        <v>825</v>
-      </c>
       <c r="N144" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>825</v>
+        <v>300</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
         <v>1200</v>
       </c>
       <c r="K145" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L145" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M145" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K146" t="n">
+        <v>700</v>
+      </c>
+      <c r="L146" t="n">
         <v>750</v>
       </c>
-      <c r="L146" t="n">
-        <v>800</v>
-      </c>
       <c r="M146" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -10932,25 +10932,25 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K147" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L147" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M147" t="n">
-        <v>570</v>
+        <v>925</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>570</v>
+        <v>925</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11004,25 +11004,25 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K148" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L148" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M148" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K149" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L149" t="n">
         <v>1000</v>
       </c>
       <c r="M149" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K150" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L150" t="n">
         <v>800</v>
       </c>
       <c r="M150" t="n">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -11220,25 +11220,25 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K151" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L151" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M151" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11292,25 +11292,25 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K152" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L152" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M152" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K153" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L153" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M153" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K154" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L154" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M154" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>547</v>
+        <v>750</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11508,25 +11508,25 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J155" t="n">
         <v>1500</v>
       </c>
       <c r="K155" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L155" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M155" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>353</v>
+        <v>1000</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -11580,25 +11580,25 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K156" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L156" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M156" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>977</v>
+        <v>850</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K157" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L157" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M157" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K158" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L158" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="M158" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>825</v>
+        <v>547</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -11796,25 +11796,25 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K159" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L159" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M159" t="n">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44193</v>
+        <v>44216</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K160" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L160" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M160" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44193</v>
+        <v>44216</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K161" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L161" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M161" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>725</v>
+        <v>225</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44194</v>
+        <v>44229</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K162" t="n">
         <v>800</v>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P162" t="n">
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44194</v>
+        <v>44229</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -12084,25 +12084,25 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K163" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L163" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M163" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K164" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L164" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M164" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K165" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L165" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M165" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K166" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L166" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M166" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -12384,13 +12384,13 @@
         <v>1200</v>
       </c>
       <c r="K167" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L167" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M167" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44571</v>
+        <v>44194</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -12444,25 +12444,25 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K168" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L168" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="M168" t="n">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44571</v>
+        <v>44194</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -12516,25 +12516,25 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K169" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L169" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M169" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -12588,25 +12588,25 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K170" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L170" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M170" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44571</v>
+        <v>44236</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -12660,43 +12660,331 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K171" t="n">
         <v>500</v>
       </c>
       <c r="L171" t="n">
+        <v>550</v>
+      </c>
+      <c r="M171" t="n">
+        <v>525</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>1</v>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>7</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E172" t="n">
+        <v>16</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K172" t="n">
+        <v>700</v>
+      </c>
+      <c r="L172" t="n">
+        <v>700</v>
+      </c>
+      <c r="M172" t="n">
+        <v>700</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>7</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E173" t="n">
+        <v>16</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K173" t="n">
+        <v>500</v>
+      </c>
+      <c r="L173" t="n">
         <v>600</v>
       </c>
-      <c r="M171" t="n">
+      <c r="M173" t="n">
         <v>550</v>
       </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P171" t="n">
+      <c r="P173" t="n">
         <v>550</v>
       </c>
-      <c r="Q171" t="n">
-        <v>1</v>
-      </c>
-      <c r="R171" t="inlineStr">
+      <c r="Q173" t="n">
+        <v>1</v>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>7</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E174" t="n">
+        <v>16</v>
+      </c>
+      <c r="F174" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K174" t="n">
+        <v>700</v>
+      </c>
+      <c r="L174" t="n">
+        <v>700</v>
+      </c>
+      <c r="M174" t="n">
+        <v>700</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>7</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E175" t="n">
+        <v>16</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K175" t="n">
+        <v>500</v>
+      </c>
+      <c r="L175" t="n">
+        <v>600</v>
+      </c>
+      <c r="M175" t="n">
+        <v>550</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R175" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Melón.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M2" t="n">
-        <v>747</v>
+        <v>975</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>747</v>
+        <v>975</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K3" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L3" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>544</v>
+        <v>773</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>544</v>
+        <v>773</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K4" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -708,16 +708,16 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K5" t="n">
         <v>900</v>
@@ -726,7 +726,7 @@
         <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K6" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L6" t="n">
         <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K7" t="n">
         <v>550</v>
       </c>
       <c r="L7" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M7" t="n">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44224</v>
+        <v>44216</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K8" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L8" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>374</v>
+        <v>750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>374</v>
+        <v>750</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44181</v>
+        <v>44216</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>260</v>
+        <v>1900</v>
       </c>
       <c r="K9" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M9" t="n">
-        <v>875</v>
+        <v>547</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>875</v>
+        <v>547</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44225</v>
+        <v>44216</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K10" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M10" t="n">
-        <v>750</v>
+        <v>353</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>750</v>
+        <v>353</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44225</v>
+        <v>44216</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K11" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M11" t="n">
-        <v>553</v>
+        <v>977</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>553</v>
+        <v>977</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44225</v>
+        <v>44216</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>1800</v>
       </c>
       <c r="K12" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L12" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M12" t="n">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44243</v>
+        <v>44214</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K13" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M13" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44243</v>
+        <v>44214</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="n">
         <v>600</v>
       </c>
       <c r="L14" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M14" t="n">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44203</v>
+        <v>44214</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="K15" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L15" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M15" t="n">
-        <v>873</v>
+        <v>482</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>873</v>
+        <v>482</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44203</v>
+        <v>44214</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K16" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="L16" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>672</v>
+        <v>977</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>672</v>
+        <v>977</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44203</v>
+        <v>44214</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K17" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L17" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M17" t="n">
-        <v>477</v>
+        <v>325</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>477</v>
+        <v>325</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K18" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
-        <v>279</v>
+        <v>175</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>279</v>
+        <v>175</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44568</v>
+        <v>44204</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L19" t="n">
         <v>900</v>
       </c>
       <c r="M19" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44568</v>
+        <v>44204</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="K20" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L20" t="n">
         <v>700</v>
       </c>
       <c r="M20" t="n">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44568</v>
+        <v>44204</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>2000</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L21" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M21" t="n">
-        <v>850</v>
+        <v>480</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>850</v>
+        <v>480</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44568</v>
+        <v>44204</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="K22" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L22" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M22" t="n">
-        <v>650</v>
+        <v>1156</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>650</v>
+        <v>1156</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="L23" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="M23" t="n">
-        <v>1050</v>
+        <v>281</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1050</v>
+        <v>281</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44553</v>
+        <v>44172</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L24" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M24" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44553</v>
+        <v>44172</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L25" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="M25" t="n">
-        <v>1050</v>
+        <v>825</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1050</v>
+        <v>825</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44553</v>
+        <v>44575</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K26" t="n">
+        <v>700</v>
+      </c>
+      <c r="L26" t="n">
         <v>800</v>
       </c>
-      <c r="L26" t="n">
-        <v>900</v>
-      </c>
       <c r="M26" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44252</v>
+        <v>44575</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K27" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L27" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M27" t="n">
-        <v>925</v>
+        <v>550</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>925</v>
+        <v>550</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44252</v>
+        <v>44575</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K28" t="n">
+        <v>700</v>
+      </c>
+      <c r="L28" t="n">
         <v>800</v>
       </c>
-      <c r="L28" t="n">
-        <v>850</v>
-      </c>
       <c r="M28" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44566</v>
+        <v>44575</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K29" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L29" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M29" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44566</v>
+        <v>44243</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L30" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M30" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44566</v>
+        <v>44243</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2580,25 +2580,25 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L31" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M31" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>2000</v>
       </c>
       <c r="K32" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L32" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M32" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44222</v>
+        <v>44568</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="K33" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L33" t="n">
         <v>700</v>
       </c>
       <c r="M33" t="n">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44222</v>
+        <v>44568</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2796,25 +2796,25 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K34" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L34" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M34" t="n">
-        <v>480</v>
+        <v>850</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>480</v>
+        <v>850</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44222</v>
+        <v>44568</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="K35" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L35" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M35" t="n">
-        <v>347</v>
+        <v>650</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>347</v>
+        <v>650</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44222</v>
+        <v>44566</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J36" t="n">
         <v>1200</v>
       </c>
       <c r="K36" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="L36" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M36" t="n">
-        <v>871</v>
+        <v>800</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>871</v>
+        <v>800</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44559</v>
+        <v>44566</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L37" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M37" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44559</v>
+        <v>44566</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K38" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L38" t="n">
         <v>800</v>
       </c>
       <c r="M38" t="n">
-        <v>746</v>
+        <v>800</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>746</v>
+        <v>800</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44559</v>
+        <v>44566</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
         <v>2000</v>
       </c>
       <c r="K39" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L39" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M39" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44559</v>
+        <v>44571</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3228,25 +3228,25 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K40" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L40" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M40" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44575</v>
+        <v>44571</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="K41" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L41" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M41" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44575</v>
+        <v>44571</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3372,25 +3372,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K42" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L42" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M42" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44575</v>
+        <v>44571</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="K43" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L43" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M43" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44575</v>
+        <v>44181</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1600</v>
+        <v>260</v>
       </c>
       <c r="K44" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L44" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M44" t="n">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>1200</v>
       </c>
       <c r="K45" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L45" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="M45" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K46" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L46" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M46" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K47" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L47" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M47" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K48" t="n">
+        <v>800</v>
+      </c>
+      <c r="L48" t="n">
         <v>850</v>
       </c>
-      <c r="L48" t="n">
-        <v>900</v>
-      </c>
       <c r="M48" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44195</v>
+        <v>44223</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K49" t="n">
         <v>700</v>
       </c>
       <c r="L49" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M49" t="n">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44561</v>
+        <v>44223</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K50" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L50" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M50" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44561</v>
+        <v>44223</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K51" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L51" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M51" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>850</v>
+        <v>347</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44561</v>
+        <v>44223</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4092,25 +4092,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="K52" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L52" t="n">
         <v>1000</v>
       </c>
       <c r="M52" t="n">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44561</v>
+        <v>44223</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K53" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L53" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="M53" t="n">
-        <v>850</v>
+        <v>220</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>850</v>
+        <v>220</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44557</v>
+        <v>44201</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K54" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L54" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M54" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44557</v>
+        <v>44201</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K55" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L55" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M55" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44232</v>
+        <v>44201</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K56" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L56" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M56" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K57" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L57" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M57" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K58" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L58" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M58" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K59" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="L59" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M59" t="n">
-        <v>625</v>
+        <v>975</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>625</v>
+        <v>975</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44581</v>
+        <v>44208</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K60" t="n">
+        <v>750</v>
+      </c>
+      <c r="L60" t="n">
         <v>800</v>
       </c>
-      <c r="K60" t="n">
-        <v>800</v>
-      </c>
-      <c r="L60" t="n">
-        <v>850</v>
-      </c>
       <c r="M60" t="n">
-        <v>825</v>
+        <v>776</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>825</v>
+        <v>776</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44581</v>
+        <v>44208</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K61" t="n">
+        <v>550</v>
+      </c>
+      <c r="L61" t="n">
         <v>600</v>
       </c>
-      <c r="K61" t="n">
-        <v>700</v>
-      </c>
-      <c r="L61" t="n">
-        <v>750</v>
-      </c>
       <c r="M61" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44581</v>
+        <v>44208</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K62" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L62" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M62" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44581</v>
+        <v>44194</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K63" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L63" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M63" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K64" t="n">
         <v>700</v>
       </c>
       <c r="L64" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M64" t="n">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K65" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L65" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M65" t="n">
-        <v>556</v>
+        <v>925</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>556</v>
+        <v>925</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K66" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L66" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M66" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44223</v>
+        <v>44236</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K67" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L67" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M67" t="n">
-        <v>955</v>
+        <v>625</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>955</v>
+        <v>625</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44223</v>
+        <v>44236</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K68" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L68" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="M68" t="n">
-        <v>220</v>
+        <v>525</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>220</v>
+        <v>525</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44189</v>
+        <v>44251</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K69" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L69" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="M69" t="n">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K70" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L70" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M70" t="n">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44166</v>
+        <v>44222</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K71" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L71" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M71" t="n">
-        <v>1000</v>
+        <v>674</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1000</v>
+        <v>674</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44166</v>
+        <v>44222</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K72" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L72" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M72" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44200</v>
+        <v>44222</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K73" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L73" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M73" t="n">
-        <v>953</v>
+        <v>347</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>953</v>
+        <v>347</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44200</v>
+        <v>44222</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="K74" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L74" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M74" t="n">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44200</v>
+        <v>44195</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="K75" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L75" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M75" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44231</v>
+        <v>44195</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K76" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L76" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M76" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44231</v>
+        <v>44195</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K77" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L77" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M77" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44231</v>
+        <v>44195</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K78" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L78" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M78" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44231</v>
+        <v>44195</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6048,13 +6048,13 @@
         <v>600</v>
       </c>
       <c r="K79" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L79" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M79" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44579</v>
+        <v>44559</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K80" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L80" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M80" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44579</v>
+        <v>44559</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K81" t="n">
+        <v>700</v>
+      </c>
+      <c r="L81" t="n">
         <v>800</v>
       </c>
-      <c r="L81" t="n">
-        <v>850</v>
-      </c>
       <c r="M81" t="n">
-        <v>825</v>
+        <v>746</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>825</v>
+        <v>746</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44202</v>
+        <v>44559</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1550</v>
+        <v>2000</v>
       </c>
       <c r="K82" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L82" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="M82" t="n">
-        <v>927</v>
+        <v>1000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>927</v>
+        <v>1000</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44202</v>
+        <v>44559</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K83" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L83" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M83" t="n">
-        <v>677</v>
+        <v>850</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>677</v>
+        <v>850</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44202</v>
+        <v>44215</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K84" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L84" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M84" t="n">
-        <v>470</v>
+        <v>779</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>470</v>
+        <v>779</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44202</v>
+        <v>44215</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K85" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L85" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M85" t="n">
-        <v>271</v>
+        <v>576</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>271</v>
+        <v>576</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
         <v>1400</v>
       </c>
       <c r="K86" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L86" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M86" t="n">
-        <v>825</v>
+        <v>357</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>825</v>
+        <v>357</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K87" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="L87" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M87" t="n">
-        <v>660</v>
+        <v>975</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>660</v>
+        <v>975</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K88" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L88" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M88" t="n">
-        <v>482</v>
+        <v>220</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>482</v>
+        <v>220</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K89" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L89" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M89" t="n">
-        <v>977</v>
+        <v>877</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>977</v>
+        <v>877</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K90" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L90" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M90" t="n">
-        <v>325</v>
+        <v>675</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>325</v>
+        <v>675</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44172</v>
+        <v>44215</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="K91" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L91" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M91" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44172</v>
+        <v>44224</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="K92" t="n">
+        <v>700</v>
+      </c>
+      <c r="L92" t="n">
         <v>800</v>
       </c>
-      <c r="L92" t="n">
-        <v>850</v>
-      </c>
       <c r="M92" t="n">
-        <v>825</v>
+        <v>747</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>825</v>
+        <v>747</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44201</v>
+        <v>44224</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K93" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L93" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M93" t="n">
-        <v>977</v>
+        <v>544</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>977</v>
+        <v>544</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44201</v>
+        <v>44224</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K94" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="L94" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M94" t="n">
-        <v>776</v>
+        <v>400</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>776</v>
+        <v>400</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44201</v>
+        <v>44224</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K95" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L95" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M95" t="n">
-        <v>575</v>
+        <v>942</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>575</v>
+        <v>942</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44215</v>
+        <v>44224</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K96" t="n">
         <v>750</v>
@@ -7278,7 +7278,7 @@
         <v>800</v>
       </c>
       <c r="M96" t="n">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44215</v>
+        <v>44224</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K97" t="n">
         <v>550</v>
@@ -7350,7 +7350,7 @@
         <v>600</v>
       </c>
       <c r="M97" t="n">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44215</v>
+        <v>44224</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K98" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L98" t="n">
         <v>400</v>
       </c>
       <c r="M98" t="n">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44215</v>
+        <v>44230</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K99" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L99" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M99" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44215</v>
+        <v>44230</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K100" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L100" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M100" t="n">
-        <v>220</v>
+        <v>725</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>220</v>
+        <v>725</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44215</v>
+        <v>44230</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K101" t="n">
+        <v>800</v>
+      </c>
+      <c r="L101" t="n">
         <v>850</v>
       </c>
-      <c r="L101" t="n">
-        <v>900</v>
-      </c>
       <c r="M101" t="n">
-        <v>877</v>
+        <v>825</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>877</v>
+        <v>825</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44215</v>
+        <v>44230</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K102" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L102" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M102" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44215</v>
+        <v>44579</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K103" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L103" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M103" t="n">
-        <v>475</v>
+        <v>825</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>475</v>
+        <v>825</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44204</v>
+        <v>44579</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -7836,25 +7836,25 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K104" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="L104" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="M104" t="n">
-        <v>175</v>
+        <v>825</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>175</v>
+        <v>825</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44204</v>
+        <v>44574</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1400</v>
+        <v>6000</v>
       </c>
       <c r="K105" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="L105" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M105" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44204</v>
+        <v>44574</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1800</v>
+        <v>10000</v>
       </c>
       <c r="K106" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L106" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M106" t="n">
-        <v>678</v>
+        <v>550</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>678</v>
+        <v>550</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44204</v>
+        <v>44574</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8052,25 +8052,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="K107" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L107" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M107" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44204</v>
+        <v>44574</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="K108" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L108" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M108" t="n">
-        <v>1156</v>
+        <v>550</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1156</v>
+        <v>550</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44204</v>
+        <v>44231</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K109" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L109" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M109" t="n">
-        <v>281</v>
+        <v>725</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>281</v>
+        <v>725</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44574</v>
+        <v>44231</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="K110" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L110" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M110" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44574</v>
+        <v>44231</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="K111" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L111" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M111" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44574</v>
+        <v>44231</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="K112" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L112" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M112" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44574</v>
+        <v>44232</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L113" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M113" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44582</v>
+        <v>44232</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
         <v>600</v>
       </c>
       <c r="K114" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L114" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M114" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44582</v>
+        <v>44232</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -8628,12 +8628,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44582</v>
+        <v>44232</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
+        <v>300</v>
+      </c>
+      <c r="K116" t="n">
         <v>600</v>
       </c>
-      <c r="K116" t="n">
-        <v>800</v>
-      </c>
       <c r="L116" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="M116" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44582</v>
+        <v>44553</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -8772,25 +8772,25 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K117" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L117" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M117" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>725</v>
+        <v>1050</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44218</v>
+        <v>44553</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -8849,21 +8849,21 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K118" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L118" t="n">
+        <v>900</v>
+      </c>
+      <c r="M118" t="n">
         <v>850</v>
       </c>
-      <c r="M118" t="n">
-        <v>803</v>
-      </c>
       <c r="N118" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>803</v>
+        <v>850</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44218</v>
+        <v>44553</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -8916,25 +8916,25 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K119" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L119" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="M119" t="n">
-        <v>607</v>
+        <v>1050</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>607</v>
+        <v>1050</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44218</v>
+        <v>44553</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -8988,25 +8988,25 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="K120" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L120" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M120" t="n">
-        <v>459</v>
+        <v>850</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>459</v>
+        <v>850</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44218</v>
+        <v>44252</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K121" t="n">
+        <v>900</v>
+      </c>
+      <c r="L121" t="n">
         <v>950</v>
       </c>
-      <c r="L121" t="n">
-        <v>1000</v>
-      </c>
       <c r="M121" t="n">
-        <v>979</v>
+        <v>925</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>979</v>
+        <v>925</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44218</v>
+        <v>44252</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9132,25 +9132,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K122" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L122" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M122" t="n">
-        <v>310</v>
+        <v>825</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>310</v>
+        <v>825</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44251</v>
+        <v>44557</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K123" t="n">
+        <v>800</v>
+      </c>
+      <c r="L123" t="n">
         <v>850</v>
       </c>
-      <c r="L123" t="n">
-        <v>900</v>
-      </c>
       <c r="M123" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44251</v>
+        <v>44557</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K124" t="n">
         <v>700</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44210</v>
+        <v>44582</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K125" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="L125" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M125" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44210</v>
+        <v>44582</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K126" t="n">
+        <v>700</v>
+      </c>
+      <c r="L126" t="n">
         <v>750</v>
       </c>
-      <c r="L126" t="n">
-        <v>800</v>
-      </c>
       <c r="M126" t="n">
-        <v>773</v>
+        <v>725</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>773</v>
+        <v>725</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44210</v>
+        <v>44582</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -9492,25 +9492,25 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K127" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L127" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M127" t="n">
-        <v>540</v>
+        <v>825</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>540</v>
+        <v>825</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44210</v>
+        <v>44582</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K128" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L128" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M128" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>945</v>
+        <v>725</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9636,25 +9636,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K129" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L129" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M129" t="n">
-        <v>750</v>
+        <v>803</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>750</v>
+        <v>803</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9708,16 +9708,16 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="K130" t="n">
         <v>550</v>
@@ -9726,7 +9726,7 @@
         <v>650</v>
       </c>
       <c r="M130" t="n">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ 